--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miho1\OneDrive\デスクトップ\DIスクール\workspace\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4CB01A-B74B-4BF1-A4C2-32AF06FCBED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB1A47E-4FA3-45E0-AF4F-222A2F654C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.登録画面'!$A$1:$K$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3.登録確認画面'!$A$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="683">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -6014,13 +6016,7 @@
       <t>コウモク</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ミ</t>
+      <t>ミギガワランミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6192,13 +6188,7 @@
       <t>ミギガワ</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ミ</t>
+      <t>カクニンランミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8839,6 +8829,23 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>ミジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訂正済</t>
+    <rPh sb="0" eb="2">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訂正済</t>
+    <rPh sb="0" eb="3">
+      <t>テイセイスミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8847,7 +8854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8893,8 +8900,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8904,6 +8918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9085,9 +9105,6 @@
     <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9137,7 +9154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9422,7 +9442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9437,7 +9457,7 @@
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9675,10 +9695,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9712,7 +9733,7 @@
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -9762,11 +9783,11 @@
       <c r="J2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -9798,7 +9819,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="37.5">
+    <row r="4" spans="1:11" ht="37.5" hidden="1">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
@@ -9830,7 +9851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="37.5">
+    <row r="5" spans="1:11" ht="37.5" hidden="1">
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
@@ -9862,7 +9883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5">
+    <row r="6" spans="1:11" ht="37.5" hidden="1">
       <c r="A6" s="19" t="s">
         <v>34</v>
       </c>
@@ -9894,7 +9915,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5">
+    <row r="7" spans="1:11" ht="37.5" hidden="1">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
@@ -9926,7 +9947,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5">
+    <row r="8" spans="1:11" ht="37.5" hidden="1">
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
@@ -9986,14 +10007,14 @@
       <c r="I9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>249</v>
+      <c r="J9" s="52" t="s">
+        <v>681</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5">
+    <row r="10" spans="1:11" ht="37.5" hidden="1">
       <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
@@ -10025,7 +10046,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5">
+    <row r="11" spans="1:11" ht="37.5" hidden="1">
       <c r="A11" s="19" t="s">
         <v>42</v>
       </c>
@@ -10057,7 +10078,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="37.5">
+    <row r="12" spans="1:11" ht="37.5" hidden="1">
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
@@ -10089,7 +10110,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="37.5">
+    <row r="13" spans="1:11" ht="37.5" hidden="1">
       <c r="A13" s="19" t="s">
         <v>44</v>
       </c>
@@ -10121,7 +10142,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5">
+    <row r="14" spans="1:11" ht="37.5" hidden="1">
       <c r="A14" s="19" t="s">
         <v>45</v>
       </c>
@@ -10153,7 +10174,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="37.5">
+    <row r="15" spans="1:11" ht="37.5" hidden="1">
       <c r="A15" s="19" t="s">
         <v>46</v>
       </c>
@@ -10185,7 +10206,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="37.5">
+    <row r="16" spans="1:11" ht="37.5" hidden="1">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -10217,7 +10238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="37.5">
+    <row r="17" spans="1:11" ht="37.5" hidden="1">
       <c r="A17" s="19" t="s">
         <v>48</v>
       </c>
@@ -10494,7 +10515,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5">
+    <row r="25" spans="1:11" ht="37.5" hidden="1">
       <c r="A25" s="19" t="s">
         <v>85</v>
       </c>
@@ -10666,7 +10687,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="37.5">
+    <row r="30" spans="1:11" ht="37.5" hidden="1">
       <c r="A30" s="19" t="s">
         <v>90</v>
       </c>
@@ -10698,7 +10719,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="37.5">
+    <row r="31" spans="1:11" ht="37.5" hidden="1">
       <c r="A31" s="19" t="s">
         <v>91</v>
       </c>
@@ -10730,7 +10751,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="37.5">
+    <row r="32" spans="1:11" ht="37.5" hidden="1">
       <c r="A32" s="19" t="s">
         <v>92</v>
       </c>
@@ -10762,7 +10783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="37.5">
+    <row r="33" spans="1:11" ht="37.5" hidden="1">
       <c r="A33" s="19" t="s">
         <v>111</v>
       </c>
@@ -10794,7 +10815,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="37.5">
+    <row r="34" spans="1:11" ht="37.5" hidden="1">
       <c r="A34" s="19" t="s">
         <v>112</v>
       </c>
@@ -10826,7 +10847,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="37.5">
+    <row r="35" spans="1:11" ht="37.5" hidden="1">
       <c r="A35" s="19" t="s">
         <v>113</v>
       </c>
@@ -10858,7 +10879,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="37.5">
+    <row r="36" spans="1:11" ht="37.5" hidden="1">
       <c r="A36" s="19" t="s">
         <v>114</v>
       </c>
@@ -10890,7 +10911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="37.5">
+    <row r="37" spans="1:11" ht="37.5" hidden="1">
       <c r="A37" s="19" t="s">
         <v>115</v>
       </c>
@@ -10922,7 +10943,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="37.5">
+    <row r="38" spans="1:11" ht="37.5" hidden="1">
       <c r="A38" s="19" t="s">
         <v>116</v>
       </c>
@@ -10954,7 +10975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="37.5">
+    <row r="39" spans="1:11" ht="37.5" hidden="1">
       <c r="A39" s="19" t="s">
         <v>117</v>
       </c>
@@ -10986,7 +11007,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="37.5">
+    <row r="40" spans="1:11" ht="37.5" hidden="1">
       <c r="A40" s="19" t="s">
         <v>118</v>
       </c>
@@ -11018,7 +11039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="93.75">
+    <row r="41" spans="1:11" ht="93.75" hidden="1">
       <c r="A41" s="19" t="s">
         <v>119</v>
       </c>
@@ -11050,7 +11071,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="37.5">
+    <row r="42" spans="1:11" ht="37.5" hidden="1">
       <c r="A42" s="19" t="s">
         <v>120</v>
       </c>
@@ -11082,7 +11103,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="37.5">
+    <row r="43" spans="1:11" ht="37.5" hidden="1">
       <c r="A43" s="19" t="s">
         <v>121</v>
       </c>
@@ -11149,7 +11170,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="37.5">
+    <row r="45" spans="1:11" ht="37.5" hidden="1">
       <c r="A45" s="19" t="s">
         <v>123</v>
       </c>
@@ -11181,7 +11202,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="56.25">
+    <row r="46" spans="1:11" ht="56.25" hidden="1">
       <c r="A46" s="19" t="s">
         <v>124</v>
       </c>
@@ -11213,7 +11234,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="56.25">
+    <row r="47" spans="1:11" ht="56.25" hidden="1">
       <c r="A47" s="19" t="s">
         <v>125</v>
       </c>
@@ -11245,7 +11266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="56.25">
+    <row r="48" spans="1:11" ht="56.25" hidden="1">
       <c r="A48" s="19" t="s">
         <v>126</v>
       </c>
@@ -11277,7 +11298,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="56.25">
+    <row r="49" spans="1:11" ht="56.25" hidden="1">
       <c r="A49" s="19" t="s">
         <v>127</v>
       </c>
@@ -11309,7 +11330,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="56.25">
+    <row r="50" spans="1:11" ht="56.25" hidden="1">
       <c r="A50" s="19" t="s">
         <v>128</v>
       </c>
@@ -11341,7 +11362,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="56.25">
+    <row r="51" spans="1:11" ht="56.25" hidden="1">
       <c r="A51" s="19" t="s">
         <v>129</v>
       </c>
@@ -11373,7 +11394,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="131.25">
+    <row r="52" spans="1:11" ht="131.25" hidden="1">
       <c r="A52" s="19" t="s">
         <v>151</v>
       </c>
@@ -11405,7 +11426,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="131.25">
+    <row r="53" spans="1:11" ht="131.25" hidden="1">
       <c r="A53" s="19" t="s">
         <v>152</v>
       </c>
@@ -11437,7 +11458,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="93.75">
+    <row r="54" spans="1:11" ht="93.75" hidden="1">
       <c r="A54" s="19" t="s">
         <v>153</v>
       </c>
@@ -11469,7 +11490,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="131.25">
+    <row r="55" spans="1:11" ht="131.25" hidden="1">
       <c r="A55" s="19" t="s">
         <v>154</v>
       </c>
@@ -11501,7 +11522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="131.25">
+    <row r="56" spans="1:11" ht="131.25" hidden="1">
       <c r="A56" s="19" t="s">
         <v>155</v>
       </c>
@@ -11533,7 +11554,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="131.25">
+    <row r="57" spans="1:11" ht="131.25" hidden="1">
       <c r="A57" s="19" t="s">
         <v>156</v>
       </c>
@@ -11565,7 +11586,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="37.5">
+    <row r="58" spans="1:11" ht="37.5" hidden="1">
       <c r="A58" s="19" t="s">
         <v>157</v>
       </c>
@@ -11597,7 +11618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="56.25">
+    <row r="59" spans="1:11" ht="56.25" hidden="1">
       <c r="A59" s="19" t="s">
         <v>158</v>
       </c>
@@ -12294,23 +12315,23 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="40" customFormat="1" ht="37.5">
-      <c r="A79" s="37" t="s">
+    <row r="79" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
+      <c r="A79" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="37" t="s">
         <v>409</v>
       </c>
       <c r="G79" s="33" t="s">
@@ -12322,12 +12343,12 @@
       <c r="I79" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K79" s="38"/>
-    </row>
-    <row r="80" spans="1:11" ht="56.25">
+      <c r="K79" s="37"/>
+    </row>
+    <row r="80" spans="1:11" ht="56.25" hidden="1">
       <c r="A80" s="19" t="s">
         <v>520</v>
       </c>
@@ -12359,7 +12380,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="56.25">
+    <row r="81" spans="1:10" ht="56.25" hidden="1">
       <c r="A81" s="19" t="s">
         <v>521</v>
       </c>
@@ -12391,7 +12412,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="56.25">
+    <row r="82" spans="1:10" ht="56.25" hidden="1">
       <c r="A82" s="19" t="s">
         <v>522</v>
       </c>
@@ -12423,7 +12444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="56.25">
+    <row r="83" spans="1:10" ht="56.25" hidden="1">
       <c r="A83" s="19" t="s">
         <v>523</v>
       </c>
@@ -12455,7 +12476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="56.25">
+    <row r="84" spans="1:10" ht="56.25" hidden="1">
       <c r="A84" s="19" t="s">
         <v>524</v>
       </c>
@@ -12487,7 +12508,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="56.25">
+    <row r="85" spans="1:10" ht="56.25" hidden="1">
       <c r="A85" s="19" t="s">
         <v>525</v>
       </c>
@@ -12519,7 +12540,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="37.5">
+    <row r="86" spans="1:10" ht="37.5" hidden="1">
       <c r="A86" s="19" t="s">
         <v>526</v>
       </c>
@@ -12551,7 +12572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="56.25">
+    <row r="87" spans="1:10" ht="56.25" hidden="1">
       <c r="A87" s="19" t="s">
         <v>527</v>
       </c>
@@ -12583,7 +12604,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="56.25">
+    <row r="88" spans="1:10" ht="56.25" hidden="1">
       <c r="A88" s="19" t="s">
         <v>528</v>
       </c>
@@ -12615,7 +12636,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="56.25">
+    <row r="89" spans="1:10" ht="56.25" hidden="1">
       <c r="A89" s="19" t="s">
         <v>529</v>
       </c>
@@ -12647,7 +12668,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="37.5">
+    <row r="90" spans="1:10" ht="37.5" hidden="1">
       <c r="A90" s="19" t="s">
         <v>530</v>
       </c>
@@ -12679,7 +12700,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="37.5">
+    <row r="91" spans="1:10" ht="37.5" hidden="1">
       <c r="A91" s="19" t="s">
         <v>531</v>
       </c>
@@ -12712,7 +12733,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K91" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="要修正"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12722,9 +12749,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -12740,38 +12770,38 @@
     <col min="11" max="11" width="40.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="45" customFormat="1" ht="18">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" s="44" customFormat="1" ht="18">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12810,7 +12840,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
@@ -12842,7 +12872,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="19" t="s">
         <v>54</v>
       </c>
@@ -12902,14 +12932,14 @@
       <c r="I5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>249</v>
+      <c r="J5" s="53" t="s">
+        <v>682</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5">
+    <row r="6" spans="1:11" ht="37.5" hidden="1">
       <c r="A6" s="19" t="s">
         <v>56</v>
       </c>
@@ -12941,7 +12971,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5">
+    <row r="7" spans="1:11" ht="37.5" hidden="1">
       <c r="A7" s="19" t="s">
         <v>70</v>
       </c>
@@ -12973,7 +13003,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5">
+    <row r="8" spans="1:11" ht="37.5" hidden="1">
       <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
@@ -13040,7 +13070,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5">
+    <row r="10" spans="1:11" ht="37.5" hidden="1">
       <c r="A10" s="19" t="s">
         <v>73</v>
       </c>
@@ -13072,7 +13102,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="37.5">
+    <row r="11" spans="1:11" ht="37.5" hidden="1">
       <c r="A11" s="19" t="s">
         <v>74</v>
       </c>
@@ -13104,7 +13134,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="37.5">
+    <row r="12" spans="1:11" ht="37.5" hidden="1">
       <c r="A12" s="19" t="s">
         <v>75</v>
       </c>
@@ -13136,7 +13166,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="37.5">
+    <row r="13" spans="1:11" ht="37.5" hidden="1">
       <c r="A13" s="19" t="s">
         <v>76</v>
       </c>
@@ -13168,7 +13198,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5">
+    <row r="14" spans="1:11" ht="37.5" hidden="1">
       <c r="A14" s="19" t="s">
         <v>77</v>
       </c>
@@ -13200,7 +13230,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="37.5">
+    <row r="15" spans="1:11" ht="37.5" hidden="1">
       <c r="A15" s="19" t="s">
         <v>78</v>
       </c>
@@ -13232,7 +13262,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="37.5">
+    <row r="16" spans="1:11" ht="37.5" hidden="1">
       <c r="A16" s="19" t="s">
         <v>79</v>
       </c>
@@ -13264,7 +13294,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="37.5">
+    <row r="17" spans="1:11" ht="37.5" hidden="1">
       <c r="A17" s="19" t="s">
         <v>80</v>
       </c>
@@ -13296,7 +13326,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="37.5">
+    <row r="18" spans="1:11" ht="37.5" hidden="1">
       <c r="A18" s="19" t="s">
         <v>81</v>
       </c>
@@ -13328,7 +13358,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="37.5">
+    <row r="19" spans="1:11" ht="37.5" hidden="1">
       <c r="A19" s="19" t="s">
         <v>177</v>
       </c>
@@ -13360,7 +13390,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="37.5">
+    <row r="20" spans="1:11" ht="37.5" hidden="1">
       <c r="A20" s="19" t="s">
         <v>178</v>
       </c>
@@ -13427,7 +13457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="37.5">
+    <row r="22" spans="1:11" ht="37.5" hidden="1">
       <c r="A22" s="19" t="s">
         <v>180</v>
       </c>
@@ -13459,7 +13489,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="37.5">
+    <row r="23" spans="1:11" ht="37.5" hidden="1">
       <c r="A23" s="19" t="s">
         <v>181</v>
       </c>
@@ -13491,7 +13521,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="37.5">
+    <row r="24" spans="1:11" ht="37.5" hidden="1">
       <c r="A24" s="19" t="s">
         <v>545</v>
       </c>
@@ -13523,7 +13553,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5">
+    <row r="25" spans="1:11" ht="37.5" hidden="1">
       <c r="A25" s="19" t="s">
         <v>546</v>
       </c>
@@ -13555,7 +13585,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="37.5">
+    <row r="26" spans="1:11" ht="37.5" hidden="1">
       <c r="A26" s="19" t="s">
         <v>547</v>
       </c>
@@ -13587,7 +13617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="37.5">
+    <row r="27" spans="1:11" ht="37.5" hidden="1">
       <c r="A27" s="19" t="s">
         <v>548</v>
       </c>
@@ -13619,7 +13649,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="37.5">
+    <row r="28" spans="1:11" ht="37.5" hidden="1">
       <c r="A28" s="19" t="s">
         <v>549</v>
       </c>
@@ -13686,7 +13716,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="37.5">
+    <row r="30" spans="1:11" ht="37.5" hidden="1">
       <c r="A30" s="19" t="s">
         <v>551</v>
       </c>
@@ -13718,7 +13748,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="37.5">
+    <row r="31" spans="1:11" ht="37.5" hidden="1">
       <c r="A31" s="19" t="s">
         <v>552</v>
       </c>
@@ -13750,23 +13780,23 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="40" customFormat="1" ht="37.5">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
+      <c r="A32" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="37" t="s">
         <v>540</v>
       </c>
       <c r="G32" s="33" t="s">
@@ -13778,28 +13808,28 @@
       <c r="I32" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="1:11" s="40" customFormat="1" ht="56.25">
-      <c r="A33" s="37" t="s">
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="1:11" s="39" customFormat="1" ht="56.25">
+      <c r="A33" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="37" t="s">
         <v>541</v>
       </c>
       <c r="G33" s="33" t="s">
@@ -13811,14 +13841,14 @@
       <c r="I33" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="37" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="56.25">
+    <row r="34" spans="1:11" ht="56.25" hidden="1">
       <c r="A34" s="19" t="s">
         <v>555</v>
       </c>
@@ -13866,6 +13896,14 @@
       <c r="C39" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K34" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="要確認"/>
+        <filter val="要修正"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14053,23 +14091,23 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="40" customFormat="1" ht="37.5">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:11" s="39" customFormat="1" ht="37.5">
+      <c r="A6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>567</v>
       </c>
       <c r="G6" s="33" t="s">
@@ -14081,7 +14119,7 @@
       <c r="I6" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>246</v>
       </c>
       <c r="K6" s="33"/>
@@ -16073,7 +16111,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" ht="18">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -16103,10 +16141,10 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="17" t="s">
         <v>600</v>
       </c>
     </row>
@@ -16133,7 +16171,7 @@
       <c r="J2" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="8" t="s">
         <v>246</v>
       </c>
@@ -16161,7 +16199,7 @@
       <c r="J3" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="8" t="s">
         <v>246</v>
       </c>
@@ -16189,7 +16227,7 @@
       <c r="J4" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="8" t="s">
         <v>246</v>
       </c>
@@ -16217,7 +16255,7 @@
       <c r="J5" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="8" t="s">
         <v>246</v>
       </c>
@@ -16245,7 +16283,7 @@
       <c r="J6" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="8" t="s">
         <v>246</v>
       </c>
@@ -16273,7 +16311,7 @@
       <c r="J7" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="8" t="s">
         <v>246</v>
       </c>
@@ -16301,7 +16339,7 @@
       <c r="J8" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="8" t="s">
         <v>246</v>
       </c>
@@ -16329,7 +16367,7 @@
       <c r="J9" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="8" t="s">
         <v>246</v>
       </c>
@@ -16357,7 +16395,7 @@
       <c r="J10" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="8" t="s">
         <v>246</v>
       </c>
@@ -16385,7 +16423,7 @@
       <c r="J11" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="8" t="s">
         <v>246</v>
       </c>
@@ -16413,7 +16451,7 @@
       <c r="J12" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="8" t="s">
         <v>246</v>
       </c>
@@ -16441,7 +16479,7 @@
       <c r="J13" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="8" t="s">
         <v>246</v>
       </c>
@@ -16469,7 +16507,7 @@
       <c r="J14" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="8" t="s">
         <v>246</v>
       </c>
@@ -16497,7 +16535,7 @@
       <c r="J15" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="8" t="s">
         <v>246</v>
       </c>
@@ -16525,7 +16563,7 @@
       <c r="J16" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="8" t="s">
         <v>246</v>
       </c>
@@ -16553,7 +16591,7 @@
       <c r="J17" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="8" t="s">
         <v>246</v>
       </c>
@@ -16581,7 +16619,7 @@
       <c r="J18" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K18" s="51"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="8" t="s">
         <v>246</v>
       </c>
@@ -16609,7 +16647,7 @@
       <c r="J19" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="8" t="s">
         <v>246</v>
       </c>
@@ -16637,7 +16675,7 @@
       <c r="J20" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K20" s="51"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="8" t="s">
         <v>246</v>
       </c>
@@ -16665,7 +16703,7 @@
       <c r="J21" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="8" t="s">
         <v>246</v>
       </c>
@@ -16693,7 +16731,7 @@
       <c r="J22" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K22" s="51"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="8" t="s">
         <v>246</v>
       </c>
@@ -16721,7 +16759,7 @@
       <c r="J23" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="8" t="s">
         <v>246</v>
       </c>
@@ -16749,7 +16787,7 @@
       <c r="J24" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="8" t="s">
         <v>246</v>
       </c>
@@ -16777,7 +16815,7 @@
       <c r="J25" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="8" t="s">
         <v>246</v>
       </c>
@@ -16805,7 +16843,7 @@
       <c r="J26" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K26" s="51"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="8" t="s">
         <v>246</v>
       </c>
@@ -16833,7 +16871,7 @@
       <c r="J27" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="8" t="s">
         <v>246</v>
       </c>
@@ -16861,7 +16899,7 @@
       <c r="J28" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K28" s="51"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="8" t="s">
         <v>246</v>
       </c>
@@ -16889,7 +16927,7 @@
       <c r="J29" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K29" s="51"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="8" t="s">
         <v>246</v>
       </c>
@@ -16917,7 +16955,7 @@
       <c r="J30" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K30" s="51"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="8" t="s">
         <v>246</v>
       </c>
@@ -16945,7 +16983,7 @@
       <c r="J31" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="8" t="s">
         <v>246</v>
       </c>
@@ -16973,7 +17011,7 @@
       <c r="J32" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K32" s="51"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="8" t="s">
         <v>246</v>
       </c>
@@ -17001,7 +17039,7 @@
       <c r="J33" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K33" s="51"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="8" t="s">
         <v>246</v>
       </c>
@@ -17028,7 +17066,7 @@
       <c r="J34" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K34" s="52"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="8" t="s">
         <v>246</v>
       </c>
@@ -17055,7 +17093,7 @@
       <c r="J35" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K35" s="52"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="8" t="s">
         <v>246</v>
       </c>
@@ -17082,7 +17120,7 @@
       <c r="J36" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K36" s="52"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="8" t="s">
         <v>246</v>
       </c>
@@ -17110,7 +17148,7 @@
       <c r="J37" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="8" t="s">
         <v>249</v>
       </c>
@@ -17135,7 +17173,7 @@
       <c r="J38" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="8" t="s">
         <v>249</v>
       </c>
@@ -17159,7 +17197,7 @@
       <c r="J39" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="50"/>
       <c r="L39" s="8" t="s">
         <v>246</v>
       </c>
@@ -17183,7 +17221,7 @@
       <c r="J40" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K40" s="51"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="8" t="s">
         <v>246</v>
       </c>
@@ -17207,7 +17245,7 @@
       <c r="J41" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="37.5">
       <c r="A42" s="21" t="s">
@@ -17228,7 +17266,7 @@
       <c r="J42" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K42" s="51"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="8" t="s">
         <v>246</v>
       </c>
@@ -17252,7 +17290,7 @@
       <c r="J43" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="8" t="s">
         <v>246</v>
       </c>
@@ -17276,7 +17314,7 @@
       <c r="J44" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="50"/>
       <c r="L44" s="8" t="s">
         <v>246</v>
       </c>
@@ -17300,7 +17338,7 @@
       <c r="J45" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K45" s="51"/>
+      <c r="K45" s="50"/>
       <c r="L45" s="8" t="s">
         <v>246</v>
       </c>
@@ -17324,7 +17362,7 @@
       <c r="J46" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K46" s="51"/>
+      <c r="K46" s="50"/>
     </row>
     <row r="47" spans="1:12" ht="37.5">
       <c r="A47" s="21" t="s">
@@ -17345,7 +17383,7 @@
       <c r="J47" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K47" s="51"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="8" t="s">
         <v>246</v>
       </c>
@@ -17369,7 +17407,7 @@
       <c r="J48" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="50"/>
       <c r="L48" s="8" t="s">
         <v>246</v>
       </c>
@@ -17377,1927 +17415,1927 @@
     <row r="49" spans="4:11">
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
-      <c r="K49" s="51"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="K50" s="51"/>
+      <c r="K50" s="50"/>
     </row>
     <row r="51" spans="4:11">
-      <c r="K51" s="51"/>
+      <c r="K51" s="50"/>
     </row>
     <row r="52" spans="4:11">
-      <c r="K52" s="51"/>
+      <c r="K52" s="50"/>
     </row>
     <row r="53" spans="4:11">
-      <c r="K53" s="51"/>
+      <c r="K53" s="50"/>
     </row>
     <row r="54" spans="4:11">
-      <c r="K54" s="51"/>
+      <c r="K54" s="50"/>
     </row>
     <row r="55" spans="4:11">
-      <c r="K55" s="51"/>
+      <c r="K55" s="50"/>
     </row>
     <row r="56" spans="4:11">
-      <c r="K56" s="51"/>
+      <c r="K56" s="50"/>
     </row>
     <row r="57" spans="4:11">
-      <c r="K57" s="51"/>
+      <c r="K57" s="50"/>
     </row>
     <row r="58" spans="4:11">
-      <c r="K58" s="51"/>
+      <c r="K58" s="50"/>
     </row>
     <row r="59" spans="4:11">
-      <c r="K59" s="51"/>
+      <c r="K59" s="50"/>
     </row>
     <row r="60" spans="4:11">
-      <c r="K60" s="51"/>
+      <c r="K60" s="50"/>
     </row>
     <row r="61" spans="4:11">
-      <c r="K61" s="51"/>
+      <c r="K61" s="50"/>
     </row>
     <row r="62" spans="4:11">
-      <c r="K62" s="51"/>
+      <c r="K62" s="50"/>
     </row>
     <row r="63" spans="4:11">
-      <c r="K63" s="51"/>
+      <c r="K63" s="50"/>
     </row>
     <row r="64" spans="4:11">
-      <c r="K64" s="51"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="11:11">
-      <c r="K65" s="51"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="11:11">
-      <c r="K66" s="51"/>
+      <c r="K66" s="50"/>
     </row>
     <row r="67" spans="11:11">
-      <c r="K67" s="51"/>
+      <c r="K67" s="50"/>
     </row>
     <row r="68" spans="11:11">
-      <c r="K68" s="51"/>
+      <c r="K68" s="50"/>
     </row>
     <row r="69" spans="11:11">
-      <c r="K69" s="51"/>
+      <c r="K69" s="50"/>
     </row>
     <row r="70" spans="11:11">
-      <c r="K70" s="51"/>
+      <c r="K70" s="50"/>
     </row>
     <row r="71" spans="11:11">
-      <c r="K71" s="51"/>
+      <c r="K71" s="50"/>
     </row>
     <row r="72" spans="11:11">
-      <c r="K72" s="51"/>
+      <c r="K72" s="50"/>
     </row>
     <row r="73" spans="11:11">
-      <c r="K73" s="51"/>
+      <c r="K73" s="50"/>
     </row>
     <row r="74" spans="11:11">
-      <c r="K74" s="51"/>
+      <c r="K74" s="50"/>
     </row>
     <row r="75" spans="11:11">
-      <c r="K75" s="51"/>
+      <c r="K75" s="50"/>
     </row>
     <row r="76" spans="11:11">
-      <c r="K76" s="51"/>
+      <c r="K76" s="50"/>
     </row>
     <row r="77" spans="11:11">
-      <c r="K77" s="51"/>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="51"/>
+      <c r="K78" s="50"/>
     </row>
     <row r="79" spans="11:11">
-      <c r="K79" s="51"/>
+      <c r="K79" s="50"/>
     </row>
     <row r="80" spans="11:11">
-      <c r="K80" s="51"/>
+      <c r="K80" s="50"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="51"/>
+      <c r="K81" s="50"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="51"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="51"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="51"/>
+      <c r="K84" s="50"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="51"/>
+      <c r="K85" s="50"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="51"/>
+      <c r="K86" s="50"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="51"/>
+      <c r="K87" s="50"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="51"/>
+      <c r="K88" s="50"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="51"/>
+      <c r="K89" s="50"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="51"/>
+      <c r="K90" s="50"/>
     </row>
     <row r="91" spans="11:11">
-      <c r="K91" s="51"/>
+      <c r="K91" s="50"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="51"/>
+      <c r="K92" s="50"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="51"/>
+      <c r="K93" s="50"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="51"/>
+      <c r="K94" s="50"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="51"/>
+      <c r="K95" s="50"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="51"/>
+      <c r="K96" s="50"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="51"/>
+      <c r="K97" s="50"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="51"/>
+      <c r="K98" s="50"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="51"/>
+      <c r="K99" s="50"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="51"/>
+      <c r="K100" s="50"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="51"/>
+      <c r="K101" s="50"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="51"/>
+      <c r="K102" s="50"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="51"/>
+      <c r="K103" s="50"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="51"/>
+      <c r="K104" s="50"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="51"/>
+      <c r="K105" s="50"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="51"/>
+      <c r="K106" s="50"/>
     </row>
     <row r="107" spans="11:11">
-      <c r="K107" s="51"/>
+      <c r="K107" s="50"/>
     </row>
     <row r="108" spans="11:11">
-      <c r="K108" s="51"/>
+      <c r="K108" s="50"/>
     </row>
     <row r="109" spans="11:11">
-      <c r="K109" s="51"/>
+      <c r="K109" s="50"/>
     </row>
     <row r="110" spans="11:11">
-      <c r="K110" s="51"/>
+      <c r="K110" s="50"/>
     </row>
     <row r="111" spans="11:11">
-      <c r="K111" s="51"/>
+      <c r="K111" s="50"/>
     </row>
     <row r="112" spans="11:11">
-      <c r="K112" s="51"/>
+      <c r="K112" s="50"/>
     </row>
     <row r="113" spans="11:11">
-      <c r="K113" s="51"/>
+      <c r="K113" s="50"/>
     </row>
     <row r="114" spans="11:11">
-      <c r="K114" s="51"/>
+      <c r="K114" s="50"/>
     </row>
     <row r="115" spans="11:11">
-      <c r="K115" s="51"/>
+      <c r="K115" s="50"/>
     </row>
     <row r="116" spans="11:11">
-      <c r="K116" s="51"/>
+      <c r="K116" s="50"/>
     </row>
     <row r="117" spans="11:11">
-      <c r="K117" s="51"/>
+      <c r="K117" s="50"/>
     </row>
     <row r="118" spans="11:11">
-      <c r="K118" s="51"/>
+      <c r="K118" s="50"/>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" s="51"/>
+      <c r="K119" s="50"/>
     </row>
     <row r="120" spans="11:11">
-      <c r="K120" s="51"/>
+      <c r="K120" s="50"/>
     </row>
     <row r="121" spans="11:11">
-      <c r="K121" s="51"/>
+      <c r="K121" s="50"/>
     </row>
     <row r="122" spans="11:11">
-      <c r="K122" s="51"/>
+      <c r="K122" s="50"/>
     </row>
     <row r="123" spans="11:11">
-      <c r="K123" s="51"/>
+      <c r="K123" s="50"/>
     </row>
     <row r="124" spans="11:11">
-      <c r="K124" s="51"/>
+      <c r="K124" s="50"/>
     </row>
     <row r="125" spans="11:11">
-      <c r="K125" s="51"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="11:11">
-      <c r="K126" s="51"/>
+      <c r="K126" s="50"/>
     </row>
     <row r="127" spans="11:11">
-      <c r="K127" s="51"/>
+      <c r="K127" s="50"/>
     </row>
     <row r="128" spans="11:11">
-      <c r="K128" s="51"/>
+      <c r="K128" s="50"/>
     </row>
     <row r="129" spans="11:11">
-      <c r="K129" s="51"/>
+      <c r="K129" s="50"/>
     </row>
     <row r="130" spans="11:11">
-      <c r="K130" s="51"/>
+      <c r="K130" s="50"/>
     </row>
     <row r="131" spans="11:11">
-      <c r="K131" s="51"/>
+      <c r="K131" s="50"/>
     </row>
     <row r="132" spans="11:11">
-      <c r="K132" s="51"/>
+      <c r="K132" s="50"/>
     </row>
     <row r="133" spans="11:11">
-      <c r="K133" s="51"/>
+      <c r="K133" s="50"/>
     </row>
     <row r="134" spans="11:11">
-      <c r="K134" s="51"/>
+      <c r="K134" s="50"/>
     </row>
     <row r="135" spans="11:11">
-      <c r="K135" s="51"/>
+      <c r="K135" s="50"/>
     </row>
     <row r="136" spans="11:11">
-      <c r="K136" s="51"/>
+      <c r="K136" s="50"/>
     </row>
     <row r="137" spans="11:11">
-      <c r="K137" s="51"/>
+      <c r="K137" s="50"/>
     </row>
     <row r="138" spans="11:11">
-      <c r="K138" s="51"/>
+      <c r="K138" s="50"/>
     </row>
     <row r="139" spans="11:11">
-      <c r="K139" s="51"/>
+      <c r="K139" s="50"/>
     </row>
     <row r="140" spans="11:11">
-      <c r="K140" s="51"/>
+      <c r="K140" s="50"/>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="51"/>
+      <c r="K141" s="50"/>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="51"/>
+      <c r="K142" s="50"/>
     </row>
     <row r="143" spans="11:11">
-      <c r="K143" s="51"/>
+      <c r="K143" s="50"/>
     </row>
     <row r="144" spans="11:11">
-      <c r="K144" s="51"/>
+      <c r="K144" s="50"/>
     </row>
     <row r="145" spans="11:11">
-      <c r="K145" s="51"/>
+      <c r="K145" s="50"/>
     </row>
     <row r="146" spans="11:11">
-      <c r="K146" s="51"/>
+      <c r="K146" s="50"/>
     </row>
     <row r="147" spans="11:11">
-      <c r="K147" s="51"/>
+      <c r="K147" s="50"/>
     </row>
     <row r="148" spans="11:11">
-      <c r="K148" s="51"/>
+      <c r="K148" s="50"/>
     </row>
     <row r="149" spans="11:11">
-      <c r="K149" s="51"/>
+      <c r="K149" s="50"/>
     </row>
     <row r="150" spans="11:11">
-      <c r="K150" s="51"/>
+      <c r="K150" s="50"/>
     </row>
     <row r="151" spans="11:11">
-      <c r="K151" s="51"/>
+      <c r="K151" s="50"/>
     </row>
     <row r="152" spans="11:11">
-      <c r="K152" s="51"/>
+      <c r="K152" s="50"/>
     </row>
     <row r="153" spans="11:11">
-      <c r="K153" s="51"/>
+      <c r="K153" s="50"/>
     </row>
     <row r="154" spans="11:11">
-      <c r="K154" s="51"/>
+      <c r="K154" s="50"/>
     </row>
     <row r="155" spans="11:11">
-      <c r="K155" s="51"/>
+      <c r="K155" s="50"/>
     </row>
     <row r="156" spans="11:11">
-      <c r="K156" s="51"/>
+      <c r="K156" s="50"/>
     </row>
     <row r="157" spans="11:11">
-      <c r="K157" s="51"/>
+      <c r="K157" s="50"/>
     </row>
     <row r="158" spans="11:11">
-      <c r="K158" s="51"/>
+      <c r="K158" s="50"/>
     </row>
     <row r="159" spans="11:11">
-      <c r="K159" s="51"/>
+      <c r="K159" s="50"/>
     </row>
     <row r="160" spans="11:11">
-      <c r="K160" s="51"/>
+      <c r="K160" s="50"/>
     </row>
     <row r="161" spans="11:11">
-      <c r="K161" s="51"/>
+      <c r="K161" s="50"/>
     </row>
     <row r="162" spans="11:11">
-      <c r="K162" s="51"/>
+      <c r="K162" s="50"/>
     </row>
     <row r="163" spans="11:11">
-      <c r="K163" s="51"/>
+      <c r="K163" s="50"/>
     </row>
     <row r="164" spans="11:11">
-      <c r="K164" s="51"/>
+      <c r="K164" s="50"/>
     </row>
     <row r="165" spans="11:11">
-      <c r="K165" s="51"/>
+      <c r="K165" s="50"/>
     </row>
     <row r="166" spans="11:11">
-      <c r="K166" s="51"/>
+      <c r="K166" s="50"/>
     </row>
     <row r="167" spans="11:11">
-      <c r="K167" s="51"/>
+      <c r="K167" s="50"/>
     </row>
     <row r="168" spans="11:11">
-      <c r="K168" s="51"/>
+      <c r="K168" s="50"/>
     </row>
     <row r="169" spans="11:11">
-      <c r="K169" s="51"/>
+      <c r="K169" s="50"/>
     </row>
     <row r="170" spans="11:11">
-      <c r="K170" s="51"/>
+      <c r="K170" s="50"/>
     </row>
     <row r="171" spans="11:11">
-      <c r="K171" s="51"/>
+      <c r="K171" s="50"/>
     </row>
     <row r="172" spans="11:11">
-      <c r="K172" s="51"/>
+      <c r="K172" s="50"/>
     </row>
     <row r="173" spans="11:11">
-      <c r="K173" s="51"/>
+      <c r="K173" s="50"/>
     </row>
     <row r="174" spans="11:11">
-      <c r="K174" s="51"/>
+      <c r="K174" s="50"/>
     </row>
     <row r="175" spans="11:11">
-      <c r="K175" s="51"/>
+      <c r="K175" s="50"/>
     </row>
     <row r="176" spans="11:11">
-      <c r="K176" s="51"/>
+      <c r="K176" s="50"/>
     </row>
     <row r="177" spans="11:11">
-      <c r="K177" s="51"/>
+      <c r="K177" s="50"/>
     </row>
     <row r="178" spans="11:11">
-      <c r="K178" s="51"/>
+      <c r="K178" s="50"/>
     </row>
     <row r="179" spans="11:11">
-      <c r="K179" s="51"/>
+      <c r="K179" s="50"/>
     </row>
     <row r="180" spans="11:11">
-      <c r="K180" s="51"/>
+      <c r="K180" s="50"/>
     </row>
     <row r="181" spans="11:11">
-      <c r="K181" s="51"/>
+      <c r="K181" s="50"/>
     </row>
     <row r="182" spans="11:11">
-      <c r="K182" s="51"/>
+      <c r="K182" s="50"/>
     </row>
     <row r="183" spans="11:11">
-      <c r="K183" s="51"/>
+      <c r="K183" s="50"/>
     </row>
     <row r="184" spans="11:11">
-      <c r="K184" s="51"/>
+      <c r="K184" s="50"/>
     </row>
     <row r="185" spans="11:11">
-      <c r="K185" s="51"/>
+      <c r="K185" s="50"/>
     </row>
     <row r="186" spans="11:11">
-      <c r="K186" s="51"/>
+      <c r="K186" s="50"/>
     </row>
     <row r="187" spans="11:11">
-      <c r="K187" s="51"/>
+      <c r="K187" s="50"/>
     </row>
     <row r="188" spans="11:11">
-      <c r="K188" s="51"/>
+      <c r="K188" s="50"/>
     </row>
     <row r="189" spans="11:11">
-      <c r="K189" s="51"/>
+      <c r="K189" s="50"/>
     </row>
     <row r="190" spans="11:11">
-      <c r="K190" s="51"/>
+      <c r="K190" s="50"/>
     </row>
     <row r="191" spans="11:11">
-      <c r="K191" s="51"/>
+      <c r="K191" s="50"/>
     </row>
     <row r="192" spans="11:11">
-      <c r="K192" s="51"/>
+      <c r="K192" s="50"/>
     </row>
     <row r="193" spans="11:11">
-      <c r="K193" s="51"/>
+      <c r="K193" s="50"/>
     </row>
     <row r="194" spans="11:11">
-      <c r="K194" s="51"/>
+      <c r="K194" s="50"/>
     </row>
     <row r="195" spans="11:11">
-      <c r="K195" s="51"/>
+      <c r="K195" s="50"/>
     </row>
     <row r="196" spans="11:11">
-      <c r="K196" s="51"/>
+      <c r="K196" s="50"/>
     </row>
     <row r="197" spans="11:11">
-      <c r="K197" s="51"/>
+      <c r="K197" s="50"/>
     </row>
     <row r="198" spans="11:11">
-      <c r="K198" s="51"/>
+      <c r="K198" s="50"/>
     </row>
     <row r="199" spans="11:11">
-      <c r="K199" s="51"/>
+      <c r="K199" s="50"/>
     </row>
     <row r="200" spans="11:11">
-      <c r="K200" s="51"/>
+      <c r="K200" s="50"/>
     </row>
     <row r="201" spans="11:11">
-      <c r="K201" s="51"/>
+      <c r="K201" s="50"/>
     </row>
     <row r="202" spans="11:11">
-      <c r="K202" s="51"/>
+      <c r="K202" s="50"/>
     </row>
     <row r="203" spans="11:11">
-      <c r="K203" s="51"/>
+      <c r="K203" s="50"/>
     </row>
     <row r="204" spans="11:11">
-      <c r="K204" s="51"/>
+      <c r="K204" s="50"/>
     </row>
     <row r="205" spans="11:11">
-      <c r="K205" s="51"/>
+      <c r="K205" s="50"/>
     </row>
     <row r="206" spans="11:11">
-      <c r="K206" s="51"/>
+      <c r="K206" s="50"/>
     </row>
     <row r="207" spans="11:11">
-      <c r="K207" s="51"/>
+      <c r="K207" s="50"/>
     </row>
     <row r="208" spans="11:11">
-      <c r="K208" s="51"/>
+      <c r="K208" s="50"/>
     </row>
     <row r="209" spans="11:11">
-      <c r="K209" s="51"/>
+      <c r="K209" s="50"/>
     </row>
     <row r="210" spans="11:11">
-      <c r="K210" s="51"/>
+      <c r="K210" s="50"/>
     </row>
     <row r="211" spans="11:11">
-      <c r="K211" s="51"/>
+      <c r="K211" s="50"/>
     </row>
     <row r="212" spans="11:11">
-      <c r="K212" s="51"/>
+      <c r="K212" s="50"/>
     </row>
     <row r="213" spans="11:11">
-      <c r="K213" s="51"/>
+      <c r="K213" s="50"/>
     </row>
     <row r="214" spans="11:11">
-      <c r="K214" s="51"/>
+      <c r="K214" s="50"/>
     </row>
     <row r="215" spans="11:11">
-      <c r="K215" s="51"/>
+      <c r="K215" s="50"/>
     </row>
     <row r="216" spans="11:11">
-      <c r="K216" s="51"/>
+      <c r="K216" s="50"/>
     </row>
     <row r="217" spans="11:11">
-      <c r="K217" s="51"/>
+      <c r="K217" s="50"/>
     </row>
     <row r="218" spans="11:11">
-      <c r="K218" s="51"/>
+      <c r="K218" s="50"/>
     </row>
     <row r="219" spans="11:11">
-      <c r="K219" s="51"/>
+      <c r="K219" s="50"/>
     </row>
     <row r="220" spans="11:11">
-      <c r="K220" s="51"/>
+      <c r="K220" s="50"/>
     </row>
     <row r="221" spans="11:11">
-      <c r="K221" s="51"/>
+      <c r="K221" s="50"/>
     </row>
     <row r="222" spans="11:11">
-      <c r="K222" s="51"/>
+      <c r="K222" s="50"/>
     </row>
     <row r="223" spans="11:11">
-      <c r="K223" s="51"/>
+      <c r="K223" s="50"/>
     </row>
     <row r="224" spans="11:11">
-      <c r="K224" s="51"/>
+      <c r="K224" s="50"/>
     </row>
     <row r="225" spans="11:11">
-      <c r="K225" s="51"/>
+      <c r="K225" s="50"/>
     </row>
     <row r="226" spans="11:11">
-      <c r="K226" s="51"/>
+      <c r="K226" s="50"/>
     </row>
     <row r="227" spans="11:11">
-      <c r="K227" s="51"/>
+      <c r="K227" s="50"/>
     </row>
     <row r="228" spans="11:11">
-      <c r="K228" s="51"/>
+      <c r="K228" s="50"/>
     </row>
     <row r="229" spans="11:11">
-      <c r="K229" s="51"/>
+      <c r="K229" s="50"/>
     </row>
     <row r="230" spans="11:11">
-      <c r="K230" s="51"/>
+      <c r="K230" s="50"/>
     </row>
     <row r="231" spans="11:11">
-      <c r="K231" s="51"/>
+      <c r="K231" s="50"/>
     </row>
     <row r="232" spans="11:11">
-      <c r="K232" s="51"/>
+      <c r="K232" s="50"/>
     </row>
     <row r="233" spans="11:11">
-      <c r="K233" s="51"/>
+      <c r="K233" s="50"/>
     </row>
     <row r="234" spans="11:11">
-      <c r="K234" s="51"/>
+      <c r="K234" s="50"/>
     </row>
     <row r="235" spans="11:11">
-      <c r="K235" s="51"/>
+      <c r="K235" s="50"/>
     </row>
     <row r="236" spans="11:11">
-      <c r="K236" s="51"/>
+      <c r="K236" s="50"/>
     </row>
     <row r="237" spans="11:11">
-      <c r="K237" s="51"/>
+      <c r="K237" s="50"/>
     </row>
     <row r="238" spans="11:11">
-      <c r="K238" s="51"/>
+      <c r="K238" s="50"/>
     </row>
     <row r="239" spans="11:11">
-      <c r="K239" s="51"/>
+      <c r="K239" s="50"/>
     </row>
     <row r="240" spans="11:11">
-      <c r="K240" s="51"/>
+      <c r="K240" s="50"/>
     </row>
     <row r="241" spans="11:11">
-      <c r="K241" s="51"/>
+      <c r="K241" s="50"/>
     </row>
     <row r="242" spans="11:11">
-      <c r="K242" s="51"/>
+      <c r="K242" s="50"/>
     </row>
     <row r="243" spans="11:11">
-      <c r="K243" s="51"/>
+      <c r="K243" s="50"/>
     </row>
     <row r="244" spans="11:11">
-      <c r="K244" s="51"/>
+      <c r="K244" s="50"/>
     </row>
     <row r="245" spans="11:11">
-      <c r="K245" s="51"/>
+      <c r="K245" s="50"/>
     </row>
     <row r="246" spans="11:11">
-      <c r="K246" s="51"/>
+      <c r="K246" s="50"/>
     </row>
     <row r="247" spans="11:11">
-      <c r="K247" s="51"/>
+      <c r="K247" s="50"/>
     </row>
     <row r="248" spans="11:11">
-      <c r="K248" s="51"/>
+      <c r="K248" s="50"/>
     </row>
     <row r="249" spans="11:11">
-      <c r="K249" s="51"/>
+      <c r="K249" s="50"/>
     </row>
     <row r="250" spans="11:11">
-      <c r="K250" s="51"/>
+      <c r="K250" s="50"/>
     </row>
     <row r="251" spans="11:11">
-      <c r="K251" s="51"/>
+      <c r="K251" s="50"/>
     </row>
     <row r="252" spans="11:11">
-      <c r="K252" s="51"/>
+      <c r="K252" s="50"/>
     </row>
     <row r="253" spans="11:11">
-      <c r="K253" s="51"/>
+      <c r="K253" s="50"/>
     </row>
     <row r="254" spans="11:11">
-      <c r="K254" s="51"/>
+      <c r="K254" s="50"/>
     </row>
     <row r="255" spans="11:11">
-      <c r="K255" s="51"/>
+      <c r="K255" s="50"/>
     </row>
     <row r="256" spans="11:11">
-      <c r="K256" s="51"/>
+      <c r="K256" s="50"/>
     </row>
     <row r="257" spans="11:11">
-      <c r="K257" s="51"/>
+      <c r="K257" s="50"/>
     </row>
     <row r="258" spans="11:11">
-      <c r="K258" s="51"/>
+      <c r="K258" s="50"/>
     </row>
     <row r="259" spans="11:11">
-      <c r="K259" s="51"/>
+      <c r="K259" s="50"/>
     </row>
     <row r="260" spans="11:11">
-      <c r="K260" s="51"/>
+      <c r="K260" s="50"/>
     </row>
     <row r="261" spans="11:11">
-      <c r="K261" s="51"/>
+      <c r="K261" s="50"/>
     </row>
     <row r="262" spans="11:11">
-      <c r="K262" s="51"/>
+      <c r="K262" s="50"/>
     </row>
     <row r="263" spans="11:11">
-      <c r="K263" s="51"/>
+      <c r="K263" s="50"/>
     </row>
     <row r="264" spans="11:11">
-      <c r="K264" s="51"/>
+      <c r="K264" s="50"/>
     </row>
     <row r="265" spans="11:11">
-      <c r="K265" s="51"/>
+      <c r="K265" s="50"/>
     </row>
     <row r="266" spans="11:11">
-      <c r="K266" s="51"/>
+      <c r="K266" s="50"/>
     </row>
     <row r="267" spans="11:11">
-      <c r="K267" s="51"/>
+      <c r="K267" s="50"/>
     </row>
     <row r="268" spans="11:11">
-      <c r="K268" s="51"/>
+      <c r="K268" s="50"/>
     </row>
     <row r="269" spans="11:11">
-      <c r="K269" s="51"/>
+      <c r="K269" s="50"/>
     </row>
     <row r="270" spans="11:11">
-      <c r="K270" s="51"/>
+      <c r="K270" s="50"/>
     </row>
     <row r="271" spans="11:11">
-      <c r="K271" s="51"/>
+      <c r="K271" s="50"/>
     </row>
     <row r="272" spans="11:11">
-      <c r="K272" s="51"/>
+      <c r="K272" s="50"/>
     </row>
     <row r="273" spans="11:11">
-      <c r="K273" s="51"/>
+      <c r="K273" s="50"/>
     </row>
     <row r="274" spans="11:11">
-      <c r="K274" s="51"/>
+      <c r="K274" s="50"/>
     </row>
     <row r="275" spans="11:11">
-      <c r="K275" s="51"/>
+      <c r="K275" s="50"/>
     </row>
     <row r="276" spans="11:11">
-      <c r="K276" s="51"/>
+      <c r="K276" s="50"/>
     </row>
     <row r="277" spans="11:11">
-      <c r="K277" s="51"/>
+      <c r="K277" s="50"/>
     </row>
     <row r="278" spans="11:11">
-      <c r="K278" s="51"/>
+      <c r="K278" s="50"/>
     </row>
     <row r="279" spans="11:11">
-      <c r="K279" s="51"/>
+      <c r="K279" s="50"/>
     </row>
     <row r="280" spans="11:11">
-      <c r="K280" s="51"/>
+      <c r="K280" s="50"/>
     </row>
     <row r="281" spans="11:11">
-      <c r="K281" s="51"/>
+      <c r="K281" s="50"/>
     </row>
     <row r="282" spans="11:11">
-      <c r="K282" s="51"/>
+      <c r="K282" s="50"/>
     </row>
     <row r="283" spans="11:11">
-      <c r="K283" s="51"/>
+      <c r="K283" s="50"/>
     </row>
     <row r="284" spans="11:11">
-      <c r="K284" s="51"/>
+      <c r="K284" s="50"/>
     </row>
     <row r="285" spans="11:11">
-      <c r="K285" s="51"/>
+      <c r="K285" s="50"/>
     </row>
     <row r="286" spans="11:11">
-      <c r="K286" s="51"/>
+      <c r="K286" s="50"/>
     </row>
     <row r="287" spans="11:11">
-      <c r="K287" s="51"/>
+      <c r="K287" s="50"/>
     </row>
     <row r="288" spans="11:11">
-      <c r="K288" s="51"/>
+      <c r="K288" s="50"/>
     </row>
     <row r="289" spans="11:11">
-      <c r="K289" s="51"/>
+      <c r="K289" s="50"/>
     </row>
     <row r="290" spans="11:11">
-      <c r="K290" s="51"/>
+      <c r="K290" s="50"/>
     </row>
     <row r="291" spans="11:11">
-      <c r="K291" s="51"/>
+      <c r="K291" s="50"/>
     </row>
     <row r="292" spans="11:11">
-      <c r="K292" s="51"/>
+      <c r="K292" s="50"/>
     </row>
     <row r="293" spans="11:11">
-      <c r="K293" s="51"/>
+      <c r="K293" s="50"/>
     </row>
     <row r="294" spans="11:11">
-      <c r="K294" s="51"/>
+      <c r="K294" s="50"/>
     </row>
     <row r="295" spans="11:11">
-      <c r="K295" s="51"/>
+      <c r="K295" s="50"/>
     </row>
     <row r="296" spans="11:11">
-      <c r="K296" s="51"/>
+      <c r="K296" s="50"/>
     </row>
     <row r="297" spans="11:11">
-      <c r="K297" s="51"/>
+      <c r="K297" s="50"/>
     </row>
     <row r="298" spans="11:11">
-      <c r="K298" s="51"/>
+      <c r="K298" s="50"/>
     </row>
     <row r="299" spans="11:11">
-      <c r="K299" s="51"/>
+      <c r="K299" s="50"/>
     </row>
     <row r="300" spans="11:11">
-      <c r="K300" s="51"/>
+      <c r="K300" s="50"/>
     </row>
     <row r="301" spans="11:11">
-      <c r="K301" s="51"/>
+      <c r="K301" s="50"/>
     </row>
     <row r="302" spans="11:11">
-      <c r="K302" s="51"/>
+      <c r="K302" s="50"/>
     </row>
     <row r="303" spans="11:11">
-      <c r="K303" s="51"/>
+      <c r="K303" s="50"/>
     </row>
     <row r="304" spans="11:11">
-      <c r="K304" s="51"/>
+      <c r="K304" s="50"/>
     </row>
     <row r="305" spans="11:11">
-      <c r="K305" s="51"/>
+      <c r="K305" s="50"/>
     </row>
     <row r="306" spans="11:11">
-      <c r="K306" s="51"/>
+      <c r="K306" s="50"/>
     </row>
     <row r="307" spans="11:11">
-      <c r="K307" s="51"/>
+      <c r="K307" s="50"/>
     </row>
     <row r="308" spans="11:11">
-      <c r="K308" s="51"/>
+      <c r="K308" s="50"/>
     </row>
     <row r="309" spans="11:11">
-      <c r="K309" s="51"/>
+      <c r="K309" s="50"/>
     </row>
     <row r="310" spans="11:11">
-      <c r="K310" s="51"/>
+      <c r="K310" s="50"/>
     </row>
     <row r="311" spans="11:11">
-      <c r="K311" s="51"/>
+      <c r="K311" s="50"/>
     </row>
     <row r="312" spans="11:11">
-      <c r="K312" s="51"/>
+      <c r="K312" s="50"/>
     </row>
     <row r="313" spans="11:11">
-      <c r="K313" s="51"/>
+      <c r="K313" s="50"/>
     </row>
     <row r="314" spans="11:11">
-      <c r="K314" s="51"/>
+      <c r="K314" s="50"/>
     </row>
     <row r="315" spans="11:11">
-      <c r="K315" s="51"/>
+      <c r="K315" s="50"/>
     </row>
     <row r="316" spans="11:11">
-      <c r="K316" s="51"/>
+      <c r="K316" s="50"/>
     </row>
     <row r="317" spans="11:11">
-      <c r="K317" s="51"/>
+      <c r="K317" s="50"/>
     </row>
     <row r="318" spans="11:11">
-      <c r="K318" s="51"/>
+      <c r="K318" s="50"/>
     </row>
     <row r="319" spans="11:11">
-      <c r="K319" s="51"/>
+      <c r="K319" s="50"/>
     </row>
     <row r="320" spans="11:11">
-      <c r="K320" s="51"/>
+      <c r="K320" s="50"/>
     </row>
     <row r="321" spans="11:11">
-      <c r="K321" s="51"/>
+      <c r="K321" s="50"/>
     </row>
     <row r="322" spans="11:11">
-      <c r="K322" s="51"/>
+      <c r="K322" s="50"/>
     </row>
     <row r="323" spans="11:11">
-      <c r="K323" s="51"/>
+      <c r="K323" s="50"/>
     </row>
     <row r="324" spans="11:11">
-      <c r="K324" s="51"/>
+      <c r="K324" s="50"/>
     </row>
     <row r="325" spans="11:11">
-      <c r="K325" s="51"/>
+      <c r="K325" s="50"/>
     </row>
     <row r="326" spans="11:11">
-      <c r="K326" s="51"/>
+      <c r="K326" s="50"/>
     </row>
     <row r="327" spans="11:11">
-      <c r="K327" s="51"/>
+      <c r="K327" s="50"/>
     </row>
     <row r="328" spans="11:11">
-      <c r="K328" s="51"/>
+      <c r="K328" s="50"/>
     </row>
     <row r="329" spans="11:11">
-      <c r="K329" s="51"/>
+      <c r="K329" s="50"/>
     </row>
     <row r="330" spans="11:11">
-      <c r="K330" s="51"/>
+      <c r="K330" s="50"/>
     </row>
     <row r="331" spans="11:11">
-      <c r="K331" s="51"/>
+      <c r="K331" s="50"/>
     </row>
     <row r="332" spans="11:11">
-      <c r="K332" s="51"/>
+      <c r="K332" s="50"/>
     </row>
     <row r="333" spans="11:11">
-      <c r="K333" s="51"/>
+      <c r="K333" s="50"/>
     </row>
     <row r="334" spans="11:11">
-      <c r="K334" s="51"/>
+      <c r="K334" s="50"/>
     </row>
     <row r="335" spans="11:11">
-      <c r="K335" s="51"/>
+      <c r="K335" s="50"/>
     </row>
     <row r="336" spans="11:11">
-      <c r="K336" s="51"/>
+      <c r="K336" s="50"/>
     </row>
     <row r="337" spans="11:11">
-      <c r="K337" s="51"/>
+      <c r="K337" s="50"/>
     </row>
     <row r="338" spans="11:11">
-      <c r="K338" s="51"/>
+      <c r="K338" s="50"/>
     </row>
     <row r="339" spans="11:11">
-      <c r="K339" s="51"/>
+      <c r="K339" s="50"/>
     </row>
     <row r="340" spans="11:11">
-      <c r="K340" s="51"/>
+      <c r="K340" s="50"/>
     </row>
     <row r="341" spans="11:11">
-      <c r="K341" s="51"/>
+      <c r="K341" s="50"/>
     </row>
     <row r="342" spans="11:11">
-      <c r="K342" s="51"/>
+      <c r="K342" s="50"/>
     </row>
     <row r="343" spans="11:11">
-      <c r="K343" s="51"/>
+      <c r="K343" s="50"/>
     </row>
     <row r="344" spans="11:11">
-      <c r="K344" s="51"/>
+      <c r="K344" s="50"/>
     </row>
     <row r="345" spans="11:11">
-      <c r="K345" s="51"/>
+      <c r="K345" s="50"/>
     </row>
     <row r="346" spans="11:11">
-      <c r="K346" s="51"/>
+      <c r="K346" s="50"/>
     </row>
     <row r="347" spans="11:11">
-      <c r="K347" s="51"/>
+      <c r="K347" s="50"/>
     </row>
     <row r="348" spans="11:11">
-      <c r="K348" s="51"/>
+      <c r="K348" s="50"/>
     </row>
     <row r="349" spans="11:11">
-      <c r="K349" s="51"/>
+      <c r="K349" s="50"/>
     </row>
     <row r="350" spans="11:11">
-      <c r="K350" s="51"/>
+      <c r="K350" s="50"/>
     </row>
     <row r="351" spans="11:11">
-      <c r="K351" s="51"/>
+      <c r="K351" s="50"/>
     </row>
     <row r="352" spans="11:11">
-      <c r="K352" s="51"/>
+      <c r="K352" s="50"/>
     </row>
     <row r="353" spans="11:11">
-      <c r="K353" s="51"/>
+      <c r="K353" s="50"/>
     </row>
     <row r="354" spans="11:11">
-      <c r="K354" s="51"/>
+      <c r="K354" s="50"/>
     </row>
     <row r="355" spans="11:11">
-      <c r="K355" s="51"/>
+      <c r="K355" s="50"/>
     </row>
     <row r="356" spans="11:11">
-      <c r="K356" s="51"/>
+      <c r="K356" s="50"/>
     </row>
     <row r="357" spans="11:11">
-      <c r="K357" s="51"/>
+      <c r="K357" s="50"/>
     </row>
     <row r="358" spans="11:11">
-      <c r="K358" s="51"/>
+      <c r="K358" s="50"/>
     </row>
     <row r="359" spans="11:11">
-      <c r="K359" s="51"/>
+      <c r="K359" s="50"/>
     </row>
     <row r="360" spans="11:11">
-      <c r="K360" s="51"/>
+      <c r="K360" s="50"/>
     </row>
     <row r="361" spans="11:11">
-      <c r="K361" s="51"/>
+      <c r="K361" s="50"/>
     </row>
     <row r="362" spans="11:11">
-      <c r="K362" s="51"/>
+      <c r="K362" s="50"/>
     </row>
     <row r="363" spans="11:11">
-      <c r="K363" s="51"/>
+      <c r="K363" s="50"/>
     </row>
     <row r="364" spans="11:11">
-      <c r="K364" s="51"/>
+      <c r="K364" s="50"/>
     </row>
     <row r="365" spans="11:11">
-      <c r="K365" s="51"/>
+      <c r="K365" s="50"/>
     </row>
     <row r="366" spans="11:11">
-      <c r="K366" s="51"/>
+      <c r="K366" s="50"/>
     </row>
     <row r="367" spans="11:11">
-      <c r="K367" s="51"/>
+      <c r="K367" s="50"/>
     </row>
     <row r="368" spans="11:11">
-      <c r="K368" s="51"/>
+      <c r="K368" s="50"/>
     </row>
     <row r="369" spans="11:11">
-      <c r="K369" s="51"/>
+      <c r="K369" s="50"/>
     </row>
     <row r="370" spans="11:11">
-      <c r="K370" s="51"/>
+      <c r="K370" s="50"/>
     </row>
     <row r="371" spans="11:11">
-      <c r="K371" s="51"/>
+      <c r="K371" s="50"/>
     </row>
     <row r="372" spans="11:11">
-      <c r="K372" s="51"/>
+      <c r="K372" s="50"/>
     </row>
     <row r="373" spans="11:11">
-      <c r="K373" s="51"/>
+      <c r="K373" s="50"/>
     </row>
     <row r="374" spans="11:11">
-      <c r="K374" s="51"/>
+      <c r="K374" s="50"/>
     </row>
     <row r="375" spans="11:11">
-      <c r="K375" s="51"/>
+      <c r="K375" s="50"/>
     </row>
     <row r="376" spans="11:11">
-      <c r="K376" s="51"/>
+      <c r="K376" s="50"/>
     </row>
     <row r="377" spans="11:11">
-      <c r="K377" s="51"/>
+      <c r="K377" s="50"/>
     </row>
     <row r="378" spans="11:11">
-      <c r="K378" s="51"/>
+      <c r="K378" s="50"/>
     </row>
     <row r="379" spans="11:11">
-      <c r="K379" s="51"/>
+      <c r="K379" s="50"/>
     </row>
     <row r="380" spans="11:11">
-      <c r="K380" s="51"/>
+      <c r="K380" s="50"/>
     </row>
     <row r="381" spans="11:11">
-      <c r="K381" s="51"/>
+      <c r="K381" s="50"/>
     </row>
     <row r="382" spans="11:11">
-      <c r="K382" s="51"/>
+      <c r="K382" s="50"/>
     </row>
     <row r="383" spans="11:11">
-      <c r="K383" s="51"/>
+      <c r="K383" s="50"/>
     </row>
     <row r="384" spans="11:11">
-      <c r="K384" s="51"/>
+      <c r="K384" s="50"/>
     </row>
     <row r="385" spans="11:11">
-      <c r="K385" s="51"/>
+      <c r="K385" s="50"/>
     </row>
     <row r="386" spans="11:11">
-      <c r="K386" s="51"/>
+      <c r="K386" s="50"/>
     </row>
     <row r="387" spans="11:11">
-      <c r="K387" s="51"/>
+      <c r="K387" s="50"/>
     </row>
     <row r="388" spans="11:11">
-      <c r="K388" s="51"/>
+      <c r="K388" s="50"/>
     </row>
     <row r="389" spans="11:11">
-      <c r="K389" s="51"/>
+      <c r="K389" s="50"/>
     </row>
     <row r="390" spans="11:11">
-      <c r="K390" s="51"/>
+      <c r="K390" s="50"/>
     </row>
     <row r="391" spans="11:11">
-      <c r="K391" s="51"/>
+      <c r="K391" s="50"/>
     </row>
     <row r="392" spans="11:11">
-      <c r="K392" s="51"/>
+      <c r="K392" s="50"/>
     </row>
     <row r="393" spans="11:11">
-      <c r="K393" s="51"/>
+      <c r="K393" s="50"/>
     </row>
     <row r="394" spans="11:11">
-      <c r="K394" s="51"/>
+      <c r="K394" s="50"/>
     </row>
     <row r="395" spans="11:11">
-      <c r="K395" s="51"/>
+      <c r="K395" s="50"/>
     </row>
     <row r="396" spans="11:11">
-      <c r="K396" s="51"/>
+      <c r="K396" s="50"/>
     </row>
     <row r="397" spans="11:11">
-      <c r="K397" s="51"/>
+      <c r="K397" s="50"/>
     </row>
     <row r="398" spans="11:11">
-      <c r="K398" s="51"/>
+      <c r="K398" s="50"/>
     </row>
     <row r="399" spans="11:11">
-      <c r="K399" s="51"/>
+      <c r="K399" s="50"/>
     </row>
     <row r="400" spans="11:11">
-      <c r="K400" s="51"/>
+      <c r="K400" s="50"/>
     </row>
     <row r="401" spans="11:11">
-      <c r="K401" s="51"/>
+      <c r="K401" s="50"/>
     </row>
     <row r="402" spans="11:11">
-      <c r="K402" s="51"/>
+      <c r="K402" s="50"/>
     </row>
     <row r="403" spans="11:11">
-      <c r="K403" s="51"/>
+      <c r="K403" s="50"/>
     </row>
     <row r="404" spans="11:11">
-      <c r="K404" s="51"/>
+      <c r="K404" s="50"/>
     </row>
     <row r="405" spans="11:11">
-      <c r="K405" s="51"/>
+      <c r="K405" s="50"/>
     </row>
     <row r="406" spans="11:11">
-      <c r="K406" s="51"/>
+      <c r="K406" s="50"/>
     </row>
     <row r="407" spans="11:11">
-      <c r="K407" s="51"/>
+      <c r="K407" s="50"/>
     </row>
     <row r="408" spans="11:11">
-      <c r="K408" s="51"/>
+      <c r="K408" s="50"/>
     </row>
     <row r="409" spans="11:11">
-      <c r="K409" s="51"/>
+      <c r="K409" s="50"/>
     </row>
     <row r="410" spans="11:11">
-      <c r="K410" s="51"/>
+      <c r="K410" s="50"/>
     </row>
     <row r="411" spans="11:11">
-      <c r="K411" s="51"/>
+      <c r="K411" s="50"/>
     </row>
     <row r="412" spans="11:11">
-      <c r="K412" s="51"/>
+      <c r="K412" s="50"/>
     </row>
     <row r="413" spans="11:11">
-      <c r="K413" s="51"/>
+      <c r="K413" s="50"/>
     </row>
     <row r="414" spans="11:11">
-      <c r="K414" s="51"/>
+      <c r="K414" s="50"/>
     </row>
     <row r="415" spans="11:11">
-      <c r="K415" s="51"/>
+      <c r="K415" s="50"/>
     </row>
     <row r="416" spans="11:11">
-      <c r="K416" s="51"/>
+      <c r="K416" s="50"/>
     </row>
     <row r="417" spans="11:11">
-      <c r="K417" s="51"/>
+      <c r="K417" s="50"/>
     </row>
     <row r="418" spans="11:11">
-      <c r="K418" s="51"/>
+      <c r="K418" s="50"/>
     </row>
     <row r="419" spans="11:11">
-      <c r="K419" s="51"/>
+      <c r="K419" s="50"/>
     </row>
     <row r="420" spans="11:11">
-      <c r="K420" s="51"/>
+      <c r="K420" s="50"/>
     </row>
     <row r="421" spans="11:11">
-      <c r="K421" s="51"/>
+      <c r="K421" s="50"/>
     </row>
     <row r="422" spans="11:11">
-      <c r="K422" s="51"/>
+      <c r="K422" s="50"/>
     </row>
     <row r="423" spans="11:11">
-      <c r="K423" s="51"/>
+      <c r="K423" s="50"/>
     </row>
     <row r="424" spans="11:11">
-      <c r="K424" s="51"/>
+      <c r="K424" s="50"/>
     </row>
     <row r="425" spans="11:11">
-      <c r="K425" s="51"/>
+      <c r="K425" s="50"/>
     </row>
     <row r="426" spans="11:11">
-      <c r="K426" s="51"/>
+      <c r="K426" s="50"/>
     </row>
     <row r="427" spans="11:11">
-      <c r="K427" s="51"/>
+      <c r="K427" s="50"/>
     </row>
     <row r="428" spans="11:11">
-      <c r="K428" s="51"/>
+      <c r="K428" s="50"/>
     </row>
     <row r="429" spans="11:11">
-      <c r="K429" s="51"/>
+      <c r="K429" s="50"/>
     </row>
     <row r="430" spans="11:11">
-      <c r="K430" s="51"/>
+      <c r="K430" s="50"/>
     </row>
     <row r="431" spans="11:11">
-      <c r="K431" s="51"/>
+      <c r="K431" s="50"/>
     </row>
     <row r="432" spans="11:11">
-      <c r="K432" s="51"/>
+      <c r="K432" s="50"/>
     </row>
     <row r="433" spans="11:11">
-      <c r="K433" s="51"/>
+      <c r="K433" s="50"/>
     </row>
     <row r="434" spans="11:11">
-      <c r="K434" s="51"/>
+      <c r="K434" s="50"/>
     </row>
     <row r="435" spans="11:11">
-      <c r="K435" s="51"/>
+      <c r="K435" s="50"/>
     </row>
     <row r="436" spans="11:11">
-      <c r="K436" s="51"/>
+      <c r="K436" s="50"/>
     </row>
     <row r="437" spans="11:11">
-      <c r="K437" s="51"/>
+      <c r="K437" s="50"/>
     </row>
     <row r="438" spans="11:11">
-      <c r="K438" s="51"/>
+      <c r="K438" s="50"/>
     </row>
     <row r="439" spans="11:11">
-      <c r="K439" s="51"/>
+      <c r="K439" s="50"/>
     </row>
     <row r="440" spans="11:11">
-      <c r="K440" s="51"/>
+      <c r="K440" s="50"/>
     </row>
     <row r="441" spans="11:11">
-      <c r="K441" s="51"/>
+      <c r="K441" s="50"/>
     </row>
     <row r="442" spans="11:11">
-      <c r="K442" s="51"/>
+      <c r="K442" s="50"/>
     </row>
     <row r="443" spans="11:11">
-      <c r="K443" s="51"/>
+      <c r="K443" s="50"/>
     </row>
     <row r="444" spans="11:11">
-      <c r="K444" s="51"/>
+      <c r="K444" s="50"/>
     </row>
     <row r="445" spans="11:11">
-      <c r="K445" s="51"/>
+      <c r="K445" s="50"/>
     </row>
     <row r="446" spans="11:11">
-      <c r="K446" s="51"/>
+      <c r="K446" s="50"/>
     </row>
     <row r="447" spans="11:11">
-      <c r="K447" s="51"/>
+      <c r="K447" s="50"/>
     </row>
     <row r="448" spans="11:11">
-      <c r="K448" s="51"/>
+      <c r="K448" s="50"/>
     </row>
     <row r="449" spans="11:11">
-      <c r="K449" s="51"/>
+      <c r="K449" s="50"/>
     </row>
     <row r="450" spans="11:11">
-      <c r="K450" s="51"/>
+      <c r="K450" s="50"/>
     </row>
     <row r="451" spans="11:11">
-      <c r="K451" s="51"/>
+      <c r="K451" s="50"/>
     </row>
     <row r="452" spans="11:11">
-      <c r="K452" s="51"/>
+      <c r="K452" s="50"/>
     </row>
     <row r="453" spans="11:11">
-      <c r="K453" s="51"/>
+      <c r="K453" s="50"/>
     </row>
     <row r="454" spans="11:11">
-      <c r="K454" s="51"/>
+      <c r="K454" s="50"/>
     </row>
     <row r="455" spans="11:11">
-      <c r="K455" s="51"/>
+      <c r="K455" s="50"/>
     </row>
     <row r="456" spans="11:11">
-      <c r="K456" s="51"/>
+      <c r="K456" s="50"/>
     </row>
     <row r="457" spans="11:11">
-      <c r="K457" s="51"/>
+      <c r="K457" s="50"/>
     </row>
     <row r="458" spans="11:11">
-      <c r="K458" s="51"/>
+      <c r="K458" s="50"/>
     </row>
     <row r="459" spans="11:11">
-      <c r="K459" s="51"/>
+      <c r="K459" s="50"/>
     </row>
     <row r="460" spans="11:11">
-      <c r="K460" s="51"/>
+      <c r="K460" s="50"/>
     </row>
     <row r="461" spans="11:11">
-      <c r="K461" s="51"/>
+      <c r="K461" s="50"/>
     </row>
     <row r="462" spans="11:11">
-      <c r="K462" s="51"/>
+      <c r="K462" s="50"/>
     </row>
     <row r="463" spans="11:11">
-      <c r="K463" s="51"/>
+      <c r="K463" s="50"/>
     </row>
     <row r="464" spans="11:11">
-      <c r="K464" s="51"/>
+      <c r="K464" s="50"/>
     </row>
     <row r="465" spans="11:11">
-      <c r="K465" s="51"/>
+      <c r="K465" s="50"/>
     </row>
     <row r="466" spans="11:11">
-      <c r="K466" s="51"/>
+      <c r="K466" s="50"/>
     </row>
     <row r="467" spans="11:11">
-      <c r="K467" s="51"/>
+      <c r="K467" s="50"/>
     </row>
     <row r="468" spans="11:11">
-      <c r="K468" s="51"/>
+      <c r="K468" s="50"/>
     </row>
     <row r="469" spans="11:11">
-      <c r="K469" s="51"/>
+      <c r="K469" s="50"/>
     </row>
     <row r="470" spans="11:11">
-      <c r="K470" s="51"/>
+      <c r="K470" s="50"/>
     </row>
     <row r="471" spans="11:11">
-      <c r="K471" s="51"/>
+      <c r="K471" s="50"/>
     </row>
     <row r="472" spans="11:11">
-      <c r="K472" s="51"/>
+      <c r="K472" s="50"/>
     </row>
     <row r="473" spans="11:11">
-      <c r="K473" s="51"/>
+      <c r="K473" s="50"/>
     </row>
     <row r="474" spans="11:11">
-      <c r="K474" s="51"/>
+      <c r="K474" s="50"/>
     </row>
     <row r="475" spans="11:11">
-      <c r="K475" s="51"/>
+      <c r="K475" s="50"/>
     </row>
     <row r="476" spans="11:11">
-      <c r="K476" s="51"/>
+      <c r="K476" s="50"/>
     </row>
     <row r="477" spans="11:11">
-      <c r="K477" s="51"/>
+      <c r="K477" s="50"/>
     </row>
     <row r="478" spans="11:11">
-      <c r="K478" s="51"/>
+      <c r="K478" s="50"/>
     </row>
     <row r="479" spans="11:11">
-      <c r="K479" s="51"/>
+      <c r="K479" s="50"/>
     </row>
     <row r="480" spans="11:11">
-      <c r="K480" s="51"/>
+      <c r="K480" s="50"/>
     </row>
     <row r="481" spans="11:11">
-      <c r="K481" s="51"/>
+      <c r="K481" s="50"/>
     </row>
     <row r="482" spans="11:11">
-      <c r="K482" s="51"/>
+      <c r="K482" s="50"/>
     </row>
     <row r="483" spans="11:11">
-      <c r="K483" s="51"/>
+      <c r="K483" s="50"/>
     </row>
     <row r="484" spans="11:11">
-      <c r="K484" s="51"/>
+      <c r="K484" s="50"/>
     </row>
     <row r="485" spans="11:11">
-      <c r="K485" s="51"/>
+      <c r="K485" s="50"/>
     </row>
     <row r="486" spans="11:11">
-      <c r="K486" s="51"/>
+      <c r="K486" s="50"/>
     </row>
     <row r="487" spans="11:11">
-      <c r="K487" s="51"/>
+      <c r="K487" s="50"/>
     </row>
     <row r="488" spans="11:11">
-      <c r="K488" s="51"/>
+      <c r="K488" s="50"/>
     </row>
     <row r="489" spans="11:11">
-      <c r="K489" s="51"/>
+      <c r="K489" s="50"/>
     </row>
     <row r="490" spans="11:11">
-      <c r="K490" s="51"/>
+      <c r="K490" s="50"/>
     </row>
     <row r="491" spans="11:11">
-      <c r="K491" s="51"/>
+      <c r="K491" s="50"/>
     </row>
     <row r="492" spans="11:11">
-      <c r="K492" s="51"/>
+      <c r="K492" s="50"/>
     </row>
     <row r="493" spans="11:11">
-      <c r="K493" s="51"/>
+      <c r="K493" s="50"/>
     </row>
     <row r="494" spans="11:11">
-      <c r="K494" s="51"/>
+      <c r="K494" s="50"/>
     </row>
     <row r="495" spans="11:11">
-      <c r="K495" s="51"/>
+      <c r="K495" s="50"/>
     </row>
     <row r="496" spans="11:11">
-      <c r="K496" s="51"/>
+      <c r="K496" s="50"/>
     </row>
     <row r="497" spans="11:11">
-      <c r="K497" s="51"/>
+      <c r="K497" s="50"/>
     </row>
     <row r="498" spans="11:11">
-      <c r="K498" s="51"/>
+      <c r="K498" s="50"/>
     </row>
     <row r="499" spans="11:11">
-      <c r="K499" s="51"/>
+      <c r="K499" s="50"/>
     </row>
     <row r="500" spans="11:11">
-      <c r="K500" s="51"/>
+      <c r="K500" s="50"/>
     </row>
     <row r="501" spans="11:11">
-      <c r="K501" s="51"/>
+      <c r="K501" s="50"/>
     </row>
     <row r="502" spans="11:11">
-      <c r="K502" s="51"/>
+      <c r="K502" s="50"/>
     </row>
     <row r="503" spans="11:11">
-      <c r="K503" s="51"/>
+      <c r="K503" s="50"/>
     </row>
     <row r="504" spans="11:11">
-      <c r="K504" s="51"/>
+      <c r="K504" s="50"/>
     </row>
     <row r="505" spans="11:11">
-      <c r="K505" s="51"/>
+      <c r="K505" s="50"/>
     </row>
     <row r="506" spans="11:11">
-      <c r="K506" s="51"/>
+      <c r="K506" s="50"/>
     </row>
     <row r="507" spans="11:11">
-      <c r="K507" s="51"/>
+      <c r="K507" s="50"/>
     </row>
     <row r="508" spans="11:11">
-      <c r="K508" s="51"/>
+      <c r="K508" s="50"/>
     </row>
     <row r="509" spans="11:11">
-      <c r="K509" s="51"/>
+      <c r="K509" s="50"/>
     </row>
     <row r="510" spans="11:11">
-      <c r="K510" s="51"/>
+      <c r="K510" s="50"/>
     </row>
     <row r="511" spans="11:11">
-      <c r="K511" s="51"/>
+      <c r="K511" s="50"/>
     </row>
     <row r="512" spans="11:11">
-      <c r="K512" s="51"/>
+      <c r="K512" s="50"/>
     </row>
     <row r="513" spans="11:11">
-      <c r="K513" s="51"/>
+      <c r="K513" s="50"/>
     </row>
     <row r="514" spans="11:11">
-      <c r="K514" s="51"/>
+      <c r="K514" s="50"/>
     </row>
     <row r="515" spans="11:11">
-      <c r="K515" s="51"/>
+      <c r="K515" s="50"/>
     </row>
     <row r="516" spans="11:11">
-      <c r="K516" s="51"/>
+      <c r="K516" s="50"/>
     </row>
     <row r="517" spans="11:11">
-      <c r="K517" s="51"/>
+      <c r="K517" s="50"/>
     </row>
     <row r="518" spans="11:11">
-      <c r="K518" s="51"/>
+      <c r="K518" s="50"/>
     </row>
     <row r="519" spans="11:11">
-      <c r="K519" s="51"/>
+      <c r="K519" s="50"/>
     </row>
     <row r="520" spans="11:11">
-      <c r="K520" s="51"/>
+      <c r="K520" s="50"/>
     </row>
     <row r="521" spans="11:11">
-      <c r="K521" s="51"/>
+      <c r="K521" s="50"/>
     </row>
     <row r="522" spans="11:11">
-      <c r="K522" s="51"/>
+      <c r="K522" s="50"/>
     </row>
     <row r="523" spans="11:11">
-      <c r="K523" s="51"/>
+      <c r="K523" s="50"/>
     </row>
     <row r="524" spans="11:11">
-      <c r="K524" s="51"/>
+      <c r="K524" s="50"/>
     </row>
     <row r="525" spans="11:11">
-      <c r="K525" s="51"/>
+      <c r="K525" s="50"/>
     </row>
     <row r="526" spans="11:11">
-      <c r="K526" s="51"/>
+      <c r="K526" s="50"/>
     </row>
     <row r="527" spans="11:11">
-      <c r="K527" s="51"/>
+      <c r="K527" s="50"/>
     </row>
     <row r="528" spans="11:11">
-      <c r="K528" s="51"/>
+      <c r="K528" s="50"/>
     </row>
     <row r="529" spans="11:11">
-      <c r="K529" s="51"/>
+      <c r="K529" s="50"/>
     </row>
     <row r="530" spans="11:11">
-      <c r="K530" s="51"/>
+      <c r="K530" s="50"/>
     </row>
     <row r="531" spans="11:11">
-      <c r="K531" s="51"/>
+      <c r="K531" s="50"/>
     </row>
     <row r="532" spans="11:11">
-      <c r="K532" s="51"/>
+      <c r="K532" s="50"/>
     </row>
     <row r="533" spans="11:11">
-      <c r="K533" s="51"/>
+      <c r="K533" s="50"/>
     </row>
     <row r="534" spans="11:11">
-      <c r="K534" s="51"/>
+      <c r="K534" s="50"/>
     </row>
     <row r="535" spans="11:11">
-      <c r="K535" s="51"/>
+      <c r="K535" s="50"/>
     </row>
     <row r="536" spans="11:11">
-      <c r="K536" s="51"/>
+      <c r="K536" s="50"/>
     </row>
     <row r="537" spans="11:11">
-      <c r="K537" s="51"/>
+      <c r="K537" s="50"/>
     </row>
     <row r="538" spans="11:11">
-      <c r="K538" s="51"/>
+      <c r="K538" s="50"/>
     </row>
     <row r="539" spans="11:11">
-      <c r="K539" s="51"/>
+      <c r="K539" s="50"/>
     </row>
     <row r="540" spans="11:11">
-      <c r="K540" s="51"/>
+      <c r="K540" s="50"/>
     </row>
     <row r="541" spans="11:11">
-      <c r="K541" s="51"/>
+      <c r="K541" s="50"/>
     </row>
     <row r="542" spans="11:11">
-      <c r="K542" s="51"/>
+      <c r="K542" s="50"/>
     </row>
     <row r="543" spans="11:11">
-      <c r="K543" s="51"/>
+      <c r="K543" s="50"/>
     </row>
     <row r="544" spans="11:11">
-      <c r="K544" s="51"/>
+      <c r="K544" s="50"/>
     </row>
     <row r="545" spans="11:11">
-      <c r="K545" s="51"/>
+      <c r="K545" s="50"/>
     </row>
     <row r="546" spans="11:11">
-      <c r="K546" s="51"/>
+      <c r="K546" s="50"/>
     </row>
     <row r="547" spans="11:11">
-      <c r="K547" s="51"/>
+      <c r="K547" s="50"/>
     </row>
     <row r="548" spans="11:11">
-      <c r="K548" s="51"/>
+      <c r="K548" s="50"/>
     </row>
     <row r="549" spans="11:11">
-      <c r="K549" s="51"/>
+      <c r="K549" s="50"/>
     </row>
     <row r="550" spans="11:11">
-      <c r="K550" s="51"/>
+      <c r="K550" s="50"/>
     </row>
     <row r="551" spans="11:11">
-      <c r="K551" s="51"/>
+      <c r="K551" s="50"/>
     </row>
     <row r="552" spans="11:11">
-      <c r="K552" s="51"/>
+      <c r="K552" s="50"/>
     </row>
     <row r="553" spans="11:11">
-      <c r="K553" s="51"/>
+      <c r="K553" s="50"/>
     </row>
     <row r="554" spans="11:11">
-      <c r="K554" s="51"/>
+      <c r="K554" s="50"/>
     </row>
     <row r="555" spans="11:11">
-      <c r="K555" s="51"/>
+      <c r="K555" s="50"/>
     </row>
     <row r="556" spans="11:11">
-      <c r="K556" s="51"/>
+      <c r="K556" s="50"/>
     </row>
     <row r="557" spans="11:11">
-      <c r="K557" s="51"/>
+      <c r="K557" s="50"/>
     </row>
     <row r="558" spans="11:11">
-      <c r="K558" s="51"/>
+      <c r="K558" s="50"/>
     </row>
     <row r="559" spans="11:11">
-      <c r="K559" s="51"/>
+      <c r="K559" s="50"/>
     </row>
     <row r="560" spans="11:11">
-      <c r="K560" s="51"/>
+      <c r="K560" s="50"/>
     </row>
     <row r="561" spans="11:11">
-      <c r="K561" s="51"/>
+      <c r="K561" s="50"/>
     </row>
     <row r="562" spans="11:11">
-      <c r="K562" s="51"/>
+      <c r="K562" s="50"/>
     </row>
     <row r="563" spans="11:11">
-      <c r="K563" s="51"/>
+      <c r="K563" s="50"/>
     </row>
     <row r="564" spans="11:11">
-      <c r="K564" s="51"/>
+      <c r="K564" s="50"/>
     </row>
     <row r="565" spans="11:11">
-      <c r="K565" s="51"/>
+      <c r="K565" s="50"/>
     </row>
     <row r="566" spans="11:11">
-      <c r="K566" s="51"/>
+      <c r="K566" s="50"/>
     </row>
     <row r="567" spans="11:11">
-      <c r="K567" s="51"/>
+      <c r="K567" s="50"/>
     </row>
     <row r="568" spans="11:11">
-      <c r="K568" s="51"/>
+      <c r="K568" s="50"/>
     </row>
     <row r="569" spans="11:11">
-      <c r="K569" s="51"/>
+      <c r="K569" s="50"/>
     </row>
     <row r="570" spans="11:11">
-      <c r="K570" s="51"/>
+      <c r="K570" s="50"/>
     </row>
     <row r="571" spans="11:11">
-      <c r="K571" s="51"/>
+      <c r="K571" s="50"/>
     </row>
     <row r="572" spans="11:11">
-      <c r="K572" s="51"/>
+      <c r="K572" s="50"/>
     </row>
     <row r="573" spans="11:11">
-      <c r="K573" s="51"/>
+      <c r="K573" s="50"/>
     </row>
     <row r="574" spans="11:11">
-      <c r="K574" s="51"/>
+      <c r="K574" s="50"/>
     </row>
     <row r="575" spans="11:11">
-      <c r="K575" s="51"/>
+      <c r="K575" s="50"/>
     </row>
     <row r="576" spans="11:11">
-      <c r="K576" s="51"/>
+      <c r="K576" s="50"/>
     </row>
     <row r="577" spans="11:11">
-      <c r="K577" s="51"/>
+      <c r="K577" s="50"/>
     </row>
     <row r="578" spans="11:11">
-      <c r="K578" s="51"/>
+      <c r="K578" s="50"/>
     </row>
     <row r="579" spans="11:11">
-      <c r="K579" s="51"/>
+      <c r="K579" s="50"/>
     </row>
     <row r="580" spans="11:11">
-      <c r="K580" s="51"/>
+      <c r="K580" s="50"/>
     </row>
     <row r="581" spans="11:11">
-      <c r="K581" s="51"/>
+      <c r="K581" s="50"/>
     </row>
     <row r="582" spans="11:11">
-      <c r="K582" s="51"/>
+      <c r="K582" s="50"/>
     </row>
     <row r="583" spans="11:11">
-      <c r="K583" s="51"/>
+      <c r="K583" s="50"/>
     </row>
     <row r="584" spans="11:11">
-      <c r="K584" s="51"/>
+      <c r="K584" s="50"/>
     </row>
     <row r="585" spans="11:11">
-      <c r="K585" s="51"/>
+      <c r="K585" s="50"/>
     </row>
     <row r="586" spans="11:11">
-      <c r="K586" s="51"/>
+      <c r="K586" s="50"/>
     </row>
     <row r="587" spans="11:11">
-      <c r="K587" s="51"/>
+      <c r="K587" s="50"/>
     </row>
     <row r="588" spans="11:11">
-      <c r="K588" s="51"/>
+      <c r="K588" s="50"/>
     </row>
     <row r="589" spans="11:11">
-      <c r="K589" s="51"/>
+      <c r="K589" s="50"/>
     </row>
     <row r="590" spans="11:11">
-      <c r="K590" s="51"/>
+      <c r="K590" s="50"/>
     </row>
     <row r="591" spans="11:11">
-      <c r="K591" s="51"/>
+      <c r="K591" s="50"/>
     </row>
     <row r="592" spans="11:11">
-      <c r="K592" s="51"/>
+      <c r="K592" s="50"/>
     </row>
     <row r="593" spans="11:11">
-      <c r="K593" s="51"/>
+      <c r="K593" s="50"/>
     </row>
     <row r="594" spans="11:11">
-      <c r="K594" s="51"/>
+      <c r="K594" s="50"/>
     </row>
     <row r="595" spans="11:11">
-      <c r="K595" s="51"/>
+      <c r="K595" s="50"/>
     </row>
     <row r="596" spans="11:11">
-      <c r="K596" s="51"/>
+      <c r="K596" s="50"/>
     </row>
     <row r="597" spans="11:11">
-      <c r="K597" s="51"/>
+      <c r="K597" s="50"/>
     </row>
     <row r="598" spans="11:11">
-      <c r="K598" s="51"/>
+      <c r="K598" s="50"/>
     </row>
     <row r="599" spans="11:11">
-      <c r="K599" s="51"/>
+      <c r="K599" s="50"/>
     </row>
     <row r="600" spans="11:11">
-      <c r="K600" s="51"/>
+      <c r="K600" s="50"/>
     </row>
     <row r="601" spans="11:11">
-      <c r="K601" s="51"/>
+      <c r="K601" s="50"/>
     </row>
     <row r="602" spans="11:11">
-      <c r="K602" s="51"/>
+      <c r="K602" s="50"/>
     </row>
     <row r="603" spans="11:11">
-      <c r="K603" s="51"/>
+      <c r="K603" s="50"/>
     </row>
     <row r="604" spans="11:11">
-      <c r="K604" s="51"/>
+      <c r="K604" s="50"/>
     </row>
     <row r="605" spans="11:11">
-      <c r="K605" s="51"/>
+      <c r="K605" s="50"/>
     </row>
     <row r="606" spans="11:11">
-      <c r="K606" s="51"/>
+      <c r="K606" s="50"/>
     </row>
     <row r="607" spans="11:11">
-      <c r="K607" s="51"/>
+      <c r="K607" s="50"/>
     </row>
     <row r="608" spans="11:11">
-      <c r="K608" s="51"/>
+      <c r="K608" s="50"/>
     </row>
     <row r="609" spans="11:11">
-      <c r="K609" s="51"/>
+      <c r="K609" s="50"/>
     </row>
     <row r="610" spans="11:11">
-      <c r="K610" s="51"/>
+      <c r="K610" s="50"/>
     </row>
     <row r="611" spans="11:11">
-      <c r="K611" s="51"/>
+      <c r="K611" s="50"/>
     </row>
     <row r="612" spans="11:11">
-      <c r="K612" s="51"/>
+      <c r="K612" s="50"/>
     </row>
     <row r="613" spans="11:11">
-      <c r="K613" s="51"/>
+      <c r="K613" s="50"/>
     </row>
     <row r="614" spans="11:11">
-      <c r="K614" s="51"/>
+      <c r="K614" s="50"/>
     </row>
     <row r="615" spans="11:11">
-      <c r="K615" s="51"/>
+      <c r="K615" s="50"/>
     </row>
     <row r="616" spans="11:11">
-      <c r="K616" s="51"/>
+      <c r="K616" s="50"/>
     </row>
     <row r="617" spans="11:11">
-      <c r="K617" s="51"/>
+      <c r="K617" s="50"/>
     </row>
     <row r="618" spans="11:11">
-      <c r="K618" s="51"/>
+      <c r="K618" s="50"/>
     </row>
     <row r="619" spans="11:11">
-      <c r="K619" s="51"/>
+      <c r="K619" s="50"/>
     </row>
     <row r="620" spans="11:11">
-      <c r="K620" s="51"/>
+      <c r="K620" s="50"/>
     </row>
     <row r="621" spans="11:11">
-      <c r="K621" s="51"/>
+      <c r="K621" s="50"/>
     </row>
     <row r="622" spans="11:11">
-      <c r="K622" s="51"/>
+      <c r="K622" s="50"/>
     </row>
     <row r="623" spans="11:11">
-      <c r="K623" s="51"/>
+      <c r="K623" s="50"/>
     </row>
     <row r="624" spans="11:11">
-      <c r="K624" s="51"/>
+      <c r="K624" s="50"/>
     </row>
     <row r="625" spans="11:11">
-      <c r="K625" s="51"/>
+      <c r="K625" s="50"/>
     </row>
     <row r="626" spans="11:11">
-      <c r="K626" s="51"/>
+      <c r="K626" s="50"/>
     </row>
     <row r="627" spans="11:11">
-      <c r="K627" s="51"/>
+      <c r="K627" s="50"/>
     </row>
     <row r="628" spans="11:11">
-      <c r="K628" s="51"/>
+      <c r="K628" s="50"/>
     </row>
     <row r="629" spans="11:11">
-      <c r="K629" s="51"/>
+      <c r="K629" s="50"/>
     </row>
     <row r="630" spans="11:11">
-      <c r="K630" s="51"/>
+      <c r="K630" s="50"/>
     </row>
     <row r="631" spans="11:11">
-      <c r="K631" s="51"/>
+      <c r="K631" s="50"/>
     </row>
     <row r="632" spans="11:11">
-      <c r="K632" s="51"/>
+      <c r="K632" s="50"/>
     </row>
     <row r="633" spans="11:11">
-      <c r="K633" s="51"/>
+      <c r="K633" s="50"/>
     </row>
     <row r="634" spans="11:11">
-      <c r="K634" s="51"/>
+      <c r="K634" s="50"/>
     </row>
     <row r="635" spans="11:11">
-      <c r="K635" s="51"/>
+      <c r="K635" s="50"/>
     </row>
     <row r="636" spans="11:11">
-      <c r="K636" s="51"/>
+      <c r="K636" s="50"/>
     </row>
     <row r="637" spans="11:11">
-      <c r="K637" s="51"/>
+      <c r="K637" s="50"/>
     </row>
     <row r="638" spans="11:11">
-      <c r="K638" s="51"/>
+      <c r="K638" s="50"/>
     </row>
     <row r="639" spans="11:11">
-      <c r="K639" s="51"/>
+      <c r="K639" s="50"/>
     </row>
     <row r="640" spans="11:11">
-      <c r="K640" s="51"/>
+      <c r="K640" s="50"/>
     </row>
     <row r="641" spans="11:11">
-      <c r="K641" s="51"/>
+      <c r="K641" s="50"/>
     </row>
     <row r="642" spans="11:11">
-      <c r="K642" s="51"/>
+      <c r="K642" s="50"/>
     </row>
     <row r="643" spans="11:11">
-      <c r="K643" s="51"/>
+      <c r="K643" s="50"/>
     </row>
     <row r="644" spans="11:11">
-      <c r="K644" s="51"/>
+      <c r="K644" s="50"/>
     </row>
     <row r="645" spans="11:11">
-      <c r="K645" s="51"/>
+      <c r="K645" s="50"/>
     </row>
     <row r="646" spans="11:11">
-      <c r="K646" s="51"/>
+      <c r="K646" s="50"/>
     </row>
     <row r="647" spans="11:11">
-      <c r="K647" s="51"/>
+      <c r="K647" s="50"/>
     </row>
     <row r="648" spans="11:11">
-      <c r="K648" s="51"/>
+      <c r="K648" s="50"/>
     </row>
     <row r="649" spans="11:11">
-      <c r="K649" s="51"/>
+      <c r="K649" s="50"/>
     </row>
     <row r="650" spans="11:11">
-      <c r="K650" s="51"/>
+      <c r="K650" s="50"/>
     </row>
     <row r="651" spans="11:11">
-      <c r="K651" s="51"/>
+      <c r="K651" s="50"/>
     </row>
     <row r="652" spans="11:11">
-      <c r="K652" s="51"/>
+      <c r="K652" s="50"/>
     </row>
     <row r="653" spans="11:11">
-      <c r="K653" s="51"/>
+      <c r="K653" s="50"/>
     </row>
     <row r="654" spans="11:11">
-      <c r="K654" s="51"/>
+      <c r="K654" s="50"/>
     </row>
     <row r="655" spans="11:11">
-      <c r="K655" s="51"/>
+      <c r="K655" s="50"/>
     </row>
     <row r="656" spans="11:11">
-      <c r="K656" s="51"/>
+      <c r="K656" s="50"/>
     </row>
     <row r="657" spans="11:11">
-      <c r="K657" s="51"/>
+      <c r="K657" s="50"/>
     </row>
     <row r="658" spans="11:11">
-      <c r="K658" s="51"/>
+      <c r="K658" s="50"/>
     </row>
     <row r="659" spans="11:11">
-      <c r="K659" s="51"/>
+      <c r="K659" s="50"/>
     </row>
     <row r="660" spans="11:11">
-      <c r="K660" s="51"/>
+      <c r="K660" s="50"/>
     </row>
     <row r="661" spans="11:11">
-      <c r="K661" s="51"/>
+      <c r="K661" s="50"/>
     </row>
     <row r="662" spans="11:11">
-      <c r="K662" s="51"/>
+      <c r="K662" s="50"/>
     </row>
     <row r="663" spans="11:11">
-      <c r="K663" s="51"/>
+      <c r="K663" s="50"/>
     </row>
     <row r="664" spans="11:11">
-      <c r="K664" s="51"/>
+      <c r="K664" s="50"/>
     </row>
     <row r="665" spans="11:11">
-      <c r="K665" s="51"/>
+      <c r="K665" s="50"/>
     </row>
     <row r="666" spans="11:11">
-      <c r="K666" s="51"/>
+      <c r="K666" s="50"/>
     </row>
     <row r="667" spans="11:11">
-      <c r="K667" s="51"/>
+      <c r="K667" s="50"/>
     </row>
     <row r="668" spans="11:11">
-      <c r="K668" s="51"/>
+      <c r="K668" s="50"/>
     </row>
     <row r="669" spans="11:11">
-      <c r="K669" s="51"/>
+      <c r="K669" s="50"/>
     </row>
     <row r="670" spans="11:11">
-      <c r="K670" s="51"/>
+      <c r="K670" s="50"/>
     </row>
     <row r="671" spans="11:11">
-      <c r="K671" s="51"/>
+      <c r="K671" s="50"/>
     </row>
     <row r="672" spans="11:11">
-      <c r="K672" s="51"/>
+      <c r="K672" s="50"/>
     </row>
     <row r="673" spans="11:11">
-      <c r="K673" s="51"/>
+      <c r="K673" s="50"/>
     </row>
     <row r="674" spans="11:11">
-      <c r="K674" s="51"/>
+      <c r="K674" s="50"/>
     </row>
     <row r="675" spans="11:11">
-      <c r="K675" s="51"/>
+      <c r="K675" s="50"/>
     </row>
     <row r="676" spans="11:11">
-      <c r="K676" s="51"/>
+      <c r="K676" s="50"/>
     </row>
     <row r="677" spans="11:11">
-      <c r="K677" s="51"/>
+      <c r="K677" s="50"/>
     </row>
     <row r="678" spans="11:11">
-      <c r="K678" s="51"/>
+      <c r="K678" s="50"/>
     </row>
     <row r="679" spans="11:11">
-      <c r="K679" s="51"/>
+      <c r="K679" s="50"/>
     </row>
     <row r="680" spans="11:11">
-      <c r="K680" s="51"/>
+      <c r="K680" s="50"/>
     </row>
     <row r="681" spans="11:11">
-      <c r="K681" s="51"/>
+      <c r="K681" s="50"/>
     </row>
     <row r="682" spans="11:11">
-      <c r="K682" s="51"/>
+      <c r="K682" s="50"/>
     </row>
     <row r="683" spans="11:11">
-      <c r="K683" s="51"/>
+      <c r="K683" s="50"/>
     </row>
     <row r="684" spans="11:11">
-      <c r="K684" s="51"/>
+      <c r="K684" s="50"/>
     </row>
     <row r="685" spans="11:11">
-      <c r="K685" s="51"/>
+      <c r="K685" s="50"/>
     </row>
     <row r="686" spans="11:11">
-      <c r="K686" s="51"/>
+      <c r="K686" s="50"/>
     </row>
     <row r="687" spans="11:11">
-      <c r="K687" s="51"/>
+      <c r="K687" s="50"/>
     </row>
     <row r="688" spans="11:11">
-      <c r="K688" s="51"/>
+      <c r="K688" s="50"/>
     </row>
     <row r="689" spans="11:11">
-      <c r="K689" s="51"/>
+      <c r="K689" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miho1\OneDrive\デスクトップ\DIスクール\workspace\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB1A47E-4FA3-45E0-AF4F-222A2F654C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C213DEC-465D-4C9F-A7D6-F45085378DF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3.登録確認画面'!$A$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="682">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -6623,13 +6622,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要確認</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウカクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9591,7 +9583,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
@@ -9698,8 +9690,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="C21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10008,7 +10000,7 @@
         <v>244</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>279</v>
@@ -11163,8 +11155,8 @@
       <c r="I44" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>249</v>
+      <c r="J44" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>367</v>
@@ -12142,7 +12134,7 @@
     </row>
     <row r="74" spans="1:11" ht="75">
       <c r="A74" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>36</v>
@@ -12177,7 +12169,7 @@
     </row>
     <row r="75" spans="1:11" ht="56.25">
       <c r="A75" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>36</v>
@@ -12212,7 +12204,7 @@
     </row>
     <row r="76" spans="1:11" ht="56.25">
       <c r="A76" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>36</v>
@@ -12247,7 +12239,7 @@
     </row>
     <row r="77" spans="1:11" ht="93.75">
       <c r="A77" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>36</v>
@@ -12282,7 +12274,7 @@
     </row>
     <row r="78" spans="1:11" ht="93.75">
       <c r="A78" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>36</v>
@@ -12317,7 +12309,7 @@
     </row>
     <row r="79" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
       <c r="A79" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B79" s="37" t="s">
         <v>162</v>
@@ -12350,7 +12342,7 @@
     </row>
     <row r="80" spans="1:11" ht="56.25" hidden="1">
       <c r="A80" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>183</v>
@@ -12365,7 +12357,7 @@
         <v>184</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>242</v>
@@ -12382,7 +12374,7 @@
     </row>
     <row r="81" spans="1:10" ht="56.25" hidden="1">
       <c r="A81" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>183</v>
@@ -12397,7 +12389,7 @@
         <v>185</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>242</v>
@@ -12414,7 +12406,7 @@
     </row>
     <row r="82" spans="1:10" ht="56.25" hidden="1">
       <c r="A82" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>183</v>
@@ -12429,7 +12421,7 @@
         <v>186</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>242</v>
@@ -12446,7 +12438,7 @@
     </row>
     <row r="83" spans="1:10" ht="56.25" hidden="1">
       <c r="A83" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>183</v>
@@ -12461,7 +12453,7 @@
         <v>188</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>242</v>
@@ -12478,7 +12470,7 @@
     </row>
     <row r="84" spans="1:10" ht="56.25" hidden="1">
       <c r="A84" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>183</v>
@@ -12493,7 +12485,7 @@
         <v>187</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>242</v>
@@ -12510,7 +12502,7 @@
     </row>
     <row r="85" spans="1:10" ht="56.25" hidden="1">
       <c r="A85" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>183</v>
@@ -12525,7 +12517,7 @@
         <v>189</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>242</v>
@@ -12542,7 +12534,7 @@
     </row>
     <row r="86" spans="1:10" ht="37.5" hidden="1">
       <c r="A86" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>183</v>
@@ -12557,7 +12549,7 @@
         <v>190</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>242</v>
@@ -12574,7 +12566,7 @@
     </row>
     <row r="87" spans="1:10" ht="56.25" hidden="1">
       <c r="A87" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>183</v>
@@ -12589,7 +12581,7 @@
         <v>191</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>242</v>
@@ -12606,7 +12598,7 @@
     </row>
     <row r="88" spans="1:10" ht="56.25" hidden="1">
       <c r="A88" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>183</v>
@@ -12621,7 +12613,7 @@
         <v>192</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>242</v>
@@ -12638,7 +12630,7 @@
     </row>
     <row r="89" spans="1:10" ht="56.25" hidden="1">
       <c r="A89" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>183</v>
@@ -12653,7 +12645,7 @@
         <v>193</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>242</v>
@@ -12670,7 +12662,7 @@
     </row>
     <row r="90" spans="1:10" ht="37.5" hidden="1">
       <c r="A90" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>183</v>
@@ -12685,7 +12677,7 @@
         <v>194</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>242</v>
@@ -12702,7 +12694,7 @@
     </row>
     <row r="91" spans="1:10" ht="37.5" hidden="1">
       <c r="A91" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>183</v>
@@ -12717,7 +12709,7 @@
         <v>195</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>242</v>
@@ -12753,7 +12745,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J21" sqref="J21:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12933,7 +12925,7 @@
         <v>244</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>423</v>
@@ -13063,8 +13055,8 @@
       <c r="I9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>249</v>
+      <c r="J9" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>279</v>
@@ -13450,8 +13442,8 @@
       <c r="I21" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>501</v>
+      <c r="J21" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>500</v>
@@ -13523,7 +13515,7 @@
     </row>
     <row r="24" spans="1:11" ht="37.5" hidden="1">
       <c r="A24" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -13555,7 +13547,7 @@
     </row>
     <row r="25" spans="1:11" ht="37.5" hidden="1">
       <c r="A25" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -13587,7 +13579,7 @@
     </row>
     <row r="26" spans="1:11" ht="37.5" hidden="1">
       <c r="A26" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
@@ -13619,7 +13611,7 @@
     </row>
     <row r="27" spans="1:11" ht="37.5" hidden="1">
       <c r="A27" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -13651,7 +13643,7 @@
     </row>
     <row r="28" spans="1:11" ht="37.5" hidden="1">
       <c r="A28" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
@@ -13683,7 +13675,7 @@
     </row>
     <row r="29" spans="1:11" ht="37.5">
       <c r="A29" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>17</v>
@@ -13709,16 +13701,16 @@
       <c r="I29" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>249</v>
+      <c r="J29" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="37.5" hidden="1">
       <c r="A30" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -13727,13 +13719,13 @@
         <v>164</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>242</v>
@@ -13750,7 +13742,7 @@
     </row>
     <row r="31" spans="1:11" ht="37.5" hidden="1">
       <c r="A31" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -13759,13 +13751,13 @@
         <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>242</v>
@@ -13782,7 +13774,7 @@
     </row>
     <row r="32" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
       <c r="A32" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>170</v>
@@ -13791,13 +13783,13 @@
         <v>172</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>242</v>
@@ -13815,7 +13807,7 @@
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="56.25">
       <c r="A33" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>171</v>
@@ -13824,13 +13816,13 @@
         <v>172</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>173</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>242</v>
@@ -13841,16 +13833,16 @@
       <c r="I33" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J33" s="38" t="s">
-        <v>249</v>
+      <c r="J33" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="56.25" hidden="1">
       <c r="A34" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -13865,7 +13857,7 @@
         <v>175</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>242</v>
@@ -13975,7 +13967,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -13988,7 +13980,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="4"/>
       <c r="J2" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -14000,16 +13992,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>242</v>
@@ -14033,16 +14025,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>242</v>
@@ -14066,16 +14058,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>242</v>
@@ -14099,16 +14091,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>242</v>
@@ -16145,7 +16137,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5">
@@ -16156,20 +16148,20 @@
         <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>570</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="4"/>
       <c r="H2" s="22"/>
       <c r="I2" s="4"/>
       <c r="J2" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K2" s="50"/>
       <c r="L2" s="8" t="s">
@@ -16184,20 +16176,20 @@
         <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="4"/>
       <c r="H3" s="22"/>
       <c r="I3" s="4"/>
       <c r="J3" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K3" s="50"/>
       <c r="L3" s="8" t="s">
@@ -16212,20 +16204,20 @@
         <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="4"/>
       <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K4" s="50"/>
       <c r="L4" s="8" t="s">
@@ -16240,20 +16232,20 @@
         <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="4"/>
       <c r="H5" s="22"/>
       <c r="I5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K5" s="50"/>
       <c r="L5" s="8" t="s">
@@ -16268,20 +16260,20 @@
         <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="22"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="8" t="s">
@@ -16296,20 +16288,20 @@
         <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="4"/>
       <c r="H7" s="22"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="8" t="s">
@@ -16324,20 +16316,20 @@
         <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="4"/>
       <c r="H8" s="22"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="8" t="s">
@@ -16352,20 +16344,20 @@
         <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="4"/>
       <c r="H9" s="22"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="8" t="s">
@@ -16380,20 +16372,20 @@
         <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="4"/>
       <c r="H10" s="22"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K10" s="50"/>
       <c r="L10" s="8" t="s">
@@ -16408,20 +16400,20 @@
         <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="4"/>
       <c r="H11" s="22"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K11" s="50"/>
       <c r="L11" s="8" t="s">
@@ -16436,20 +16428,20 @@
         <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="4"/>
       <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K12" s="50"/>
       <c r="L12" s="8" t="s">
@@ -16464,20 +16456,20 @@
         <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="4"/>
       <c r="H13" s="22"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K13" s="50"/>
       <c r="L13" s="8" t="s">
@@ -16492,20 +16484,20 @@
         <v>208</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="4"/>
       <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K14" s="50"/>
       <c r="L14" s="8" t="s">
@@ -16520,20 +16512,20 @@
         <v>208</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="4"/>
       <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K15" s="50"/>
       <c r="L15" s="8" t="s">
@@ -16548,20 +16540,20 @@
         <v>208</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="4"/>
       <c r="H16" s="22"/>
       <c r="I16" s="4"/>
       <c r="J16" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K16" s="50"/>
       <c r="L16" s="8" t="s">
@@ -16576,20 +16568,20 @@
         <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="4"/>
       <c r="H17" s="22"/>
       <c r="I17" s="4"/>
       <c r="J17" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K17" s="50"/>
       <c r="L17" s="8" t="s">
@@ -16604,20 +16596,20 @@
         <v>208</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="4"/>
       <c r="H18" s="22"/>
       <c r="I18" s="4"/>
       <c r="J18" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K18" s="50"/>
       <c r="L18" s="8" t="s">
@@ -16626,26 +16618,26 @@
     </row>
     <row r="19" spans="1:12" ht="37.5">
       <c r="A19" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="4"/>
       <c r="H19" s="22"/>
       <c r="I19" s="4"/>
       <c r="J19" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K19" s="50"/>
       <c r="L19" s="8" t="s">
@@ -16654,26 +16646,26 @@
     </row>
     <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="4"/>
       <c r="H20" s="22"/>
       <c r="I20" s="4"/>
       <c r="J20" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K20" s="50"/>
       <c r="L20" s="8" t="s">
@@ -16682,26 +16674,26 @@
     </row>
     <row r="21" spans="1:12" ht="37.5">
       <c r="A21" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="4"/>
       <c r="H21" s="22"/>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="8" t="s">
@@ -16710,26 +16702,26 @@
     </row>
     <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="4"/>
       <c r="H22" s="22"/>
       <c r="I22" s="4"/>
       <c r="J22" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K22" s="50"/>
       <c r="L22" s="8" t="s">
@@ -16738,26 +16730,26 @@
     </row>
     <row r="23" spans="1:12" ht="37.5">
       <c r="A23" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="4"/>
       <c r="H23" s="22"/>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K23" s="50"/>
       <c r="L23" s="8" t="s">
@@ -16766,26 +16758,26 @@
     </row>
     <row r="24" spans="1:12" ht="37.5">
       <c r="A24" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="4"/>
       <c r="H24" s="22"/>
       <c r="I24" s="4"/>
       <c r="J24" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K24" s="50"/>
       <c r="L24" s="8" t="s">
@@ -16794,26 +16786,26 @@
     </row>
     <row r="25" spans="1:12" ht="37.5">
       <c r="A25" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="4"/>
       <c r="H25" s="22"/>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K25" s="50"/>
       <c r="L25" s="8" t="s">
@@ -16822,26 +16814,26 @@
     </row>
     <row r="26" spans="1:12" ht="37.5">
       <c r="A26" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="4"/>
       <c r="H26" s="22"/>
       <c r="I26" s="4"/>
       <c r="J26" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="8" t="s">
@@ -16850,26 +16842,26 @@
     </row>
     <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="4"/>
       <c r="H27" s="22"/>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K27" s="50"/>
       <c r="L27" s="8" t="s">
@@ -16878,26 +16870,26 @@
     </row>
     <row r="28" spans="1:12" ht="37.5">
       <c r="A28" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="4"/>
       <c r="H28" s="22"/>
       <c r="I28" s="4"/>
       <c r="J28" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K28" s="50"/>
       <c r="L28" s="8" t="s">
@@ -16906,26 +16898,26 @@
     </row>
     <row r="29" spans="1:12" ht="37.5">
       <c r="A29" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="4"/>
       <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K29" s="50"/>
       <c r="L29" s="8" t="s">
@@ -16934,26 +16926,26 @@
     </row>
     <row r="30" spans="1:12" ht="37.5">
       <c r="A30" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="4"/>
       <c r="H30" s="22"/>
       <c r="I30" s="4"/>
       <c r="J30" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="8" t="s">
@@ -16962,26 +16954,26 @@
     </row>
     <row r="31" spans="1:12" ht="37.5">
       <c r="A31" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="4"/>
       <c r="H31" s="22"/>
       <c r="I31" s="4"/>
       <c r="J31" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K31" s="50"/>
       <c r="L31" s="8" t="s">
@@ -16990,26 +16982,26 @@
     </row>
     <row r="32" spans="1:12" ht="37.5">
       <c r="A32" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="4"/>
       <c r="H32" s="22"/>
       <c r="I32" s="4"/>
       <c r="J32" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="8" t="s">
@@ -17018,26 +17010,26 @@
     </row>
     <row r="33" spans="1:12" ht="37.5">
       <c r="A33" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="4"/>
       <c r="H33" s="22"/>
       <c r="I33" s="4"/>
       <c r="J33" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K33" s="50"/>
       <c r="L33" s="8" t="s">
@@ -17046,16 +17038,16 @@
     </row>
     <row r="34" spans="1:12" ht="37.5">
       <c r="A34" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>209</v>
@@ -17064,7 +17056,7 @@
       <c r="G34" s="8"/>
       <c r="I34" s="4"/>
       <c r="J34" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K34" s="51"/>
       <c r="L34" s="8" t="s">
@@ -17073,16 +17065,16 @@
     </row>
     <row r="35" spans="1:12" ht="37.5">
       <c r="A35" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>214</v>
@@ -17091,7 +17083,7 @@
       <c r="G35" s="8"/>
       <c r="I35" s="4"/>
       <c r="J35" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K35" s="51"/>
       <c r="L35" s="8" t="s">
@@ -17100,16 +17092,16 @@
     </row>
     <row r="36" spans="1:12" ht="37.5">
       <c r="A36" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>213</v>
@@ -17118,7 +17110,7 @@
       <c r="G36" s="8"/>
       <c r="I36" s="4"/>
       <c r="J36" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K36" s="51"/>
       <c r="L36" s="8" t="s">
@@ -17127,16 +17119,16 @@
     </row>
     <row r="37" spans="1:12" ht="56.25">
       <c r="A37" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>212</v>
@@ -17146,7 +17138,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="4"/>
       <c r="J37" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K37" s="50"/>
       <c r="L37" s="8" t="s">
@@ -17155,23 +17147,23 @@
     </row>
     <row r="38" spans="1:12" ht="56.25">
       <c r="A38" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>211</v>
       </c>
       <c r="F38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K38" s="50"/>
       <c r="L38" s="8" t="s">
@@ -17180,22 +17172,22 @@
     </row>
     <row r="39" spans="1:12" ht="37.5">
       <c r="A39" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>210</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="8" t="s">
@@ -17204,22 +17196,22 @@
     </row>
     <row r="40" spans="1:12" ht="56.25">
       <c r="A40" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>223</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K40" s="50"/>
       <c r="L40" s="8" t="s">
@@ -17228,43 +17220,43 @@
     </row>
     <row r="41" spans="1:12" ht="56.25">
       <c r="A41" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>224</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="37.5">
       <c r="A42" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>225</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K42" s="50"/>
       <c r="L42" s="8" t="s">
@@ -17273,22 +17265,22 @@
     </row>
     <row r="43" spans="1:12" ht="37.5">
       <c r="A43" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>226</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K43" s="50"/>
       <c r="L43" s="8" t="s">
@@ -17297,22 +17289,22 @@
     </row>
     <row r="44" spans="1:12" ht="37.5">
       <c r="A44" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>227</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K44" s="50"/>
       <c r="L44" s="8" t="s">
@@ -17321,22 +17313,22 @@
     </row>
     <row r="45" spans="1:12" ht="37.5">
       <c r="A45" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>228</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K45" s="50"/>
       <c r="L45" s="8" t="s">
@@ -17345,43 +17337,43 @@
     </row>
     <row r="46" spans="1:12" ht="56.25">
       <c r="A46" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>229</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K46" s="50"/>
     </row>
     <row r="47" spans="1:12" ht="37.5">
       <c r="A47" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>230</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K47" s="50"/>
       <c r="L47" s="8" t="s">
@@ -17390,22 +17382,22 @@
     </row>
     <row r="48" spans="1:12" ht="37.5">
       <c r="A48" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>231</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K48" s="50"/>
       <c r="L48" s="8" t="s">

--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C213DEC-465D-4C9F-A7D6-F45085378DF1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BABBBD2-1E52-402D-9F98-19BECEB7887D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="683">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -8838,6 +8838,13 @@
     <t>訂正済</t>
     <rPh sb="0" eb="3">
       <t>テイセイスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no修正</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9690,8 +9697,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10291,7 +10298,7 @@
         <v>244</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>410</v>
@@ -10326,7 +10333,7 @@
         <v>244</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>410</v>
@@ -10361,7 +10368,7 @@
         <v>244</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>410</v>
@@ -10396,7 +10403,7 @@
         <v>244</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>410</v>
@@ -10431,7 +10438,7 @@
         <v>244</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>410</v>
@@ -10466,7 +10473,7 @@
         <v>244</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>410</v>
@@ -10501,7 +10508,7 @@
         <v>244</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>410</v>
@@ -10568,7 +10575,7 @@
         <v>244</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>410</v>
@@ -10603,7 +10610,7 @@
         <v>244</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>410</v>
@@ -10638,7 +10645,7 @@
         <v>244</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>410</v>
@@ -10673,7 +10680,7 @@
         <v>244</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>410</v>
@@ -11670,8 +11677,8 @@
       <c r="I60" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>249</v>
+      <c r="J60" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>411</v>
@@ -11705,8 +11712,8 @@
       <c r="I61" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>249</v>
+      <c r="J61" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>411</v>
@@ -11740,8 +11747,8 @@
       <c r="I62" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>249</v>
+      <c r="J62" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>411</v>
@@ -11775,8 +11782,8 @@
       <c r="I63" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>249</v>
+      <c r="J63" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>411</v>
@@ -11810,8 +11817,8 @@
       <c r="I64" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>249</v>
+      <c r="J64" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>411</v>
@@ -11845,8 +11852,8 @@
       <c r="I65" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>249</v>
+      <c r="J65" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>411</v>
@@ -11880,8 +11887,8 @@
       <c r="I66" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>249</v>
+      <c r="J66" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>411</v>
@@ -11915,8 +11922,8 @@
       <c r="I67" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>249</v>
+      <c r="J67" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>411</v>
@@ -11950,8 +11957,8 @@
       <c r="I68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>249</v>
+      <c r="J68" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>411</v>
@@ -11985,8 +11992,8 @@
       <c r="I69" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>249</v>
+      <c r="J69" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>411</v>
@@ -12020,8 +12027,8 @@
       <c r="I70" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>249</v>
+      <c r="J70" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>411</v>
@@ -12055,8 +12062,8 @@
       <c r="I71" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>249</v>
+      <c r="J71" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>411</v>
@@ -12090,8 +12097,8 @@
       <c r="I72" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>249</v>
+      <c r="J72" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>411</v>
@@ -12125,8 +12132,8 @@
       <c r="I73" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>249</v>
+      <c r="J73" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>411</v>
@@ -12160,8 +12167,8 @@
       <c r="I74" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>249</v>
+      <c r="J74" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>411</v>
@@ -12195,8 +12202,8 @@
       <c r="I75" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>249</v>
+      <c r="J75" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>411</v>
@@ -12230,8 +12237,8 @@
       <c r="I76" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>249</v>
+      <c r="J76" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>411</v>
@@ -12265,8 +12272,8 @@
       <c r="I77" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>249</v>
+      <c r="J77" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>411</v>
@@ -12300,8 +12307,8 @@
       <c r="I78" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>249</v>
+      <c r="J78" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>411</v>
@@ -12744,7 +12751,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:J29"/>
     </sheetView>
   </sheetViews>

--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BABBBD2-1E52-402D-9F98-19BECEB7887D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317B996A-704C-41CF-A969-1B2A266E035D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9697,8 +9697,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:J78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9779,8 +9779,8 @@
       <c r="I2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>249</v>
+      <c r="J2" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>250</v>

--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317B996A-704C-41CF-A969-1B2A266E035D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A55482-F158-4CA9-A145-10BB48B5150C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="684">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -8845,6 +8845,37 @@
     <t>no修正</t>
     <rPh sb="2" eb="4">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録完了画面に移行した後のURLを確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9697,7 +9728,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
@@ -12751,8 +12782,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J29"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12832,8 +12863,8 @@
       <c r="I2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>249</v>
+      <c r="J2" s="53" t="s">
+        <v>681</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>414</v>
@@ -13913,8 +13944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC00FF5A-A12E-44BF-A580-758A46D27A3B}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13966,7 +13997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="37.5">
+    <row r="2" spans="1:11" ht="56.25">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -13982,12 +14013,20 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="K2" s="4"/>
     </row>

--- a/テスト指示書.xlsx
+++ b/テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A55482-F158-4CA9-A145-10BB48B5150C}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C956C960-6BF2-4795-88F0-69D84C145B43}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="720">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -2656,13 +2656,6 @@
   </si>
   <si>
     <t>TOPページから移行後のURLを確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要修正</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウシュウセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7245,13 +7238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未実施</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録後、XAMPPでApacheとMySQLを起動させphpMyadminでテーブルの「account_data 」を表示している</t>
     <rPh sb="5" eb="8">
       <t>トウロクゴ</t>
@@ -7467,13 +7453,6 @@
     <t>5-31</t>
   </si>
   <si>
-    <t>※過去のデータ</t>
-    <rPh sb="1" eb="3">
-      <t>カコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から1個目を見る</t>
     <rPh sb="34" eb="36">
       <t>ヒョウジ</t>
@@ -8875,6 +8854,885 @@
       <t>アト</t>
     </rPh>
     <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から1個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から2個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から3個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から4個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から5個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から6個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から7個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から8個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から9個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から10個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から11個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から12個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から13個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から14個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から3個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から2個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の一番上を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から16個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の一番上の項目で左から15個目を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から7個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から8個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から9個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から10個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から15個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の構造タグを選択後、タイプ列の上から16個目を確認</t>
+    <rPh sb="34" eb="36">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「ID」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「family_name」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「last_name 」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「family_name_kana 」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「last_name_kana」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「mail 」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「gender」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「 password」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「postal_code」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「address_1」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「address_2」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「registered_time」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「authority」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyadminでデータベースの「account_data 」の表示タグを選択後、表の「 update_time」の下の行を確認</t>
+    <rPh sb="43" eb="44">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -9037,7 +9895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9098,13 +9956,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9522,7 +10374,7 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9536,13 +10388,13 @@
       <c r="C2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>241</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -9559,38 +10411,38 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" ht="37.5">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:11" s="30" customFormat="1" ht="37.5">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="32">
         <v>45906</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="27" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9621,7 +10473,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
@@ -9728,7 +10580,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
@@ -9739,7 +10591,7 @@
     <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="27" customWidth="1"/>
+    <col min="6" max="6" width="38" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="4" customWidth="1"/>
@@ -9763,7 +10615,7 @@
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -9778,7 +10630,7 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9798,7 +10650,7 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -9810,11 +10662,11 @@
       <c r="I2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="52" t="s">
-        <v>680</v>
+      <c r="J2" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
@@ -9825,16 +10677,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>251</v>
+      <c r="F3" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>242</v>
@@ -9857,16 +10709,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>252</v>
+      <c r="F4" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>242</v>
@@ -9889,16 +10741,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>253</v>
+      <c r="F5" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>242</v>
@@ -9921,16 +10773,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="26" t="s">
         <v>254</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>242</v>
@@ -9953,16 +10805,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>242</v>
@@ -9985,16 +10837,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>269</v>
+      <c r="F8" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>242</v>
@@ -10017,16 +10869,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>270</v>
+        <v>258</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>242</v>
@@ -10037,11 +10889,11 @@
       <c r="I9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="52" t="s">
-        <v>680</v>
+      <c r="J9" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="37.5" hidden="1">
@@ -10052,16 +10904,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>242</v>
@@ -10084,16 +10936,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>272</v>
+        <v>260</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>242</v>
@@ -10116,16 +10968,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>273</v>
+        <v>261</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>242</v>
@@ -10148,16 +11000,16 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>274</v>
+        <v>262</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>242</v>
@@ -10180,16 +11032,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>275</v>
+        <v>263</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>242</v>
@@ -10212,16 +11064,16 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>276</v>
+        <v>264</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>242</v>
@@ -10244,16 +11096,16 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>277</v>
+        <v>265</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>242</v>
@@ -10276,16 +11128,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>278</v>
+        <v>266</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>242</v>
@@ -10308,16 +11160,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>242</v>
@@ -10329,10 +11181,10 @@
         <v>244</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="37.5">
@@ -10343,16 +11195,16 @@
         <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>242</v>
@@ -10364,10 +11216,10 @@
         <v>244</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="37.5">
@@ -10378,16 +11230,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>242</v>
@@ -10399,10 +11251,10 @@
         <v>244</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="37.5">
@@ -10413,16 +11265,16 @@
         <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>242</v>
@@ -10434,10 +11286,10 @@
         <v>244</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="37.5">
@@ -10448,16 +11300,16 @@
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>242</v>
@@ -10469,10 +11321,10 @@
         <v>244</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="37.5">
@@ -10483,16 +11335,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>242</v>
@@ -10504,10 +11356,10 @@
         <v>244</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="37.5">
@@ -10518,16 +11370,16 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>242</v>
@@ -10539,10 +11391,10 @@
         <v>244</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="37.5" hidden="1">
@@ -10553,16 +11405,16 @@
         <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>242</v>
@@ -10585,16 +11437,16 @@
         <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>242</v>
@@ -10606,10 +11458,10 @@
         <v>244</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="37.5">
@@ -10620,16 +11472,16 @@
         <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>242</v>
@@ -10641,10 +11493,10 @@
         <v>244</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="37.5">
@@ -10655,16 +11507,16 @@
         <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>242</v>
@@ -10676,10 +11528,10 @@
         <v>244</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="37.5">
@@ -10690,16 +11542,16 @@
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>242</v>
@@ -10711,10 +11563,10 @@
         <v>244</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="37.5" hidden="1">
@@ -10725,16 +11577,16 @@
         <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>242</v>
@@ -10757,16 +11609,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>242</v>
@@ -10789,16 +11641,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>242</v>
@@ -10821,16 +11673,16 @@
         <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>324</v>
+        <v>298</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>323</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>337</v>
+        <v>348</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>336</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>242</v>
@@ -10853,16 +11705,16 @@
         <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>325</v>
+        <v>298</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>324</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>338</v>
+        <v>347</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>242</v>
@@ -10885,16 +11737,16 @@
         <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>326</v>
+        <v>298</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>325</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>339</v>
+        <v>347</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>242</v>
@@ -10917,16 +11769,16 @@
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>327</v>
+        <v>299</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>339</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>242</v>
@@ -10949,16 +11801,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>328</v>
+        <v>299</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>242</v>
@@ -10981,16 +11833,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>329</v>
+        <v>299</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>359</v>
+        <v>346</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>358</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>242</v>
@@ -11013,16 +11865,16 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>360</v>
+        <v>300</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>359</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>362</v>
+        <v>345</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>361</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>242</v>
@@ -11045,16 +11897,16 @@
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>361</v>
+        <v>301</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>360</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>363</v>
+        <v>344</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>362</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>242</v>
@@ -11077,16 +11929,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>378</v>
+        <v>302</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>364</v>
+        <v>343</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>363</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>242</v>
@@ -11109,16 +11961,16 @@
         <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>350</v>
+        <v>303</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>349</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>365</v>
+        <v>342</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>242</v>
@@ -11141,16 +11993,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>351</v>
+        <v>304</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>350</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>366</v>
+        <v>341</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>365</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>242</v>
@@ -11173,16 +12025,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>368</v>
+      <c r="F44" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>242</v>
@@ -11193,11 +12045,11 @@
       <c r="I44" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J44" s="52" t="s">
-        <v>680</v>
+      <c r="J44" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="37.5" hidden="1">
@@ -11208,16 +12060,16 @@
         <v>36</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>330</v>
+        <v>305</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>329</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>370</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>242</v>
@@ -11240,16 +12092,16 @@
         <v>36</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>331</v>
+        <v>306</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>330</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>371</v>
+        <v>356</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>242</v>
@@ -11272,16 +12124,16 @@
         <v>36</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>352</v>
+        <v>306</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>372</v>
+        <v>356</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>242</v>
@@ -11304,16 +12156,16 @@
         <v>36</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>353</v>
+        <v>306</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>352</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>373</v>
+        <v>356</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>242</v>
@@ -11336,16 +12188,16 @@
         <v>36</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>354</v>
+        <v>306</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>375</v>
+        <v>356</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>242</v>
@@ -11368,16 +12220,16 @@
         <v>36</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>355</v>
+        <v>306</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>354</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>374</v>
+        <v>356</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>242</v>
@@ -11400,16 +12252,16 @@
         <v>36</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D51" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>376</v>
+      <c r="F51" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>242</v>
@@ -11432,16 +12284,16 @@
         <v>36</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>379</v>
+        <v>307</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>378</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>385</v>
+        <v>357</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>242</v>
@@ -11464,16 +12316,16 @@
         <v>36</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>381</v>
+        <v>307</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>388</v>
+        <v>357</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>242</v>
@@ -11496,16 +12348,16 @@
         <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>382</v>
+        <v>307</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>387</v>
+        <v>357</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>242</v>
@@ -11528,16 +12380,16 @@
         <v>36</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>383</v>
+        <v>307</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>386</v>
+        <v>357</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>385</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>242</v>
@@ -11560,16 +12412,16 @@
         <v>36</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>384</v>
+        <v>307</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>377</v>
+        <v>357</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>376</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>242</v>
@@ -11592,16 +12444,16 @@
         <v>36</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>380</v>
+        <v>307</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>377</v>
+        <v>357</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>376</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>242</v>
@@ -11624,16 +12476,16 @@
         <v>36</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>390</v>
+        <v>308</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>389</v>
+        <v>332</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>242</v>
@@ -11656,16 +12508,16 @@
         <v>36</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>332</v>
+        <v>308</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>331</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>391</v>
+        <v>333</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>242</v>
@@ -11688,7 +12540,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>94</v>
@@ -11708,11 +12560,11 @@
       <c r="I60" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="52" t="s">
-        <v>680</v>
+      <c r="J60" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="56.25">
@@ -11723,7 +12575,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>96</v>
@@ -11743,11 +12595,11 @@
       <c r="I61" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="52" t="s">
-        <v>680</v>
+      <c r="J61" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="56.25">
@@ -11758,7 +12610,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>98</v>
@@ -11778,11 +12630,11 @@
       <c r="I62" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J62" s="52" t="s">
-        <v>680</v>
+      <c r="J62" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="56.25">
@@ -11793,7 +12645,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>143</v>
@@ -11813,11 +12665,11 @@
       <c r="I63" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J63" s="52" t="s">
-        <v>680</v>
+      <c r="J63" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="56.25">
@@ -11828,7 +12680,7 @@
         <v>36</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>100</v>
@@ -11848,11 +12700,11 @@
       <c r="I64" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J64" s="52" t="s">
-        <v>680</v>
+      <c r="J64" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="56.25">
@@ -11863,7 +12715,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>102</v>
@@ -11883,11 +12735,11 @@
       <c r="I65" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J65" s="52" t="s">
-        <v>680</v>
+      <c r="J65" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="56.25">
@@ -11898,16 +12750,16 @@
         <v>36</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>242</v>
@@ -11918,11 +12770,11 @@
       <c r="I66" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J66" s="52" t="s">
-        <v>680</v>
+      <c r="J66" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="56.25">
@@ -11933,7 +12785,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>104</v>
@@ -11953,11 +12805,11 @@
       <c r="I67" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="52" t="s">
-        <v>680</v>
+      <c r="J67" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="56.25">
@@ -11968,7 +12820,7 @@
         <v>36</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>106</v>
@@ -11988,11 +12840,11 @@
       <c r="I68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="52" t="s">
-        <v>680</v>
+      <c r="J68" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="56.25">
@@ -12023,11 +12875,11 @@
       <c r="I69" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="52" t="s">
-        <v>680</v>
+      <c r="J69" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="56.25">
@@ -12041,13 +12893,13 @@
         <v>130</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="27" t="s">
-        <v>400</v>
+      <c r="F70" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>242</v>
@@ -12058,11 +12910,11 @@
       <c r="I70" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J70" s="52" t="s">
-        <v>680</v>
+      <c r="J70" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="56.25">
@@ -12076,13 +12928,13 @@
         <v>131</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F71" s="27" t="s">
-        <v>401</v>
+      <c r="F71" s="25" t="s">
+        <v>400</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>242</v>
@@ -12093,11 +12945,11 @@
       <c r="I71" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J71" s="52" t="s">
-        <v>680</v>
+      <c r="J71" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="56.25">
@@ -12111,13 +12963,13 @@
         <v>132</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="27" t="s">
-        <v>402</v>
+      <c r="F72" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>242</v>
@@ -12128,11 +12980,11 @@
       <c r="I72" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J72" s="52" t="s">
-        <v>680</v>
+      <c r="J72" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="56.25">
@@ -12151,8 +13003,8 @@
       <c r="E73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="27" t="s">
-        <v>403</v>
+      <c r="F73" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>242</v>
@@ -12163,16 +13015,16 @@
       <c r="I73" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J73" s="52" t="s">
-        <v>680</v>
+      <c r="J73" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="75">
       <c r="A74" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>36</v>
@@ -12181,13 +13033,13 @@
         <v>134</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="27" t="s">
-        <v>404</v>
+      <c r="F74" s="25" t="s">
+        <v>403</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>242</v>
@@ -12198,16 +13050,16 @@
       <c r="I74" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J74" s="52" t="s">
-        <v>680</v>
+      <c r="J74" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="56.25">
       <c r="A75" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>36</v>
@@ -12216,13 +13068,13 @@
         <v>135</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="27" t="s">
-        <v>405</v>
+      <c r="F75" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>242</v>
@@ -12233,16 +13085,16 @@
       <c r="I75" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J75" s="52" t="s">
-        <v>680</v>
+      <c r="J75" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="56.25">
       <c r="A76" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>36</v>
@@ -12251,13 +13103,13 @@
         <v>136</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F76" s="27" t="s">
-        <v>406</v>
+      <c r="F76" s="25" t="s">
+        <v>405</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>242</v>
@@ -12268,16 +13120,16 @@
       <c r="I76" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J76" s="52" t="s">
-        <v>680</v>
+      <c r="J76" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="93.75">
       <c r="A77" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>36</v>
@@ -12286,13 +13138,13 @@
         <v>137</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="27" t="s">
-        <v>407</v>
+      <c r="F77" s="25" t="s">
+        <v>406</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>242</v>
@@ -12303,16 +13155,16 @@
       <c r="I77" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J77" s="52" t="s">
-        <v>680</v>
+      <c r="J77" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="93.75">
       <c r="A78" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>36</v>
@@ -12321,13 +13173,13 @@
         <v>138</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="27" t="s">
-        <v>408</v>
+      <c r="F78" s="25" t="s">
+        <v>407</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>242</v>
@@ -12338,49 +13190,49 @@
       <c r="I78" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J78" s="52" t="s">
-        <v>680</v>
+      <c r="J78" s="50" t="s">
+        <v>677</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
-      <c r="A79" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="B79" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="37" customFormat="1" ht="37.5" hidden="1">
+      <c r="A79" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="C79" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E79" s="37" t="s">
+      <c r="D79" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E79" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="G79" s="33" t="s">
+      <c r="F79" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H79" s="32">
         <v>45906</v>
       </c>
-      <c r="I79" s="33" t="s">
+      <c r="I79" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J79" s="38" t="s">
+      <c r="J79" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="K79" s="37"/>
+      <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11" ht="56.25" hidden="1">
       <c r="A80" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>183</v>
@@ -12389,13 +13241,13 @@
         <v>182</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>242</v>
@@ -12412,7 +13264,7 @@
     </row>
     <row r="81" spans="1:10" ht="56.25" hidden="1">
       <c r="A81" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>183</v>
@@ -12421,13 +13273,13 @@
         <v>182</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>242</v>
@@ -12444,7 +13296,7 @@
     </row>
     <row r="82" spans="1:10" ht="56.25" hidden="1">
       <c r="A82" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>183</v>
@@ -12453,13 +13305,13 @@
         <v>182</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>242</v>
@@ -12476,7 +13328,7 @@
     </row>
     <row r="83" spans="1:10" ht="56.25" hidden="1">
       <c r="A83" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>183</v>
@@ -12485,13 +13337,13 @@
         <v>182</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>242</v>
@@ -12508,7 +13360,7 @@
     </row>
     <row r="84" spans="1:10" ht="56.25" hidden="1">
       <c r="A84" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>183</v>
@@ -12517,13 +13369,13 @@
         <v>182</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>242</v>
@@ -12540,7 +13392,7 @@
     </row>
     <row r="85" spans="1:10" ht="56.25" hidden="1">
       <c r="A85" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>183</v>
@@ -12549,13 +13401,13 @@
         <v>182</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>242</v>
@@ -12572,7 +13424,7 @@
     </row>
     <row r="86" spans="1:10" ht="37.5" hidden="1">
       <c r="A86" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>183</v>
@@ -12581,13 +13433,13 @@
         <v>182</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>242</v>
@@ -12604,7 +13456,7 @@
     </row>
     <row r="87" spans="1:10" ht="56.25" hidden="1">
       <c r="A87" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>183</v>
@@ -12613,13 +13465,13 @@
         <v>182</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>242</v>
@@ -12636,7 +13488,7 @@
     </row>
     <row r="88" spans="1:10" ht="56.25" hidden="1">
       <c r="A88" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>183</v>
@@ -12645,13 +13497,13 @@
         <v>182</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>242</v>
@@ -12668,7 +13520,7 @@
     </row>
     <row r="89" spans="1:10" ht="56.25" hidden="1">
       <c r="A89" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>183</v>
@@ -12677,13 +13529,13 @@
         <v>182</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>242</v>
@@ -12700,7 +13552,7 @@
     </row>
     <row r="90" spans="1:10" ht="37.5" hidden="1">
       <c r="A90" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>183</v>
@@ -12709,13 +13561,13 @@
         <v>182</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>242</v>
@@ -12732,7 +13584,7 @@
     </row>
     <row r="91" spans="1:10" ht="37.5" hidden="1">
       <c r="A91" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>183</v>
@@ -12741,13 +13593,13 @@
         <v>182</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>242</v>
@@ -12792,7 +13644,7 @@
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="48.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38" style="27" customWidth="1"/>
+    <col min="6" max="6" width="38" style="25" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
     <col min="9" max="9" width="24.5" style="4" bestFit="1" customWidth="1"/>
@@ -12800,38 +13652,38 @@
     <col min="11" max="11" width="40.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="44" customFormat="1" ht="18">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="18">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12846,13 +13698,13 @@
         <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>412</v>
+      <c r="F2" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>242</v>
@@ -12863,11 +13715,11 @@
       <c r="I2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>681</v>
+      <c r="J2" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
@@ -12878,16 +13730,16 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>242</v>
@@ -12910,16 +13762,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>242</v>
@@ -12942,16 +13794,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>242</v>
@@ -12962,11 +13814,11 @@
       <c r="I5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="53" t="s">
-        <v>681</v>
+      <c r="J5" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.5" hidden="1">
@@ -12977,16 +13829,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>436</v>
+        <v>254</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>242</v>
@@ -13009,16 +13861,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>242</v>
@@ -13041,16 +13893,16 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>438</v>
+        <v>257</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>242</v>
@@ -13073,16 +13925,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>439</v>
+        <v>258</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>242</v>
@@ -13093,11 +13945,11 @@
       <c r="I9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>681</v>
+      <c r="J9" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="37.5" hidden="1">
@@ -13108,16 +13960,16 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>440</v>
+        <v>259</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>439</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>242</v>
@@ -13140,16 +13992,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>441</v>
+        <v>260</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>440</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>242</v>
@@ -13172,16 +14024,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>442</v>
+        <v>261</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>242</v>
@@ -13204,16 +14056,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>443</v>
+        <v>262</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>242</v>
@@ -13236,16 +14088,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>444</v>
+        <v>263</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>242</v>
@@ -13268,16 +14120,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>445</v>
+        <v>264</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>444</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>242</v>
@@ -13300,16 +14152,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>446</v>
+        <v>265</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>242</v>
@@ -13332,16 +14184,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>447</v>
+        <v>266</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>446</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>242</v>
@@ -13367,13 +14219,13 @@
         <v>164</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>242</v>
@@ -13399,13 +14251,13 @@
         <v>164</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>242</v>
@@ -13431,13 +14283,13 @@
         <v>164</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>242</v>
@@ -13463,13 +14315,13 @@
         <v>164</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>242</v>
@@ -13480,11 +14332,11 @@
       <c r="I21" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>681</v>
+      <c r="J21" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="37.5" hidden="1">
@@ -13498,13 +14350,13 @@
         <v>164</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>242</v>
@@ -13530,13 +14382,13 @@
         <v>164</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>242</v>
@@ -13553,7 +14405,7 @@
     </row>
     <row r="24" spans="1:11" ht="37.5" hidden="1">
       <c r="A24" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -13562,13 +14414,13 @@
         <v>164</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>242</v>
@@ -13585,7 +14437,7 @@
     </row>
     <row r="25" spans="1:11" ht="37.5" hidden="1">
       <c r="A25" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -13594,13 +14446,13 @@
         <v>164</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>242</v>
@@ -13617,7 +14469,7 @@
     </row>
     <row r="26" spans="1:11" ht="37.5" hidden="1">
       <c r="A26" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
@@ -13626,13 +14478,13 @@
         <v>164</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>242</v>
@@ -13649,7 +14501,7 @@
     </row>
     <row r="27" spans="1:11" ht="37.5" hidden="1">
       <c r="A27" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -13658,13 +14510,13 @@
         <v>164</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>242</v>
@@ -13681,7 +14533,7 @@
     </row>
     <row r="28" spans="1:11" ht="37.5" hidden="1">
       <c r="A28" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
@@ -13690,13 +14542,13 @@
         <v>164</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>242</v>
@@ -13713,7 +14565,7 @@
     </row>
     <row r="29" spans="1:11" ht="37.5">
       <c r="A29" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>17</v>
@@ -13722,13 +14574,13 @@
         <v>164</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>242</v>
@@ -13739,16 +14591,16 @@
       <c r="I29" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J29" s="53" t="s">
-        <v>681</v>
+      <c r="J29" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="37.5" hidden="1">
       <c r="A30" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -13757,13 +14609,13 @@
         <v>164</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>242</v>
@@ -13780,7 +14632,7 @@
     </row>
     <row r="31" spans="1:11" ht="37.5" hidden="1">
       <c r="A31" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -13789,13 +14641,13 @@
         <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>242</v>
@@ -13810,77 +14662,77 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" ht="37.5" hidden="1">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:11" s="37" customFormat="1" ht="37.5" hidden="1">
+      <c r="A32" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="32">
+        <v>45906</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" s="37" customFormat="1" ht="56.25">
+      <c r="A33" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="37" t="s">
+      <c r="B33" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D33" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="37" t="s">
+      <c r="E33" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H33" s="32">
         <v>45906</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I33" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J32" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="1:11" s="39" customFormat="1" ht="56.25">
-      <c r="A33" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>538</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" s="34">
-        <v>45906</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>681</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>542</v>
+      <c r="J33" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="56.25" hidden="1">
       <c r="A34" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>17</v>
@@ -13895,7 +14747,7 @@
         <v>175</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>242</v>
@@ -13944,8 +14796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC00FF5A-A12E-44BF-A580-758A46D27A3B}">
   <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -14005,7 +14857,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -14013,8 +14865,8 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>683</v>
+      <c r="F2" s="24" t="s">
+        <v>680</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>242</v>
@@ -14038,16 +14890,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>242</v>
@@ -14071,16 +14923,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>242</v>
@@ -14104,16 +14956,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>242</v>
@@ -14129,38 +14981,38 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="39" customFormat="1" ht="37.5">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:11" s="37" customFormat="1" ht="37.5">
+      <c r="A6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>45906</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
       <c r="K7" s="4"/>
@@ -16127,10 +16979,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
-  <dimension ref="A1:L689"/>
+  <dimension ref="A1:K689"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16145,11 +16997,10 @@
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="18">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -16179,14 +17030,11 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="37.5">
+    </row>
+    <row r="2" spans="1:11" ht="93.75">
       <c r="A2" s="21" t="s">
         <v>176</v>
       </c>
@@ -16194,27 +17042,32 @@
         <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="37.5">
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="93.75">
       <c r="A3" s="21" t="s">
         <v>215</v>
       </c>
@@ -16222,27 +17075,32 @@
         <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J3" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="37.5">
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" ht="93.75">
       <c r="A4" s="21" t="s">
         <v>216</v>
       </c>
@@ -16250,27 +17108,32 @@
         <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J4" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="37.5">
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="93.75">
       <c r="A5" s="21" t="s">
         <v>217</v>
       </c>
@@ -16278,27 +17141,32 @@
         <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J5" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="37.5">
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="93.75">
       <c r="A6" s="21" t="s">
         <v>218</v>
       </c>
@@ -16306,27 +17174,32 @@
         <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J6" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="37.5">
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="93.75">
       <c r="A7" s="21" t="s">
         <v>219</v>
       </c>
@@ -16334,27 +17207,32 @@
         <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J7" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="37.5">
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" ht="93.75">
       <c r="A8" s="21" t="s">
         <v>220</v>
       </c>
@@ -16362,27 +17240,32 @@
         <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J8" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="37.5">
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" ht="93.75">
       <c r="A9" s="21" t="s">
         <v>221</v>
       </c>
@@ -16390,27 +17273,32 @@
         <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J9" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="37.5">
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" ht="93.75">
       <c r="A10" s="21" t="s">
         <v>222</v>
       </c>
@@ -16418,27 +17306,32 @@
         <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J10" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="37.5">
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="93.75">
       <c r="A11" s="21" t="s">
         <v>232</v>
       </c>
@@ -16446,27 +17339,32 @@
         <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J11" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="37.5">
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" ht="93.75">
       <c r="A12" s="21" t="s">
         <v>233</v>
       </c>
@@ -16474,27 +17372,32 @@
         <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J12" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="37.5">
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="93.75">
       <c r="A13" s="21" t="s">
         <v>234</v>
       </c>
@@ -16502,27 +17405,32 @@
         <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J13" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="37.5">
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" ht="93.75">
       <c r="A14" s="21" t="s">
         <v>235</v>
       </c>
@@ -16530,27 +17438,32 @@
         <v>208</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J14" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="37.5">
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" ht="93.75">
       <c r="A15" s="21" t="s">
         <v>236</v>
       </c>
@@ -16558,27 +17471,32 @@
         <v>208</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J15" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="37.5">
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" ht="93.75">
       <c r="A16" s="21" t="s">
         <v>237</v>
       </c>
@@ -16586,27 +17504,32 @@
         <v>208</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J16" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="37.5">
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:11" ht="93.75">
       <c r="A17" s="21" t="s">
         <v>238</v>
       </c>
@@ -16614,27 +17537,32 @@
         <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J17" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="37.5">
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" ht="75">
       <c r="A18" s="21" t="s">
         <v>239</v>
       </c>
@@ -16642,2738 +17570,2948 @@
         <v>208</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J18" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="37.5">
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" ht="75">
       <c r="A19" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J19" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="37.5">
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" ht="75">
       <c r="A20" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J20" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="37.5">
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" ht="75">
       <c r="A21" s="21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J21" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="37.5">
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>651</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J22" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="37.5">
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" ht="75">
       <c r="A23" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J23" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="37.5">
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:11" ht="75">
       <c r="A24" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J24" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="37.5">
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" ht="75">
       <c r="A25" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J25" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="37.5">
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="1:11" ht="75">
       <c r="A26" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>671</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J26" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="37.5">
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" ht="75">
       <c r="A27" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J27" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="37.5">
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" ht="75">
       <c r="A28" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J28" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="37.5">
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:11" ht="75">
       <c r="A29" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J29" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="37.5">
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J30" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="37.5">
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="1:11" ht="75">
       <c r="A31" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J31" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="37.5">
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" ht="75">
       <c r="A32" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J32" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="37.5">
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="1:11" ht="75">
       <c r="A33" s="21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="4"/>
+        <v>566</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H33" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J33" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="37.5">
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="1:11" ht="75">
       <c r="A34" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="E34" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="I34" s="4"/>
+      <c r="F34" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J34" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="37.5">
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="1:11" ht="93.75">
       <c r="A35" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="E35" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="I35" s="4"/>
+      <c r="F35" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J35" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K35" s="51"/>
-      <c r="L35" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="37.5">
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11" ht="93.75">
       <c r="A36" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E36" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="I36" s="4"/>
+      <c r="F36" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J36" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="56.25">
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" ht="93.75">
       <c r="A37" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="E37" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="4"/>
+      <c r="F37" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J37" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K37" s="50"/>
-      <c r="L37" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="56.25">
+        <v>246</v>
+      </c>
+      <c r="K37" s="48"/>
+    </row>
+    <row r="38" spans="1:11" ht="93.75">
       <c r="A38" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="E38" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J38" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K38" s="50"/>
-      <c r="L38" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="37.5">
+        <v>246</v>
+      </c>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" ht="75">
       <c r="A39" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E39" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>210</v>
       </c>
+      <c r="F39" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J39" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K39" s="50"/>
-      <c r="L39" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="56.25">
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" ht="75">
       <c r="A40" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="E40" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>223</v>
       </c>
+      <c r="F40" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J40" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K40" s="50"/>
-      <c r="L40" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="56.25">
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" ht="75">
       <c r="A41" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="E41" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>224</v>
       </c>
+      <c r="F41" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J41" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K41" s="50"/>
-    </row>
-    <row r="42" spans="1:12" ht="37.5">
+        <v>246</v>
+      </c>
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="1:11" ht="93.75">
       <c r="A42" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E42" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>225</v>
       </c>
+      <c r="F42" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J42" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K42" s="50"/>
-      <c r="L42" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="37.5">
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" ht="93.75">
       <c r="A43" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="E43" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>226</v>
       </c>
+      <c r="F43" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J43" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K43" s="50"/>
-      <c r="L43" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="37.5">
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="1:11" ht="93.75">
       <c r="A44" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="E44" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>227</v>
       </c>
+      <c r="F44" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J44" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K44" s="50"/>
-      <c r="L44" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="37.5">
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="1:11" ht="93.75">
       <c r="A45" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="E45" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>228</v>
       </c>
+      <c r="F45" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J45" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K45" s="50"/>
-      <c r="L45" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="56.25">
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="1:11" ht="93.75">
       <c r="A46" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="E46" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>229</v>
       </c>
+      <c r="F46" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J46" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K46" s="50"/>
-    </row>
-    <row r="47" spans="1:12" ht="37.5">
+        <v>246</v>
+      </c>
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" spans="1:11" ht="93.75">
       <c r="A47" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="E47" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>230</v>
       </c>
+      <c r="F47" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J47" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K47" s="50"/>
-      <c r="L47" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="37.5">
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:11" ht="93.75">
       <c r="A48" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="E48" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>231</v>
       </c>
+      <c r="F48" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" s="5">
+        <v>45907</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="J48" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="K48" s="50"/>
-      <c r="L48" s="8" t="s">
         <v>246</v>
       </c>
+      <c r="K48" s="48"/>
     </row>
     <row r="49" spans="4:11">
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="K49" s="50"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="J49" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" s="48"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="K50" s="50"/>
+      <c r="K50" s="48"/>
     </row>
     <row r="51" spans="4:11">
-      <c r="K51" s="50"/>
+      <c r="K51" s="48"/>
     </row>
     <row r="52" spans="4:11">
-      <c r="K52" s="50"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="4:11">
-      <c r="K53" s="50"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" spans="4:11">
-      <c r="K54" s="50"/>
+      <c r="K54" s="48"/>
     </row>
     <row r="55" spans="4:11">
-      <c r="K55" s="50"/>
+      <c r="K55" s="48"/>
     </row>
     <row r="56" spans="4:11">
-      <c r="K56" s="50"/>
+      <c r="K56" s="48"/>
     </row>
     <row r="57" spans="4:11">
-      <c r="K57" s="50"/>
+      <c r="K57" s="48"/>
     </row>
     <row r="58" spans="4:11">
-      <c r="K58" s="50"/>
+      <c r="K58" s="48"/>
     </row>
     <row r="59" spans="4:11">
-      <c r="K59" s="50"/>
+      <c r="K59" s="48"/>
     </row>
     <row r="60" spans="4:11">
-      <c r="K60" s="50"/>
+      <c r="K60" s="48"/>
     </row>
     <row r="61" spans="4:11">
-      <c r="K61" s="50"/>
+      <c r="K61" s="48"/>
     </row>
     <row r="62" spans="4:11">
-      <c r="K62" s="50"/>
+      <c r="K62" s="48"/>
     </row>
     <row r="63" spans="4:11">
-      <c r="K63" s="50"/>
+      <c r="K63" s="48"/>
     </row>
     <row r="64" spans="4:11">
-      <c r="K64" s="50"/>
+      <c r="K64" s="48"/>
     </row>
     <row r="65" spans="11:11">
-      <c r="K65" s="50"/>
+      <c r="K65" s="48"/>
     </row>
     <row r="66" spans="11:11">
-      <c r="K66" s="50"/>
+      <c r="K66" s="48"/>
     </row>
     <row r="67" spans="11:11">
-      <c r="K67" s="50"/>
+      <c r="K67" s="48"/>
     </row>
     <row r="68" spans="11:11">
-      <c r="K68" s="50"/>
+      <c r="K68" s="48"/>
     </row>
     <row r="69" spans="11:11">
-      <c r="K69" s="50"/>
+      <c r="K69" s="48"/>
     </row>
     <row r="70" spans="11:11">
-      <c r="K70" s="50"/>
+      <c r="K70" s="48"/>
     </row>
     <row r="71" spans="11:11">
-      <c r="K71" s="50"/>
+      <c r="K71" s="48"/>
     </row>
     <row r="72" spans="11:11">
-      <c r="K72" s="50"/>
+      <c r="K72" s="48"/>
     </row>
     <row r="73" spans="11:11">
-      <c r="K73" s="50"/>
+      <c r="K73" s="48"/>
     </row>
     <row r="74" spans="11:11">
-      <c r="K74" s="50"/>
+      <c r="K74" s="48"/>
     </row>
     <row r="75" spans="11:11">
-      <c r="K75" s="50"/>
+      <c r="K75" s="48"/>
     </row>
     <row r="76" spans="11:11">
-      <c r="K76" s="50"/>
+      <c r="K76" s="48"/>
     </row>
     <row r="77" spans="11:11">
-      <c r="K77" s="50"/>
+      <c r="K77" s="48"/>
     </row>
     <row r="78" spans="11:11">
-      <c r="K78" s="50"/>
+      <c r="K78" s="48"/>
     </row>
     <row r="79" spans="11:11">
-      <c r="K79" s="50"/>
+      <c r="K79" s="48"/>
     </row>
     <row r="80" spans="11:11">
-      <c r="K80" s="50"/>
+      <c r="K80" s="48"/>
     </row>
     <row r="81" spans="11:11">
-      <c r="K81" s="50"/>
+      <c r="K81" s="48"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="50"/>
+      <c r="K82" s="48"/>
     </row>
     <row r="83" spans="11:11">
-      <c r="K83" s="50"/>
+      <c r="K83" s="48"/>
     </row>
     <row r="84" spans="11:11">
-      <c r="K84" s="50"/>
+      <c r="K84" s="48"/>
     </row>
     <row r="85" spans="11:11">
-      <c r="K85" s="50"/>
+      <c r="K85" s="48"/>
     </row>
     <row r="86" spans="11:11">
-      <c r="K86" s="50"/>
+      <c r="K86" s="48"/>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" s="50"/>
+      <c r="K87" s="48"/>
     </row>
     <row r="88" spans="11:11">
-      <c r="K88" s="50"/>
+      <c r="K88" s="48"/>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="50"/>
+      <c r="K89" s="48"/>
     </row>
     <row r="90" spans="11:11">
-      <c r="K90" s="50"/>
+      <c r="K90" s="48"/>
     </row>
     <row r="91" spans="11:11">
-      <c r="K91" s="50"/>
+      <c r="K91" s="48"/>
     </row>
     <row r="92" spans="11:11">
-      <c r="K92" s="50"/>
+      <c r="K92" s="48"/>
     </row>
     <row r="93" spans="11:11">
-      <c r="K93" s="50"/>
+      <c r="K93" s="48"/>
     </row>
     <row r="94" spans="11:11">
-      <c r="K94" s="50"/>
+      <c r="K94" s="48"/>
     </row>
     <row r="95" spans="11:11">
-      <c r="K95" s="50"/>
+      <c r="K95" s="48"/>
     </row>
     <row r="96" spans="11:11">
-      <c r="K96" s="50"/>
+      <c r="K96" s="48"/>
     </row>
     <row r="97" spans="11:11">
-      <c r="K97" s="50"/>
+      <c r="K97" s="48"/>
     </row>
     <row r="98" spans="11:11">
-      <c r="K98" s="50"/>
+      <c r="K98" s="48"/>
     </row>
     <row r="99" spans="11:11">
-      <c r="K99" s="50"/>
+      <c r="K99" s="48"/>
     </row>
     <row r="100" spans="11:11">
-      <c r="K100" s="50"/>
+      <c r="K100" s="48"/>
     </row>
     <row r="101" spans="11:11">
-      <c r="K101" s="50"/>
+      <c r="K101" s="48"/>
     </row>
     <row r="102" spans="11:11">
-      <c r="K102" s="50"/>
+      <c r="K102" s="48"/>
     </row>
     <row r="103" spans="11:11">
-      <c r="K103" s="50"/>
+      <c r="K103" s="48"/>
     </row>
     <row r="104" spans="11:11">
-      <c r="K104" s="50"/>
+      <c r="K104" s="48"/>
     </row>
     <row r="105" spans="11:11">
-      <c r="K105" s="50"/>
+      <c r="K105" s="48"/>
     </row>
     <row r="106" spans="11:11">
-      <c r="K106" s="50"/>
+      <c r="K106" s="48"/>
     </row>
     <row r="107" spans="11:11">
-      <c r="K107" s="50"/>
+      <c r="K107" s="48"/>
     </row>
     <row r="108" spans="11:11">
-      <c r="K108" s="50"/>
+      <c r="K108" s="48"/>
     </row>
     <row r="109" spans="11:11">
-      <c r="K109" s="50"/>
+      <c r="K109" s="48"/>
     </row>
     <row r="110" spans="11:11">
-      <c r="K110" s="50"/>
+      <c r="K110" s="48"/>
     </row>
     <row r="111" spans="11:11">
-      <c r="K111" s="50"/>
+      <c r="K111" s="48"/>
     </row>
     <row r="112" spans="11:11">
-      <c r="K112" s="50"/>
+      <c r="K112" s="48"/>
     </row>
     <row r="113" spans="11:11">
-      <c r="K113" s="50"/>
+      <c r="K113" s="48"/>
     </row>
     <row r="114" spans="11:11">
-      <c r="K114" s="50"/>
+      <c r="K114" s="48"/>
     </row>
     <row r="115" spans="11:11">
-      <c r="K115" s="50"/>
+      <c r="K115" s="48"/>
     </row>
     <row r="116" spans="11:11">
-      <c r="K116" s="50"/>
+      <c r="K116" s="48"/>
     </row>
     <row r="117" spans="11:11">
-      <c r="K117" s="50"/>
+      <c r="K117" s="48"/>
     </row>
     <row r="118" spans="11:11">
-      <c r="K118" s="50"/>
+      <c r="K118" s="48"/>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" s="50"/>
+      <c r="K119" s="48"/>
     </row>
     <row r="120" spans="11:11">
-      <c r="K120" s="50"/>
+      <c r="K120" s="48"/>
     </row>
     <row r="121" spans="11:11">
-      <c r="K121" s="50"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122" spans="11:11">
-      <c r="K122" s="50"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="11:11">
-      <c r="K123" s="50"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124" spans="11:11">
-      <c r="K124" s="50"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125" spans="11:11">
-      <c r="K125" s="50"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126" spans="11:11">
-      <c r="K126" s="50"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="11:11">
-      <c r="K127" s="50"/>
+      <c r="K127" s="48"/>
     </row>
     <row r="128" spans="11:11">
-      <c r="K128" s="50"/>
+      <c r="K128" s="48"/>
     </row>
     <row r="129" spans="11:11">
-      <c r="K129" s="50"/>
+      <c r="K129" s="48"/>
     </row>
     <row r="130" spans="11:11">
-      <c r="K130" s="50"/>
+      <c r="K130" s="48"/>
     </row>
     <row r="131" spans="11:11">
-      <c r="K131" s="50"/>
+      <c r="K131" s="48"/>
     </row>
     <row r="132" spans="11:11">
-      <c r="K132" s="50"/>
+      <c r="K132" s="48"/>
     </row>
     <row r="133" spans="11:11">
-      <c r="K133" s="50"/>
+      <c r="K133" s="48"/>
     </row>
     <row r="134" spans="11:11">
-      <c r="K134" s="50"/>
+      <c r="K134" s="48"/>
     </row>
     <row r="135" spans="11:11">
-      <c r="K135" s="50"/>
+      <c r="K135" s="48"/>
     </row>
     <row r="136" spans="11:11">
-      <c r="K136" s="50"/>
+      <c r="K136" s="48"/>
     </row>
     <row r="137" spans="11:11">
-      <c r="K137" s="50"/>
+      <c r="K137" s="48"/>
     </row>
     <row r="138" spans="11:11">
-      <c r="K138" s="50"/>
+      <c r="K138" s="48"/>
     </row>
     <row r="139" spans="11:11">
-      <c r="K139" s="50"/>
+      <c r="K139" s="48"/>
     </row>
     <row r="140" spans="11:11">
-      <c r="K140" s="50"/>
+      <c r="K140" s="48"/>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="50"/>
+      <c r="K141" s="48"/>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="50"/>
+      <c r="K142" s="48"/>
     </row>
     <row r="143" spans="11:11">
-      <c r="K143" s="50"/>
+      <c r="K143" s="48"/>
     </row>
     <row r="144" spans="11:11">
-      <c r="K144" s="50"/>
+      <c r="K144" s="48"/>
     </row>
     <row r="145" spans="11:11">
-      <c r="K145" s="50"/>
+      <c r="K145" s="48"/>
     </row>
     <row r="146" spans="11:11">
-      <c r="K146" s="50"/>
+      <c r="K146" s="48"/>
     </row>
     <row r="147" spans="11:11">
-      <c r="K147" s="50"/>
+      <c r="K147" s="48"/>
     </row>
     <row r="148" spans="11:11">
-      <c r="K148" s="50"/>
+      <c r="K148" s="48"/>
     </row>
     <row r="149" spans="11:11">
-      <c r="K149" s="50"/>
+      <c r="K149" s="48"/>
     </row>
     <row r="150" spans="11:11">
-      <c r="K150" s="50"/>
+      <c r="K150" s="48"/>
     </row>
     <row r="151" spans="11:11">
-      <c r="K151" s="50"/>
+      <c r="K151" s="48"/>
     </row>
     <row r="152" spans="11:11">
-      <c r="K152" s="50"/>
+      <c r="K152" s="48"/>
     </row>
     <row r="153" spans="11:11">
-      <c r="K153" s="50"/>
+      <c r="K153" s="48"/>
     </row>
     <row r="154" spans="11:11">
-      <c r="K154" s="50"/>
+      <c r="K154" s="48"/>
     </row>
     <row r="155" spans="11:11">
-      <c r="K155" s="50"/>
+      <c r="K155" s="48"/>
     </row>
     <row r="156" spans="11:11">
-      <c r="K156" s="50"/>
+      <c r="K156" s="48"/>
     </row>
     <row r="157" spans="11:11">
-      <c r="K157" s="50"/>
+      <c r="K157" s="48"/>
     </row>
     <row r="158" spans="11:11">
-      <c r="K158" s="50"/>
+      <c r="K158" s="48"/>
     </row>
     <row r="159" spans="11:11">
-      <c r="K159" s="50"/>
+      <c r="K159" s="48"/>
     </row>
     <row r="160" spans="11:11">
-      <c r="K160" s="50"/>
+      <c r="K160" s="48"/>
     </row>
     <row r="161" spans="11:11">
-      <c r="K161" s="50"/>
+      <c r="K161" s="48"/>
     </row>
     <row r="162" spans="11:11">
-      <c r="K162" s="50"/>
+      <c r="K162" s="48"/>
     </row>
     <row r="163" spans="11:11">
-      <c r="K163" s="50"/>
+      <c r="K163" s="48"/>
     </row>
     <row r="164" spans="11:11">
-      <c r="K164" s="50"/>
+      <c r="K164" s="48"/>
     </row>
     <row r="165" spans="11:11">
-      <c r="K165" s="50"/>
+      <c r="K165" s="48"/>
     </row>
     <row r="166" spans="11:11">
-      <c r="K166" s="50"/>
+      <c r="K166" s="48"/>
     </row>
     <row r="167" spans="11:11">
-      <c r="K167" s="50"/>
+      <c r="K167" s="48"/>
     </row>
     <row r="168" spans="11:11">
-      <c r="K168" s="50"/>
+      <c r="K168" s="48"/>
     </row>
     <row r="169" spans="11:11">
-      <c r="K169" s="50"/>
+      <c r="K169" s="48"/>
     </row>
     <row r="170" spans="11:11">
-      <c r="K170" s="50"/>
+      <c r="K170" s="48"/>
     </row>
     <row r="171" spans="11:11">
-      <c r="K171" s="50"/>
+      <c r="K171" s="48"/>
     </row>
     <row r="172" spans="11:11">
-      <c r="K172" s="50"/>
+      <c r="K172" s="48"/>
     </row>
     <row r="173" spans="11:11">
-      <c r="K173" s="50"/>
+      <c r="K173" s="48"/>
     </row>
     <row r="174" spans="11:11">
-      <c r="K174" s="50"/>
+      <c r="K174" s="48"/>
     </row>
     <row r="175" spans="11:11">
-      <c r="K175" s="50"/>
+      <c r="K175" s="48"/>
     </row>
     <row r="176" spans="11:11">
-      <c r="K176" s="50"/>
+      <c r="K176" s="48"/>
     </row>
     <row r="177" spans="11:11">
-      <c r="K177" s="50"/>
+      <c r="K177" s="48"/>
     </row>
     <row r="178" spans="11:11">
-      <c r="K178" s="50"/>
+      <c r="K178" s="48"/>
     </row>
     <row r="179" spans="11:11">
-      <c r="K179" s="50"/>
+      <c r="K179" s="48"/>
     </row>
     <row r="180" spans="11:11">
-      <c r="K180" s="50"/>
+      <c r="K180" s="48"/>
     </row>
     <row r="181" spans="11:11">
-      <c r="K181" s="50"/>
+      <c r="K181" s="48"/>
     </row>
     <row r="182" spans="11:11">
-      <c r="K182" s="50"/>
+      <c r="K182" s="48"/>
     </row>
     <row r="183" spans="11:11">
-      <c r="K183" s="50"/>
+      <c r="K183" s="48"/>
     </row>
     <row r="184" spans="11:11">
-      <c r="K184" s="50"/>
+      <c r="K184" s="48"/>
     </row>
     <row r="185" spans="11:11">
-      <c r="K185" s="50"/>
+      <c r="K185" s="48"/>
     </row>
     <row r="186" spans="11:11">
-      <c r="K186" s="50"/>
+      <c r="K186" s="48"/>
     </row>
     <row r="187" spans="11:11">
-      <c r="K187" s="50"/>
+      <c r="K187" s="48"/>
     </row>
     <row r="188" spans="11:11">
-      <c r="K188" s="50"/>
+      <c r="K188" s="48"/>
     </row>
     <row r="189" spans="11:11">
-      <c r="K189" s="50"/>
+      <c r="K189" s="48"/>
     </row>
     <row r="190" spans="11:11">
-      <c r="K190" s="50"/>
+      <c r="K190" s="48"/>
     </row>
     <row r="191" spans="11:11">
-      <c r="K191" s="50"/>
+      <c r="K191" s="48"/>
     </row>
     <row r="192" spans="11:11">
-      <c r="K192" s="50"/>
+      <c r="K192" s="48"/>
     </row>
     <row r="193" spans="11:11">
-      <c r="K193" s="50"/>
+      <c r="K193" s="48"/>
     </row>
     <row r="194" spans="11:11">
-      <c r="K194" s="50"/>
+      <c r="K194" s="48"/>
     </row>
     <row r="195" spans="11:11">
-      <c r="K195" s="50"/>
+      <c r="K195" s="48"/>
     </row>
     <row r="196" spans="11:11">
-      <c r="K196" s="50"/>
+      <c r="K196" s="48"/>
     </row>
     <row r="197" spans="11:11">
-      <c r="K197" s="50"/>
+      <c r="K197" s="48"/>
     </row>
     <row r="198" spans="11:11">
-      <c r="K198" s="50"/>
+      <c r="K198" s="48"/>
     </row>
     <row r="199" spans="11:11">
-      <c r="K199" s="50"/>
+      <c r="K199" s="48"/>
     </row>
     <row r="200" spans="11:11">
-      <c r="K200" s="50"/>
+      <c r="K200" s="48"/>
     </row>
     <row r="201" spans="11:11">
-      <c r="K201" s="50"/>
+      <c r="K201" s="48"/>
     </row>
     <row r="202" spans="11:11">
-      <c r="K202" s="50"/>
+      <c r="K202" s="48"/>
     </row>
     <row r="203" spans="11:11">
-      <c r="K203" s="50"/>
+      <c r="K203" s="48"/>
     </row>
     <row r="204" spans="11:11">
-      <c r="K204" s="50"/>
+      <c r="K204" s="48"/>
     </row>
     <row r="205" spans="11:11">
-      <c r="K205" s="50"/>
+      <c r="K205" s="48"/>
     </row>
     <row r="206" spans="11:11">
-      <c r="K206" s="50"/>
+      <c r="K206" s="48"/>
     </row>
     <row r="207" spans="11:11">
-      <c r="K207" s="50"/>
+      <c r="K207" s="48"/>
     </row>
     <row r="208" spans="11:11">
-      <c r="K208" s="50"/>
+      <c r="K208" s="48"/>
     </row>
     <row r="209" spans="11:11">
-      <c r="K209" s="50"/>
+      <c r="K209" s="48"/>
     </row>
     <row r="210" spans="11:11">
-      <c r="K210" s="50"/>
+      <c r="K210" s="48"/>
     </row>
     <row r="211" spans="11:11">
-      <c r="K211" s="50"/>
+      <c r="K211" s="48"/>
     </row>
     <row r="212" spans="11:11">
-      <c r="K212" s="50"/>
+      <c r="K212" s="48"/>
     </row>
     <row r="213" spans="11:11">
-      <c r="K213" s="50"/>
+      <c r="K213" s="48"/>
     </row>
     <row r="214" spans="11:11">
-      <c r="K214" s="50"/>
+      <c r="K214" s="48"/>
     </row>
     <row r="215" spans="11:11">
-      <c r="K215" s="50"/>
+      <c r="K215" s="48"/>
     </row>
     <row r="216" spans="11:11">
-      <c r="K216" s="50"/>
+      <c r="K216" s="48"/>
     </row>
     <row r="217" spans="11:11">
-      <c r="K217" s="50"/>
+      <c r="K217" s="48"/>
     </row>
     <row r="218" spans="11:11">
-      <c r="K218" s="50"/>
+      <c r="K218" s="48"/>
     </row>
     <row r="219" spans="11:11">
-      <c r="K219" s="50"/>
+      <c r="K219" s="48"/>
     </row>
     <row r="220" spans="11:11">
-      <c r="K220" s="50"/>
+      <c r="K220" s="48"/>
     </row>
     <row r="221" spans="11:11">
-      <c r="K221" s="50"/>
+      <c r="K221" s="48"/>
     </row>
     <row r="222" spans="11:11">
-      <c r="K222" s="50"/>
+      <c r="K222" s="48"/>
     </row>
     <row r="223" spans="11:11">
-      <c r="K223" s="50"/>
+      <c r="K223" s="48"/>
     </row>
     <row r="224" spans="11:11">
-      <c r="K224" s="50"/>
+      <c r="K224" s="48"/>
     </row>
     <row r="225" spans="11:11">
-      <c r="K225" s="50"/>
+      <c r="K225" s="48"/>
     </row>
     <row r="226" spans="11:11">
-      <c r="K226" s="50"/>
+      <c r="K226" s="48"/>
     </row>
     <row r="227" spans="11:11">
-      <c r="K227" s="50"/>
+      <c r="K227" s="48"/>
     </row>
     <row r="228" spans="11:11">
-      <c r="K228" s="50"/>
+      <c r="K228" s="48"/>
     </row>
     <row r="229" spans="11:11">
-      <c r="K229" s="50"/>
+      <c r="K229" s="48"/>
     </row>
     <row r="230" spans="11:11">
-      <c r="K230" s="50"/>
+      <c r="K230" s="48"/>
     </row>
     <row r="231" spans="11:11">
-      <c r="K231" s="50"/>
+      <c r="K231" s="48"/>
     </row>
     <row r="232" spans="11:11">
-      <c r="K232" s="50"/>
+      <c r="K232" s="48"/>
     </row>
     <row r="233" spans="11:11">
-      <c r="K233" s="50"/>
+      <c r="K233" s="48"/>
     </row>
     <row r="234" spans="11:11">
-      <c r="K234" s="50"/>
+      <c r="K234" s="48"/>
     </row>
     <row r="235" spans="11:11">
-      <c r="K235" s="50"/>
+      <c r="K235" s="48"/>
     </row>
     <row r="236" spans="11:11">
-      <c r="K236" s="50"/>
+      <c r="K236" s="48"/>
     </row>
     <row r="237" spans="11:11">
-      <c r="K237" s="50"/>
+      <c r="K237" s="48"/>
     </row>
     <row r="238" spans="11:11">
-      <c r="K238" s="50"/>
+      <c r="K238" s="48"/>
     </row>
     <row r="239" spans="11:11">
-      <c r="K239" s="50"/>
+      <c r="K239" s="48"/>
     </row>
     <row r="240" spans="11:11">
-      <c r="K240" s="50"/>
+      <c r="K240" s="48"/>
     </row>
     <row r="241" spans="11:11">
-      <c r="K241" s="50"/>
+      <c r="K241" s="48"/>
     </row>
     <row r="242" spans="11:11">
-      <c r="K242" s="50"/>
+      <c r="K242" s="48"/>
     </row>
     <row r="243" spans="11:11">
-      <c r="K243" s="50"/>
+      <c r="K243" s="48"/>
     </row>
     <row r="244" spans="11:11">
-      <c r="K244" s="50"/>
+      <c r="K244" s="48"/>
     </row>
     <row r="245" spans="11:11">
-      <c r="K245" s="50"/>
+      <c r="K245" s="48"/>
     </row>
     <row r="246" spans="11:11">
-      <c r="K246" s="50"/>
+      <c r="K246" s="48"/>
     </row>
     <row r="247" spans="11:11">
-      <c r="K247" s="50"/>
+      <c r="K247" s="48"/>
     </row>
     <row r="248" spans="11:11">
-      <c r="K248" s="50"/>
+      <c r="K248" s="48"/>
     </row>
     <row r="249" spans="11:11">
-      <c r="K249" s="50"/>
+      <c r="K249" s="48"/>
     </row>
     <row r="250" spans="11:11">
-      <c r="K250" s="50"/>
+      <c r="K250" s="48"/>
     </row>
     <row r="251" spans="11:11">
-      <c r="K251" s="50"/>
+      <c r="K251" s="48"/>
     </row>
     <row r="252" spans="11:11">
-      <c r="K252" s="50"/>
+      <c r="K252" s="48"/>
     </row>
     <row r="253" spans="11:11">
-      <c r="K253" s="50"/>
+      <c r="K253" s="48"/>
     </row>
     <row r="254" spans="11:11">
-      <c r="K254" s="50"/>
+      <c r="K254" s="48"/>
     </row>
     <row r="255" spans="11:11">
-      <c r="K255" s="50"/>
+      <c r="K255" s="48"/>
     </row>
     <row r="256" spans="11:11">
-      <c r="K256" s="50"/>
+      <c r="K256" s="48"/>
     </row>
     <row r="257" spans="11:11">
-      <c r="K257" s="50"/>
+      <c r="K257" s="48"/>
     </row>
     <row r="258" spans="11:11">
-      <c r="K258" s="50"/>
+      <c r="K258" s="48"/>
     </row>
     <row r="259" spans="11:11">
-      <c r="K259" s="50"/>
+      <c r="K259" s="48"/>
     </row>
     <row r="260" spans="11:11">
-      <c r="K260" s="50"/>
+      <c r="K260" s="48"/>
     </row>
     <row r="261" spans="11:11">
-      <c r="K261" s="50"/>
+      <c r="K261" s="48"/>
     </row>
     <row r="262" spans="11:11">
-      <c r="K262" s="50"/>
+      <c r="K262" s="48"/>
     </row>
     <row r="263" spans="11:11">
-      <c r="K263" s="50"/>
+      <c r="K263" s="48"/>
     </row>
     <row r="264" spans="11:11">
-      <c r="K264" s="50"/>
+      <c r="K264" s="48"/>
     </row>
     <row r="265" spans="11:11">
-      <c r="K265" s="50"/>
+      <c r="K265" s="48"/>
     </row>
     <row r="266" spans="11:11">
-      <c r="K266" s="50"/>
+      <c r="K266" s="48"/>
     </row>
     <row r="267" spans="11:11">
-      <c r="K267" s="50"/>
+      <c r="K267" s="48"/>
     </row>
     <row r="268" spans="11:11">
-      <c r="K268" s="50"/>
+      <c r="K268" s="48"/>
     </row>
     <row r="269" spans="11:11">
-      <c r="K269" s="50"/>
+      <c r="K269" s="48"/>
     </row>
     <row r="270" spans="11:11">
-      <c r="K270" s="50"/>
+      <c r="K270" s="48"/>
     </row>
     <row r="271" spans="11:11">
-      <c r="K271" s="50"/>
+      <c r="K271" s="48"/>
     </row>
     <row r="272" spans="11:11">
-      <c r="K272" s="50"/>
+      <c r="K272" s="48"/>
     </row>
     <row r="273" spans="11:11">
-      <c r="K273" s="50"/>
+      <c r="K273" s="48"/>
     </row>
     <row r="274" spans="11:11">
-      <c r="K274" s="50"/>
+      <c r="K274" s="48"/>
     </row>
     <row r="275" spans="11:11">
-      <c r="K275" s="50"/>
+      <c r="K275" s="48"/>
     </row>
     <row r="276" spans="11:11">
-      <c r="K276" s="50"/>
+      <c r="K276" s="48"/>
     </row>
     <row r="277" spans="11:11">
-      <c r="K277" s="50"/>
+      <c r="K277" s="48"/>
     </row>
     <row r="278" spans="11:11">
-      <c r="K278" s="50"/>
+      <c r="K278" s="48"/>
     </row>
     <row r="279" spans="11:11">
-      <c r="K279" s="50"/>
+      <c r="K279" s="48"/>
     </row>
     <row r="280" spans="11:11">
-      <c r="K280" s="50"/>
+      <c r="K280" s="48"/>
     </row>
     <row r="281" spans="11:11">
-      <c r="K281" s="50"/>
+      <c r="K281" s="48"/>
     </row>
     <row r="282" spans="11:11">
-      <c r="K282" s="50"/>
+      <c r="K282" s="48"/>
     </row>
     <row r="283" spans="11:11">
-      <c r="K283" s="50"/>
+      <c r="K283" s="48"/>
     </row>
     <row r="284" spans="11:11">
-      <c r="K284" s="50"/>
+      <c r="K284" s="48"/>
     </row>
     <row r="285" spans="11:11">
-      <c r="K285" s="50"/>
+      <c r="K285" s="48"/>
     </row>
     <row r="286" spans="11:11">
-      <c r="K286" s="50"/>
+      <c r="K286" s="48"/>
     </row>
     <row r="287" spans="11:11">
-      <c r="K287" s="50"/>
+      <c r="K287" s="48"/>
     </row>
     <row r="288" spans="11:11">
-      <c r="K288" s="50"/>
+      <c r="K288" s="48"/>
     </row>
     <row r="289" spans="11:11">
-      <c r="K289" s="50"/>
+      <c r="K289" s="48"/>
     </row>
     <row r="290" spans="11:11">
-      <c r="K290" s="50"/>
+      <c r="K290" s="48"/>
     </row>
     <row r="291" spans="11:11">
-      <c r="K291" s="50"/>
+      <c r="K291" s="48"/>
     </row>
     <row r="292" spans="11:11">
-      <c r="K292" s="50"/>
+      <c r="K292" s="48"/>
     </row>
     <row r="293" spans="11:11">
-      <c r="K293" s="50"/>
+      <c r="K293" s="48"/>
     </row>
     <row r="294" spans="11:11">
-      <c r="K294" s="50"/>
+      <c r="K294" s="48"/>
     </row>
     <row r="295" spans="11:11">
-      <c r="K295" s="50"/>
+      <c r="K295" s="48"/>
     </row>
     <row r="296" spans="11:11">
-      <c r="K296" s="50"/>
+      <c r="K296" s="48"/>
     </row>
     <row r="297" spans="11:11">
-      <c r="K297" s="50"/>
+      <c r="K297" s="48"/>
     </row>
     <row r="298" spans="11:11">
-      <c r="K298" s="50"/>
+      <c r="K298" s="48"/>
     </row>
     <row r="299" spans="11:11">
-      <c r="K299" s="50"/>
+      <c r="K299" s="48"/>
     </row>
     <row r="300" spans="11:11">
-      <c r="K300" s="50"/>
+      <c r="K300" s="48"/>
     </row>
     <row r="301" spans="11:11">
-      <c r="K301" s="50"/>
+      <c r="K301" s="48"/>
     </row>
     <row r="302" spans="11:11">
-      <c r="K302" s="50"/>
+      <c r="K302" s="48"/>
     </row>
     <row r="303" spans="11:11">
-      <c r="K303" s="50"/>
+      <c r="K303" s="48"/>
     </row>
     <row r="304" spans="11:11">
-      <c r="K304" s="50"/>
+      <c r="K304" s="48"/>
     </row>
     <row r="305" spans="11:11">
-      <c r="K305" s="50"/>
+      <c r="K305" s="48"/>
     </row>
     <row r="306" spans="11:11">
-      <c r="K306" s="50"/>
+      <c r="K306" s="48"/>
     </row>
     <row r="307" spans="11:11">
-      <c r="K307" s="50"/>
+      <c r="K307" s="48"/>
     </row>
     <row r="308" spans="11:11">
-      <c r="K308" s="50"/>
+      <c r="K308" s="48"/>
     </row>
     <row r="309" spans="11:11">
-      <c r="K309" s="50"/>
+      <c r="K309" s="48"/>
     </row>
     <row r="310" spans="11:11">
-      <c r="K310" s="50"/>
+      <c r="K310" s="48"/>
     </row>
     <row r="311" spans="11:11">
-      <c r="K311" s="50"/>
+      <c r="K311" s="48"/>
     </row>
     <row r="312" spans="11:11">
-      <c r="K312" s="50"/>
+      <c r="K312" s="48"/>
     </row>
     <row r="313" spans="11:11">
-      <c r="K313" s="50"/>
+      <c r="K313" s="48"/>
     </row>
     <row r="314" spans="11:11">
-      <c r="K314" s="50"/>
+      <c r="K314" s="48"/>
     </row>
     <row r="315" spans="11:11">
-      <c r="K315" s="50"/>
+      <c r="K315" s="48"/>
     </row>
     <row r="316" spans="11:11">
-      <c r="K316" s="50"/>
+      <c r="K316" s="48"/>
     </row>
     <row r="317" spans="11:11">
-      <c r="K317" s="50"/>
+      <c r="K317" s="48"/>
     </row>
     <row r="318" spans="11:11">
-      <c r="K318" s="50"/>
+      <c r="K318" s="48"/>
     </row>
     <row r="319" spans="11:11">
-      <c r="K319" s="50"/>
+      <c r="K319" s="48"/>
     </row>
     <row r="320" spans="11:11">
-      <c r="K320" s="50"/>
+      <c r="K320" s="48"/>
     </row>
     <row r="321" spans="11:11">
-      <c r="K321" s="50"/>
+      <c r="K321" s="48"/>
     </row>
     <row r="322" spans="11:11">
-      <c r="K322" s="50"/>
+      <c r="K322" s="48"/>
     </row>
     <row r="323" spans="11:11">
-      <c r="K323" s="50"/>
+      <c r="K323" s="48"/>
     </row>
     <row r="324" spans="11:11">
-      <c r="K324" s="50"/>
+      <c r="K324" s="48"/>
     </row>
     <row r="325" spans="11:11">
-      <c r="K325" s="50"/>
+      <c r="K325" s="48"/>
     </row>
     <row r="326" spans="11:11">
-      <c r="K326" s="50"/>
+      <c r="K326" s="48"/>
     </row>
     <row r="327" spans="11:11">
-      <c r="K327" s="50"/>
+      <c r="K327" s="48"/>
     </row>
     <row r="328" spans="11:11">
-      <c r="K328" s="50"/>
+      <c r="K328" s="48"/>
     </row>
     <row r="329" spans="11:11">
-      <c r="K329" s="50"/>
+      <c r="K329" s="48"/>
     </row>
     <row r="330" spans="11:11">
-      <c r="K330" s="50"/>
+      <c r="K330" s="48"/>
     </row>
     <row r="331" spans="11:11">
-      <c r="K331" s="50"/>
+      <c r="K331" s="48"/>
     </row>
     <row r="332" spans="11:11">
-      <c r="K332" s="50"/>
+      <c r="K332" s="48"/>
     </row>
     <row r="333" spans="11:11">
-      <c r="K333" s="50"/>
+      <c r="K333" s="48"/>
     </row>
     <row r="334" spans="11:11">
-      <c r="K334" s="50"/>
+      <c r="K334" s="48"/>
     </row>
     <row r="335" spans="11:11">
-      <c r="K335" s="50"/>
+      <c r="K335" s="48"/>
     </row>
     <row r="336" spans="11:11">
-      <c r="K336" s="50"/>
+      <c r="K336" s="48"/>
     </row>
     <row r="337" spans="11:11">
-      <c r="K337" s="50"/>
+      <c r="K337" s="48"/>
     </row>
     <row r="338" spans="11:11">
-      <c r="K338" s="50"/>
+      <c r="K338" s="48"/>
     </row>
     <row r="339" spans="11:11">
-      <c r="K339" s="50"/>
+      <c r="K339" s="48"/>
     </row>
     <row r="340" spans="11:11">
-      <c r="K340" s="50"/>
+      <c r="K340" s="48"/>
     </row>
     <row r="341" spans="11:11">
-      <c r="K341" s="50"/>
+      <c r="K341" s="48"/>
     </row>
     <row r="342" spans="11:11">
-      <c r="K342" s="50"/>
+      <c r="K342" s="48"/>
     </row>
     <row r="343" spans="11:11">
-      <c r="K343" s="50"/>
+      <c r="K343" s="48"/>
     </row>
     <row r="344" spans="11:11">
-      <c r="K344" s="50"/>
+      <c r="K344" s="48"/>
     </row>
     <row r="345" spans="11:11">
-      <c r="K345" s="50"/>
+      <c r="K345" s="48"/>
     </row>
     <row r="346" spans="11:11">
-      <c r="K346" s="50"/>
+      <c r="K346" s="48"/>
     </row>
     <row r="347" spans="11:11">
-      <c r="K347" s="50"/>
+      <c r="K347" s="48"/>
     </row>
     <row r="348" spans="11:11">
-      <c r="K348" s="50"/>
+      <c r="K348" s="48"/>
     </row>
     <row r="349" spans="11:11">
-      <c r="K349" s="50"/>
+      <c r="K349" s="48"/>
     </row>
     <row r="350" spans="11:11">
-      <c r="K350" s="50"/>
+      <c r="K350" s="48"/>
     </row>
     <row r="351" spans="11:11">
-      <c r="K351" s="50"/>
+      <c r="K351" s="48"/>
     </row>
     <row r="352" spans="11:11">
-      <c r="K352" s="50"/>
+      <c r="K352" s="48"/>
     </row>
     <row r="353" spans="11:11">
-      <c r="K353" s="50"/>
+      <c r="K353" s="48"/>
     </row>
     <row r="354" spans="11:11">
-      <c r="K354" s="50"/>
+      <c r="K354" s="48"/>
     </row>
     <row r="355" spans="11:11">
-      <c r="K355" s="50"/>
+      <c r="K355" s="48"/>
     </row>
     <row r="356" spans="11:11">
-      <c r="K356" s="50"/>
+      <c r="K356" s="48"/>
     </row>
     <row r="357" spans="11:11">
-      <c r="K357" s="50"/>
+      <c r="K357" s="48"/>
     </row>
     <row r="358" spans="11:11">
-      <c r="K358" s="50"/>
+      <c r="K358" s="48"/>
     </row>
     <row r="359" spans="11:11">
-      <c r="K359" s="50"/>
+      <c r="K359" s="48"/>
     </row>
     <row r="360" spans="11:11">
-      <c r="K360" s="50"/>
+      <c r="K360" s="48"/>
     </row>
     <row r="361" spans="11:11">
-      <c r="K361" s="50"/>
+      <c r="K361" s="48"/>
     </row>
     <row r="362" spans="11:11">
-      <c r="K362" s="50"/>
+      <c r="K362" s="48"/>
     </row>
     <row r="363" spans="11:11">
-      <c r="K363" s="50"/>
+      <c r="K363" s="48"/>
     </row>
     <row r="364" spans="11:11">
-      <c r="K364" s="50"/>
+      <c r="K364" s="48"/>
     </row>
     <row r="365" spans="11:11">
-      <c r="K365" s="50"/>
+      <c r="K365" s="48"/>
     </row>
     <row r="366" spans="11:11">
-      <c r="K366" s="50"/>
+      <c r="K366" s="48"/>
     </row>
     <row r="367" spans="11:11">
-      <c r="K367" s="50"/>
+      <c r="K367" s="48"/>
     </row>
     <row r="368" spans="11:11">
-      <c r="K368" s="50"/>
+      <c r="K368" s="48"/>
     </row>
     <row r="369" spans="11:11">
-      <c r="K369" s="50"/>
+      <c r="K369" s="48"/>
     </row>
     <row r="370" spans="11:11">
-      <c r="K370" s="50"/>
+      <c r="K370" s="48"/>
     </row>
     <row r="371" spans="11:11">
-      <c r="K371" s="50"/>
+      <c r="K371" s="48"/>
     </row>
     <row r="372" spans="11:11">
-      <c r="K372" s="50"/>
+      <c r="K372" s="48"/>
     </row>
     <row r="373" spans="11:11">
-      <c r="K373" s="50"/>
+      <c r="K373" s="48"/>
     </row>
     <row r="374" spans="11:11">
-      <c r="K374" s="50"/>
+      <c r="K374" s="48"/>
     </row>
     <row r="375" spans="11:11">
-      <c r="K375" s="50"/>
+      <c r="K375" s="48"/>
     </row>
     <row r="376" spans="11:11">
-      <c r="K376" s="50"/>
+      <c r="K376" s="48"/>
     </row>
     <row r="377" spans="11:11">
-      <c r="K377" s="50"/>
+      <c r="K377" s="48"/>
     </row>
     <row r="378" spans="11:11">
-      <c r="K378" s="50"/>
+      <c r="K378" s="48"/>
     </row>
     <row r="379" spans="11:11">
-      <c r="K379" s="50"/>
+      <c r="K379" s="48"/>
     </row>
     <row r="380" spans="11:11">
-      <c r="K380" s="50"/>
+      <c r="K380" s="48"/>
     </row>
     <row r="381" spans="11:11">
-      <c r="K381" s="50"/>
+      <c r="K381" s="48"/>
     </row>
     <row r="382" spans="11:11">
-      <c r="K382" s="50"/>
+      <c r="K382" s="48"/>
     </row>
     <row r="383" spans="11:11">
-      <c r="K383" s="50"/>
+      <c r="K383" s="48"/>
     </row>
     <row r="384" spans="11:11">
-      <c r="K384" s="50"/>
+      <c r="K384" s="48"/>
     </row>
     <row r="385" spans="11:11">
-      <c r="K385" s="50"/>
+      <c r="K385" s="48"/>
     </row>
     <row r="386" spans="11:11">
-      <c r="K386" s="50"/>
+      <c r="K386" s="48"/>
     </row>
     <row r="387" spans="11:11">
-      <c r="K387" s="50"/>
+      <c r="K387" s="48"/>
     </row>
     <row r="388" spans="11:11">
-      <c r="K388" s="50"/>
+      <c r="K388" s="48"/>
     </row>
     <row r="389" spans="11:11">
-      <c r="K389" s="50"/>
+      <c r="K389" s="48"/>
     </row>
     <row r="390" spans="11:11">
-      <c r="K390" s="50"/>
+      <c r="K390" s="48"/>
     </row>
     <row r="391" spans="11:11">
-      <c r="K391" s="50"/>
+      <c r="K391" s="48"/>
     </row>
     <row r="392" spans="11:11">
-      <c r="K392" s="50"/>
+      <c r="K392" s="48"/>
     </row>
     <row r="393" spans="11:11">
-      <c r="K393" s="50"/>
+      <c r="K393" s="48"/>
     </row>
     <row r="394" spans="11:11">
-      <c r="K394" s="50"/>
+      <c r="K394" s="48"/>
     </row>
     <row r="395" spans="11:11">
-      <c r="K395" s="50"/>
+      <c r="K395" s="48"/>
     </row>
     <row r="396" spans="11:11">
-      <c r="K396" s="50"/>
+      <c r="K396" s="48"/>
     </row>
     <row r="397" spans="11:11">
-      <c r="K397" s="50"/>
+      <c r="K397" s="48"/>
     </row>
     <row r="398" spans="11:11">
-      <c r="K398" s="50"/>
+      <c r="K398" s="48"/>
     </row>
     <row r="399" spans="11:11">
-      <c r="K399" s="50"/>
+      <c r="K399" s="48"/>
     </row>
     <row r="400" spans="11:11">
-      <c r="K400" s="50"/>
+      <c r="K400" s="48"/>
     </row>
     <row r="401" spans="11:11">
-      <c r="K401" s="50"/>
+      <c r="K401" s="48"/>
     </row>
     <row r="402" spans="11:11">
-      <c r="K402" s="50"/>
+      <c r="K402" s="48"/>
     </row>
     <row r="403" spans="11:11">
-      <c r="K403" s="50"/>
+      <c r="K403" s="48"/>
     </row>
     <row r="404" spans="11:11">
-      <c r="K404" s="50"/>
+      <c r="K404" s="48"/>
     </row>
     <row r="405" spans="11:11">
-      <c r="K405" s="50"/>
+      <c r="K405" s="48"/>
     </row>
     <row r="406" spans="11:11">
-      <c r="K406" s="50"/>
+      <c r="K406" s="48"/>
     </row>
     <row r="407" spans="11:11">
-      <c r="K407" s="50"/>
+      <c r="K407" s="48"/>
     </row>
     <row r="408" spans="11:11">
-      <c r="K408" s="50"/>
+      <c r="K408" s="48"/>
     </row>
     <row r="409" spans="11:11">
-      <c r="K409" s="50"/>
+      <c r="K409" s="48"/>
     </row>
     <row r="410" spans="11:11">
-      <c r="K410" s="50"/>
+      <c r="K410" s="48"/>
     </row>
     <row r="411" spans="11:11">
-      <c r="K411" s="50"/>
+      <c r="K411" s="48"/>
     </row>
     <row r="412" spans="11:11">
-      <c r="K412" s="50"/>
+      <c r="K412" s="48"/>
     </row>
     <row r="413" spans="11:11">
-      <c r="K413" s="50"/>
+      <c r="K413" s="48"/>
     </row>
     <row r="414" spans="11:11">
-      <c r="K414" s="50"/>
+      <c r="K414" s="48"/>
     </row>
     <row r="415" spans="11:11">
-      <c r="K415" s="50"/>
+      <c r="K415" s="48"/>
     </row>
     <row r="416" spans="11:11">
-      <c r="K416" s="50"/>
+      <c r="K416" s="48"/>
     </row>
     <row r="417" spans="11:11">
-      <c r="K417" s="50"/>
+      <c r="K417" s="48"/>
     </row>
     <row r="418" spans="11:11">
-      <c r="K418" s="50"/>
+      <c r="K418" s="48"/>
     </row>
     <row r="419" spans="11:11">
-      <c r="K419" s="50"/>
+      <c r="K419" s="48"/>
     </row>
     <row r="420" spans="11:11">
-      <c r="K420" s="50"/>
+      <c r="K420" s="48"/>
     </row>
     <row r="421" spans="11:11">
-      <c r="K421" s="50"/>
+      <c r="K421" s="48"/>
     </row>
     <row r="422" spans="11:11">
-      <c r="K422" s="50"/>
+      <c r="K422" s="48"/>
     </row>
     <row r="423" spans="11:11">
-      <c r="K423" s="50"/>
+      <c r="K423" s="48"/>
     </row>
     <row r="424" spans="11:11">
-      <c r="K424" s="50"/>
+      <c r="K424" s="48"/>
     </row>
     <row r="425" spans="11:11">
-      <c r="K425" s="50"/>
+      <c r="K425" s="48"/>
     </row>
     <row r="426" spans="11:11">
-      <c r="K426" s="50"/>
+      <c r="K426" s="48"/>
     </row>
     <row r="427" spans="11:11">
-      <c r="K427" s="50"/>
+      <c r="K427" s="48"/>
     </row>
     <row r="428" spans="11:11">
-      <c r="K428" s="50"/>
+      <c r="K428" s="48"/>
     </row>
     <row r="429" spans="11:11">
-      <c r="K429" s="50"/>
+      <c r="K429" s="48"/>
     </row>
     <row r="430" spans="11:11">
-      <c r="K430" s="50"/>
+      <c r="K430" s="48"/>
     </row>
     <row r="431" spans="11:11">
-      <c r="K431" s="50"/>
+      <c r="K431" s="48"/>
     </row>
     <row r="432" spans="11:11">
-      <c r="K432" s="50"/>
+      <c r="K432" s="48"/>
     </row>
     <row r="433" spans="11:11">
-      <c r="K433" s="50"/>
+      <c r="K433" s="48"/>
     </row>
     <row r="434" spans="11:11">
-      <c r="K434" s="50"/>
+      <c r="K434" s="48"/>
     </row>
     <row r="435" spans="11:11">
-      <c r="K435" s="50"/>
+      <c r="K435" s="48"/>
     </row>
     <row r="436" spans="11:11">
-      <c r="K436" s="50"/>
+      <c r="K436" s="48"/>
     </row>
     <row r="437" spans="11:11">
-      <c r="K437" s="50"/>
+      <c r="K437" s="48"/>
     </row>
     <row r="438" spans="11:11">
-      <c r="K438" s="50"/>
+      <c r="K438" s="48"/>
     </row>
     <row r="439" spans="11:11">
-      <c r="K439" s="50"/>
+      <c r="K439" s="48"/>
     </row>
     <row r="440" spans="11:11">
-      <c r="K440" s="50"/>
+      <c r="K440" s="48"/>
     </row>
     <row r="441" spans="11:11">
-      <c r="K441" s="50"/>
+      <c r="K441" s="48"/>
     </row>
     <row r="442" spans="11:11">
-      <c r="K442" s="50"/>
+      <c r="K442" s="48"/>
     </row>
     <row r="443" spans="11:11">
-      <c r="K443" s="50"/>
+      <c r="K443" s="48"/>
     </row>
     <row r="444" spans="11:11">
-      <c r="K444" s="50"/>
+      <c r="K444" s="48"/>
     </row>
     <row r="445" spans="11:11">
-      <c r="K445" s="50"/>
+      <c r="K445" s="48"/>
     </row>
     <row r="446" spans="11:11">
-      <c r="K446" s="50"/>
+      <c r="K446" s="48"/>
     </row>
     <row r="447" spans="11:11">
-      <c r="K447" s="50"/>
+      <c r="K447" s="48"/>
     </row>
     <row r="448" spans="11:11">
-      <c r="K448" s="50"/>
+      <c r="K448" s="48"/>
     </row>
     <row r="449" spans="11:11">
-      <c r="K449" s="50"/>
+      <c r="K449" s="48"/>
     </row>
     <row r="450" spans="11:11">
-      <c r="K450" s="50"/>
+      <c r="K450" s="48"/>
     </row>
     <row r="451" spans="11:11">
-      <c r="K451" s="50"/>
+      <c r="K451" s="48"/>
     </row>
     <row r="452" spans="11:11">
-      <c r="K452" s="50"/>
+      <c r="K452" s="48"/>
     </row>
     <row r="453" spans="11:11">
-      <c r="K453" s="50"/>
+      <c r="K453" s="48"/>
     </row>
     <row r="454" spans="11:11">
-      <c r="K454" s="50"/>
+      <c r="K454" s="48"/>
     </row>
     <row r="455" spans="11:11">
-      <c r="K455" s="50"/>
+      <c r="K455" s="48"/>
     </row>
     <row r="456" spans="11:11">
-      <c r="K456" s="50"/>
+      <c r="K456" s="48"/>
     </row>
     <row r="457" spans="11:11">
-      <c r="K457" s="50"/>
+      <c r="K457" s="48"/>
     </row>
     <row r="458" spans="11:11">
-      <c r="K458" s="50"/>
+      <c r="K458" s="48"/>
     </row>
     <row r="459" spans="11:11">
-      <c r="K459" s="50"/>
+      <c r="K459" s="48"/>
     </row>
     <row r="460" spans="11:11">
-      <c r="K460" s="50"/>
+      <c r="K460" s="48"/>
     </row>
     <row r="461" spans="11:11">
-      <c r="K461" s="50"/>
+      <c r="K461" s="48"/>
     </row>
     <row r="462" spans="11:11">
-      <c r="K462" s="50"/>
+      <c r="K462" s="48"/>
     </row>
     <row r="463" spans="11:11">
-      <c r="K463" s="50"/>
+      <c r="K463" s="48"/>
     </row>
     <row r="464" spans="11:11">
-      <c r="K464" s="50"/>
+      <c r="K464" s="48"/>
     </row>
     <row r="465" spans="11:11">
-      <c r="K465" s="50"/>
+      <c r="K465" s="48"/>
     </row>
     <row r="466" spans="11:11">
-      <c r="K466" s="50"/>
+      <c r="K466" s="48"/>
     </row>
     <row r="467" spans="11:11">
-      <c r="K467" s="50"/>
+      <c r="K467" s="48"/>
     </row>
     <row r="468" spans="11:11">
-      <c r="K468" s="50"/>
+      <c r="K468" s="48"/>
     </row>
     <row r="469" spans="11:11">
-      <c r="K469" s="50"/>
+      <c r="K469" s="48"/>
     </row>
     <row r="470" spans="11:11">
-      <c r="K470" s="50"/>
+      <c r="K470" s="48"/>
     </row>
     <row r="471" spans="11:11">
-      <c r="K471" s="50"/>
+      <c r="K471" s="48"/>
     </row>
     <row r="472" spans="11:11">
-      <c r="K472" s="50"/>
+      <c r="K472" s="48"/>
     </row>
     <row r="473" spans="11:11">
-      <c r="K473" s="50"/>
+      <c r="K473" s="48"/>
     </row>
     <row r="474" spans="11:11">
-      <c r="K474" s="50"/>
+      <c r="K474" s="48"/>
     </row>
     <row r="475" spans="11:11">
-      <c r="K475" s="50"/>
+      <c r="K475" s="48"/>
     </row>
     <row r="476" spans="11:11">
-      <c r="K476" s="50"/>
+      <c r="K476" s="48"/>
     </row>
     <row r="477" spans="11:11">
-      <c r="K477" s="50"/>
+      <c r="K477" s="48"/>
     </row>
     <row r="478" spans="11:11">
-      <c r="K478" s="50"/>
+      <c r="K478" s="48"/>
     </row>
     <row r="479" spans="11:11">
-      <c r="K479" s="50"/>
+      <c r="K479" s="48"/>
     </row>
     <row r="480" spans="11:11">
-      <c r="K480" s="50"/>
+      <c r="K480" s="48"/>
     </row>
     <row r="481" spans="11:11">
-      <c r="K481" s="50"/>
+      <c r="K481" s="48"/>
     </row>
     <row r="482" spans="11:11">
-      <c r="K482" s="50"/>
+      <c r="K482" s="48"/>
     </row>
     <row r="483" spans="11:11">
-      <c r="K483" s="50"/>
+      <c r="K483" s="48"/>
     </row>
     <row r="484" spans="11:11">
-      <c r="K484" s="50"/>
+      <c r="K484" s="48"/>
     </row>
     <row r="485" spans="11:11">
-      <c r="K485" s="50"/>
+      <c r="K485" s="48"/>
     </row>
     <row r="486" spans="11:11">
-      <c r="K486" s="50"/>
+      <c r="K486" s="48"/>
     </row>
     <row r="487" spans="11:11">
-      <c r="K487" s="50"/>
+      <c r="K487" s="48"/>
     </row>
     <row r="488" spans="11:11">
-      <c r="K488" s="50"/>
+      <c r="K488" s="48"/>
     </row>
     <row r="489" spans="11:11">
-      <c r="K489" s="50"/>
+      <c r="K489" s="48"/>
     </row>
     <row r="490" spans="11:11">
-      <c r="K490" s="50"/>
+      <c r="K490" s="48"/>
     </row>
     <row r="491" spans="11:11">
-      <c r="K491" s="50"/>
+      <c r="K491" s="48"/>
     </row>
     <row r="492" spans="11:11">
-      <c r="K492" s="50"/>
+      <c r="K492" s="48"/>
     </row>
     <row r="493" spans="11:11">
-      <c r="K493" s="50"/>
+      <c r="K493" s="48"/>
     </row>
     <row r="494" spans="11:11">
-      <c r="K494" s="50"/>
+      <c r="K494" s="48"/>
     </row>
     <row r="495" spans="11:11">
-      <c r="K495" s="50"/>
+      <c r="K495" s="48"/>
     </row>
     <row r="496" spans="11:11">
-      <c r="K496" s="50"/>
+      <c r="K496" s="48"/>
     </row>
     <row r="497" spans="11:11">
-      <c r="K497" s="50"/>
+      <c r="K497" s="48"/>
     </row>
     <row r="498" spans="11:11">
-      <c r="K498" s="50"/>
+      <c r="K498" s="48"/>
     </row>
     <row r="499" spans="11:11">
-      <c r="K499" s="50"/>
+      <c r="K499" s="48"/>
     </row>
     <row r="500" spans="11:11">
-      <c r="K500" s="50"/>
+      <c r="K500" s="48"/>
     </row>
     <row r="501" spans="11:11">
-      <c r="K501" s="50"/>
+      <c r="K501" s="48"/>
     </row>
     <row r="502" spans="11:11">
-      <c r="K502" s="50"/>
+      <c r="K502" s="48"/>
     </row>
     <row r="503" spans="11:11">
-      <c r="K503" s="50"/>
+      <c r="K503" s="48"/>
     </row>
     <row r="504" spans="11:11">
-      <c r="K504" s="50"/>
+      <c r="K504" s="48"/>
     </row>
     <row r="505" spans="11:11">
-      <c r="K505" s="50"/>
+      <c r="K505" s="48"/>
     </row>
     <row r="506" spans="11:11">
-      <c r="K506" s="50"/>
+      <c r="K506" s="48"/>
     </row>
     <row r="507" spans="11:11">
-      <c r="K507" s="50"/>
+      <c r="K507" s="48"/>
     </row>
     <row r="508" spans="11:11">
-      <c r="K508" s="50"/>
+      <c r="K508" s="48"/>
     </row>
     <row r="509" spans="11:11">
-      <c r="K509" s="50"/>
+      <c r="K509" s="48"/>
     </row>
     <row r="510" spans="11:11">
-      <c r="K510" s="50"/>
+      <c r="K510" s="48"/>
     </row>
     <row r="511" spans="11:11">
-      <c r="K511" s="50"/>
+      <c r="K511" s="48"/>
     </row>
     <row r="512" spans="11:11">
-      <c r="K512" s="50"/>
+      <c r="K512" s="48"/>
     </row>
     <row r="513" spans="11:11">
-      <c r="K513" s="50"/>
+      <c r="K513" s="48"/>
     </row>
     <row r="514" spans="11:11">
-      <c r="K514" s="50"/>
+      <c r="K514" s="48"/>
     </row>
     <row r="515" spans="11:11">
-      <c r="K515" s="50"/>
+      <c r="K515" s="48"/>
     </row>
     <row r="516" spans="11:11">
-      <c r="K516" s="50"/>
+      <c r="K516" s="48"/>
     </row>
     <row r="517" spans="11:11">
-      <c r="K517" s="50"/>
+      <c r="K517" s="48"/>
     </row>
     <row r="518" spans="11:11">
-      <c r="K518" s="50"/>
+      <c r="K518" s="48"/>
     </row>
     <row r="519" spans="11:11">
-      <c r="K519" s="50"/>
+      <c r="K519" s="48"/>
     </row>
     <row r="520" spans="11:11">
-      <c r="K520" s="50"/>
+      <c r="K520" s="48"/>
     </row>
     <row r="521" spans="11:11">
-      <c r="K521" s="50"/>
+      <c r="K521" s="48"/>
     </row>
     <row r="522" spans="11:11">
-      <c r="K522" s="50"/>
+      <c r="K522" s="48"/>
     </row>
     <row r="523" spans="11:11">
-      <c r="K523" s="50"/>
+      <c r="K523" s="48"/>
     </row>
     <row r="524" spans="11:11">
-      <c r="K524" s="50"/>
+      <c r="K524" s="48"/>
     </row>
     <row r="525" spans="11:11">
-      <c r="K525" s="50"/>
+      <c r="K525" s="48"/>
     </row>
     <row r="526" spans="11:11">
-      <c r="K526" s="50"/>
+      <c r="K526" s="48"/>
     </row>
     <row r="527" spans="11:11">
-      <c r="K527" s="50"/>
+      <c r="K527" s="48"/>
     </row>
     <row r="528" spans="11:11">
-      <c r="K528" s="50"/>
+      <c r="K528" s="48"/>
     </row>
     <row r="529" spans="11:11">
-      <c r="K529" s="50"/>
+      <c r="K529" s="48"/>
     </row>
     <row r="530" spans="11:11">
-      <c r="K530" s="50"/>
+      <c r="K530" s="48"/>
     </row>
     <row r="531" spans="11:11">
-      <c r="K531" s="50"/>
+      <c r="K531" s="48"/>
     </row>
     <row r="532" spans="11:11">
-      <c r="K532" s="50"/>
+      <c r="K532" s="48"/>
     </row>
     <row r="533" spans="11:11">
-      <c r="K533" s="50"/>
+      <c r="K533" s="48"/>
     </row>
     <row r="534" spans="11:11">
-      <c r="K534" s="50"/>
+      <c r="K534" s="48"/>
     </row>
     <row r="535" spans="11:11">
-      <c r="K535" s="50"/>
+      <c r="K535" s="48"/>
     </row>
     <row r="536" spans="11:11">
-      <c r="K536" s="50"/>
+      <c r="K536" s="48"/>
     </row>
     <row r="537" spans="11:11">
-      <c r="K537" s="50"/>
+      <c r="K537" s="48"/>
     </row>
     <row r="538" spans="11:11">
-      <c r="K538" s="50"/>
+      <c r="K538" s="48"/>
     </row>
     <row r="539" spans="11:11">
-      <c r="K539" s="50"/>
+      <c r="K539" s="48"/>
     </row>
     <row r="540" spans="11:11">
-      <c r="K540" s="50"/>
+      <c r="K540" s="48"/>
     </row>
     <row r="541" spans="11:11">
-      <c r="K541" s="50"/>
+      <c r="K541" s="48"/>
     </row>
     <row r="542" spans="11:11">
-      <c r="K542" s="50"/>
+      <c r="K542" s="48"/>
     </row>
     <row r="543" spans="11:11">
-      <c r="K543" s="50"/>
+      <c r="K543" s="48"/>
     </row>
     <row r="544" spans="11:11">
-      <c r="K544" s="50"/>
+      <c r="K544" s="48"/>
     </row>
     <row r="545" spans="11:11">
-      <c r="K545" s="50"/>
+      <c r="K545" s="48"/>
     </row>
     <row r="546" spans="11:11">
-      <c r="K546" s="50"/>
+      <c r="K546" s="48"/>
     </row>
     <row r="547" spans="11:11">
-      <c r="K547" s="50"/>
+      <c r="K547" s="48"/>
     </row>
     <row r="548" spans="11:11">
-      <c r="K548" s="50"/>
+      <c r="K548" s="48"/>
     </row>
     <row r="549" spans="11:11">
-      <c r="K549" s="50"/>
+      <c r="K549" s="48"/>
     </row>
     <row r="550" spans="11:11">
-      <c r="K550" s="50"/>
+      <c r="K550" s="48"/>
     </row>
     <row r="551" spans="11:11">
-      <c r="K551" s="50"/>
+      <c r="K551" s="48"/>
     </row>
     <row r="552" spans="11:11">
-      <c r="K552" s="50"/>
+      <c r="K552" s="48"/>
     </row>
     <row r="553" spans="11:11">
-      <c r="K553" s="50"/>
+      <c r="K553" s="48"/>
     </row>
     <row r="554" spans="11:11">
-      <c r="K554" s="50"/>
+      <c r="K554" s="48"/>
     </row>
     <row r="555" spans="11:11">
-      <c r="K555" s="50"/>
+      <c r="K555" s="48"/>
     </row>
     <row r="556" spans="11:11">
-      <c r="K556" s="50"/>
+      <c r="K556" s="48"/>
     </row>
     <row r="557" spans="11:11">
-      <c r="K557" s="50"/>
+      <c r="K557" s="48"/>
     </row>
     <row r="558" spans="11:11">
-      <c r="K558" s="50"/>
+      <c r="K558" s="48"/>
     </row>
     <row r="559" spans="11:11">
-      <c r="K559" s="50"/>
+      <c r="K559" s="48"/>
     </row>
     <row r="560" spans="11:11">
-      <c r="K560" s="50"/>
+      <c r="K560" s="48"/>
     </row>
     <row r="561" spans="11:11">
-      <c r="K561" s="50"/>
+      <c r="K561" s="48"/>
     </row>
     <row r="562" spans="11:11">
-      <c r="K562" s="50"/>
+      <c r="K562" s="48"/>
     </row>
     <row r="563" spans="11:11">
-      <c r="K563" s="50"/>
+      <c r="K563" s="48"/>
     </row>
     <row r="564" spans="11:11">
-      <c r="K564" s="50"/>
+      <c r="K564" s="48"/>
     </row>
     <row r="565" spans="11:11">
-      <c r="K565" s="50"/>
+      <c r="K565" s="48"/>
     </row>
     <row r="566" spans="11:11">
-      <c r="K566" s="50"/>
+      <c r="K566" s="48"/>
     </row>
     <row r="567" spans="11:11">
-      <c r="K567" s="50"/>
+      <c r="K567" s="48"/>
     </row>
     <row r="568" spans="11:11">
-      <c r="K568" s="50"/>
+      <c r="K568" s="48"/>
     </row>
     <row r="569" spans="11:11">
-      <c r="K569" s="50"/>
+      <c r="K569" s="48"/>
     </row>
     <row r="570" spans="11:11">
-      <c r="K570" s="50"/>
+      <c r="K570" s="48"/>
     </row>
     <row r="571" spans="11:11">
-      <c r="K571" s="50"/>
+      <c r="K571" s="48"/>
     </row>
     <row r="572" spans="11:11">
-      <c r="K572" s="50"/>
+      <c r="K572" s="48"/>
     </row>
     <row r="573" spans="11:11">
-      <c r="K573" s="50"/>
+      <c r="K573" s="48"/>
     </row>
     <row r="574" spans="11:11">
-      <c r="K574" s="50"/>
+      <c r="K574" s="48"/>
     </row>
     <row r="575" spans="11:11">
-      <c r="K575" s="50"/>
+      <c r="K575" s="48"/>
     </row>
     <row r="576" spans="11:11">
-      <c r="K576" s="50"/>
+      <c r="K576" s="48"/>
     </row>
     <row r="577" spans="11:11">
-      <c r="K577" s="50"/>
+      <c r="K577" s="48"/>
     </row>
     <row r="578" spans="11:11">
-      <c r="K578" s="50"/>
+      <c r="K578" s="48"/>
     </row>
     <row r="579" spans="11:11">
-      <c r="K579" s="50"/>
+      <c r="K579" s="48"/>
     </row>
     <row r="580" spans="11:11">
-      <c r="K580" s="50"/>
+      <c r="K580" s="48"/>
     </row>
     <row r="581" spans="11:11">
-      <c r="K581" s="50"/>
+      <c r="K581" s="48"/>
     </row>
     <row r="582" spans="11:11">
-      <c r="K582" s="50"/>
+      <c r="K582" s="48"/>
     </row>
     <row r="583" spans="11:11">
-      <c r="K583" s="50"/>
+      <c r="K583" s="48"/>
     </row>
     <row r="584" spans="11:11">
-      <c r="K584" s="50"/>
+      <c r="K584" s="48"/>
     </row>
     <row r="585" spans="11:11">
-      <c r="K585" s="50"/>
+      <c r="K585" s="48"/>
     </row>
     <row r="586" spans="11:11">
-      <c r="K586" s="50"/>
+      <c r="K586" s="48"/>
     </row>
     <row r="587" spans="11:11">
-      <c r="K587" s="50"/>
+      <c r="K587" s="48"/>
     </row>
     <row r="588" spans="11:11">
-      <c r="K588" s="50"/>
+      <c r="K588" s="48"/>
     </row>
     <row r="589" spans="11:11">
-      <c r="K589" s="50"/>
+      <c r="K589" s="48"/>
     </row>
     <row r="590" spans="11:11">
-      <c r="K590" s="50"/>
+      <c r="K590" s="48"/>
     </row>
     <row r="591" spans="11:11">
-      <c r="K591" s="50"/>
+      <c r="K591" s="48"/>
     </row>
     <row r="592" spans="11:11">
-      <c r="K592" s="50"/>
+      <c r="K592" s="48"/>
     </row>
     <row r="593" spans="11:11">
-      <c r="K593" s="50"/>
+      <c r="K593" s="48"/>
     </row>
     <row r="594" spans="11:11">
-      <c r="K594" s="50"/>
+      <c r="K594" s="48"/>
     </row>
     <row r="595" spans="11:11">
-      <c r="K595" s="50"/>
+      <c r="K595" s="48"/>
     </row>
     <row r="596" spans="11:11">
-      <c r="K596" s="50"/>
+      <c r="K596" s="48"/>
     </row>
     <row r="597" spans="11:11">
-      <c r="K597" s="50"/>
+      <c r="K597" s="48"/>
     </row>
     <row r="598" spans="11:11">
-      <c r="K598" s="50"/>
+      <c r="K598" s="48"/>
     </row>
     <row r="599" spans="11:11">
-      <c r="K599" s="50"/>
+      <c r="K599" s="48"/>
     </row>
     <row r="600" spans="11:11">
-      <c r="K600" s="50"/>
+      <c r="K600" s="48"/>
     </row>
     <row r="601" spans="11:11">
-      <c r="K601" s="50"/>
+      <c r="K601" s="48"/>
     </row>
     <row r="602" spans="11:11">
-      <c r="K602" s="50"/>
+      <c r="K602" s="48"/>
     </row>
     <row r="603" spans="11:11">
-      <c r="K603" s="50"/>
+      <c r="K603" s="48"/>
     </row>
     <row r="604" spans="11:11">
-      <c r="K604" s="50"/>
+      <c r="K604" s="48"/>
     </row>
     <row r="605" spans="11:11">
-      <c r="K605" s="50"/>
+      <c r="K605" s="48"/>
     </row>
     <row r="606" spans="11:11">
-      <c r="K606" s="50"/>
+      <c r="K606" s="48"/>
     </row>
     <row r="607" spans="11:11">
-      <c r="K607" s="50"/>
+      <c r="K607" s="48"/>
     </row>
     <row r="608" spans="11:11">
-      <c r="K608" s="50"/>
+      <c r="K608" s="48"/>
     </row>
     <row r="609" spans="11:11">
-      <c r="K609" s="50"/>
+      <c r="K609" s="48"/>
     </row>
     <row r="610" spans="11:11">
-      <c r="K610" s="50"/>
+      <c r="K610" s="48"/>
     </row>
     <row r="611" spans="11:11">
-      <c r="K611" s="50"/>
+      <c r="K611" s="48"/>
     </row>
     <row r="612" spans="11:11">
-      <c r="K612" s="50"/>
+      <c r="K612" s="48"/>
     </row>
     <row r="613" spans="11:11">
-      <c r="K613" s="50"/>
+      <c r="K613" s="48"/>
     </row>
     <row r="614" spans="11:11">
-      <c r="K614" s="50"/>
+      <c r="K614" s="48"/>
     </row>
     <row r="615" spans="11:11">
-      <c r="K615" s="50"/>
+      <c r="K615" s="48"/>
     </row>
     <row r="616" spans="11:11">
-      <c r="K616" s="50"/>
+      <c r="K616" s="48"/>
     </row>
     <row r="617" spans="11:11">
-      <c r="K617" s="50"/>
+      <c r="K617" s="48"/>
     </row>
     <row r="618" spans="11:11">
-      <c r="K618" s="50"/>
+      <c r="K618" s="48"/>
     </row>
     <row r="619" spans="11:11">
-      <c r="K619" s="50"/>
+      <c r="K619" s="48"/>
     </row>
     <row r="620" spans="11:11">
-      <c r="K620" s="50"/>
+      <c r="K620" s="48"/>
     </row>
     <row r="621" spans="11:11">
-      <c r="K621" s="50"/>
+      <c r="K621" s="48"/>
     </row>
     <row r="622" spans="11:11">
-      <c r="K622" s="50"/>
+      <c r="K622" s="48"/>
     </row>
     <row r="623" spans="11:11">
-      <c r="K623" s="50"/>
+      <c r="K623" s="48"/>
     </row>
     <row r="624" spans="11:11">
-      <c r="K624" s="50"/>
+      <c r="K624" s="48"/>
     </row>
     <row r="625" spans="11:11">
-      <c r="K625" s="50"/>
+      <c r="K625" s="48"/>
     </row>
     <row r="626" spans="11:11">
-      <c r="K626" s="50"/>
+      <c r="K626" s="48"/>
     </row>
     <row r="627" spans="11:11">
-      <c r="K627" s="50"/>
+      <c r="K627" s="48"/>
     </row>
     <row r="628" spans="11:11">
-      <c r="K628" s="50"/>
+      <c r="K628" s="48"/>
     </row>
     <row r="629" spans="11:11">
-      <c r="K629" s="50"/>
+      <c r="K629" s="48"/>
     </row>
     <row r="630" spans="11:11">
-      <c r="K630" s="50"/>
+      <c r="K630" s="48"/>
     </row>
     <row r="631" spans="11:11">
-      <c r="K631" s="50"/>
+      <c r="K631" s="48"/>
     </row>
     <row r="632" spans="11:11">
-      <c r="K632" s="50"/>
+      <c r="K632" s="48"/>
     </row>
     <row r="633" spans="11:11">
-      <c r="K633" s="50"/>
+      <c r="K633" s="48"/>
     </row>
     <row r="634" spans="11:11">
-      <c r="K634" s="50"/>
+      <c r="K634" s="48"/>
     </row>
     <row r="635" spans="11:11">
-      <c r="K635" s="50"/>
+      <c r="K635" s="48"/>
     </row>
     <row r="636" spans="11:11">
-      <c r="K636" s="50"/>
+      <c r="K636" s="48"/>
     </row>
     <row r="637" spans="11:11">
-      <c r="K637" s="50"/>
+      <c r="K637" s="48"/>
     </row>
     <row r="638" spans="11:11">
-      <c r="K638" s="50"/>
+      <c r="K638" s="48"/>
     </row>
     <row r="639" spans="11:11">
-      <c r="K639" s="50"/>
+      <c r="K639" s="48"/>
     </row>
     <row r="640" spans="11:11">
-      <c r="K640" s="50"/>
+      <c r="K640" s="48"/>
     </row>
     <row r="641" spans="11:11">
-      <c r="K641" s="50"/>
+      <c r="K641" s="48"/>
     </row>
     <row r="642" spans="11:11">
-      <c r="K642" s="50"/>
+      <c r="K642" s="48"/>
     </row>
     <row r="643" spans="11:11">
-      <c r="K643" s="50"/>
+      <c r="K643" s="48"/>
     </row>
     <row r="644" spans="11:11">
-      <c r="K644" s="50"/>
+      <c r="K644" s="48"/>
     </row>
     <row r="645" spans="11:11">
-      <c r="K645" s="50"/>
+      <c r="K645" s="48"/>
     </row>
     <row r="646" spans="11:11">
-      <c r="K646" s="50"/>
+      <c r="K646" s="48"/>
     </row>
     <row r="647" spans="11:11">
-      <c r="K647" s="50"/>
+      <c r="K647" s="48"/>
     </row>
     <row r="648" spans="11:11">
-      <c r="K648" s="50"/>
+      <c r="K648" s="48"/>
     </row>
     <row r="649" spans="11:11">
-      <c r="K649" s="50"/>
+      <c r="K649" s="48"/>
     </row>
     <row r="650" spans="11:11">
-      <c r="K650" s="50"/>
+      <c r="K650" s="48"/>
     </row>
     <row r="651" spans="11:11">
-      <c r="K651" s="50"/>
+      <c r="K651" s="48"/>
     </row>
     <row r="652" spans="11:11">
-      <c r="K652" s="50"/>
+      <c r="K652" s="48"/>
     </row>
     <row r="653" spans="11:11">
-      <c r="K653" s="50"/>
+      <c r="K653" s="48"/>
     </row>
     <row r="654" spans="11:11">
-      <c r="K654" s="50"/>
+      <c r="K654" s="48"/>
     </row>
     <row r="655" spans="11:11">
-      <c r="K655" s="50"/>
+      <c r="K655" s="48"/>
     </row>
     <row r="656" spans="11:11">
-      <c r="K656" s="50"/>
+      <c r="K656" s="48"/>
     </row>
     <row r="657" spans="11:11">
-      <c r="K657" s="50"/>
+      <c r="K657" s="48"/>
     </row>
     <row r="658" spans="11:11">
-      <c r="K658" s="50"/>
+      <c r="K658" s="48"/>
     </row>
     <row r="659" spans="11:11">
-      <c r="K659" s="50"/>
+      <c r="K659" s="48"/>
     </row>
     <row r="660" spans="11:11">
-      <c r="K660" s="50"/>
+      <c r="K660" s="48"/>
     </row>
     <row r="661" spans="11:11">
-      <c r="K661" s="50"/>
+      <c r="K661" s="48"/>
     </row>
     <row r="662" spans="11:11">
-      <c r="K662" s="50"/>
+      <c r="K662" s="48"/>
     </row>
     <row r="663" spans="11:11">
-      <c r="K663" s="50"/>
+      <c r="K663" s="48"/>
     </row>
     <row r="664" spans="11:11">
-      <c r="K664" s="50"/>
+      <c r="K664" s="48"/>
     </row>
     <row r="665" spans="11:11">
-      <c r="K665" s="50"/>
+      <c r="K665" s="48"/>
     </row>
     <row r="666" spans="11:11">
-      <c r="K666" s="50"/>
+      <c r="K666" s="48"/>
     </row>
     <row r="667" spans="11:11">
-      <c r="K667" s="50"/>
+      <c r="K667" s="48"/>
     </row>
     <row r="668" spans="11:11">
-      <c r="K668" s="50"/>
+      <c r="K668" s="48"/>
     </row>
     <row r="669" spans="11:11">
-      <c r="K669" s="50"/>
+      <c r="K669" s="48"/>
     </row>
     <row r="670" spans="11:11">
-      <c r="K670" s="50"/>
+      <c r="K670" s="48"/>
     </row>
     <row r="671" spans="11:11">
-      <c r="K671" s="50"/>
+      <c r="K671" s="48"/>
     </row>
     <row r="672" spans="11:11">
-      <c r="K672" s="50"/>
+      <c r="K672" s="48"/>
     </row>
     <row r="673" spans="11:11">
-      <c r="K673" s="50"/>
+      <c r="K673" s="48"/>
     </row>
     <row r="674" spans="11:11">
-      <c r="K674" s="50"/>
+      <c r="K674" s="48"/>
     </row>
     <row r="675" spans="11:11">
-      <c r="K675" s="50"/>
+      <c r="K675" s="48"/>
     </row>
     <row r="676" spans="11:11">
-      <c r="K676" s="50"/>
+      <c r="K676" s="48"/>
     </row>
     <row r="677" spans="11:11">
-      <c r="K677" s="50"/>
+      <c r="K677" s="48"/>
     </row>
     <row r="678" spans="11:11">
-      <c r="K678" s="50"/>
+      <c r="K678" s="48"/>
     </row>
     <row r="679" spans="11:11">
-      <c r="K679" s="50"/>
+      <c r="K679" s="48"/>
     </row>
     <row r="680" spans="11:11">
-      <c r="K680" s="50"/>
+      <c r="K680" s="48"/>
     </row>
     <row r="681" spans="11:11">
-      <c r="K681" s="50"/>
+      <c r="K681" s="48"/>
     </row>
     <row r="682" spans="11:11">
-      <c r="K682" s="50"/>
+      <c r="K682" s="48"/>
     </row>
     <row r="683" spans="11:11">
-      <c r="K683" s="50"/>
+      <c r="K683" s="48"/>
     </row>
     <row r="684" spans="11:11">
-      <c r="K684" s="50"/>
+      <c r="K684" s="48"/>
     </row>
     <row r="685" spans="11:11">
-      <c r="K685" s="50"/>
+      <c r="K685" s="48"/>
     </row>
     <row r="686" spans="11:11">
-      <c r="K686" s="50"/>
+      <c r="K686" s="48"/>
     </row>
     <row r="687" spans="11:11">
-      <c r="K687" s="50"/>
+      <c r="K687" s="48"/>
     </row>
     <row r="688" spans="11:11">
-      <c r="K688" s="50"/>
+      <c r="K688" s="48"/>
     </row>
     <row r="689" spans="11:11">
-      <c r="K689" s="50"/>
+      <c r="K689" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
